--- a/Excel/4 - Meteora Ecommerce.xlsx
+++ b/Excel/4 - Meteora Ecommerce.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menez\KR\Programação\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menez\KR\Programação\00.Estudos\DataEng\DataEngPills\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F395548B-3D0D-4781-9FAD-066FE6B58695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF860C93-D55A-4584-957A-EDA5B9B30625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" tabRatio="698" firstSheet="3" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" tabRatio="698" firstSheet="5" activeTab="7" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="Vendas" sheetId="16" r:id="rId4"/>
     <sheet name="Consultas" sheetId="24" r:id="rId5"/>
     <sheet name="Cadastros Auxiliares" sheetId="23" r:id="rId6"/>
-    <sheet name="Dados para Gráficos" sheetId="19" state="hidden" r:id="rId7"/>
-    <sheet name="Dashboard" sheetId="18" state="hidden" r:id="rId8"/>
+    <sheet name="Desafio 1" sheetId="30" r:id="rId7"/>
+    <sheet name="Desafio 2" sheetId="29" r:id="rId8"/>
+    <sheet name="Dados para Gráficos" sheetId="19" state="hidden" r:id="rId9"/>
+    <sheet name="Dashboard" sheetId="18" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Vendas!$C$4:$F$86</definedName>
@@ -132,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="184">
   <si>
     <t>Produtos</t>
   </si>
@@ -652,15 +654,49 @@
   <si>
     <t>Desc.3</t>
   </si>
+  <si>
+    <t>Ache o preço do produto que tenha aproximadamente 20 quantidades</t>
+  </si>
+  <si>
+    <t>Ache um produto com aproximadamente 35 quantidades</t>
+  </si>
+  <si>
+    <t>Responda sim, se houver uma bermuda que custa 65,90</t>
+  </si>
+  <si>
+    <t>Qual o produto mais caro da lista</t>
+  </si>
+  <si>
+    <t>ordenado</t>
+  </si>
+  <si>
+    <t>não ordenado:</t>
+  </si>
+  <si>
+    <t>procv</t>
+  </si>
+  <si>
+    <t>procx</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>procv não faz pesquisa para a esquerda</t>
+  </si>
+  <si>
+    <t>indice+corresp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -860,7 +896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +935,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1412,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,6 +1613,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1585,33 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,24 +1712,46 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -1707,27 +1774,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1770,16 +1820,33 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -8476,38 +8543,38 @@
     </tableColumn>
     <tableColumn id="1" xr3:uid="{43632F1F-6978-4CE7-BB13-7CCE587D6821}" name="Data" dataDxfId="14"/>
     <tableColumn id="12" xr3:uid="{205A55AB-454E-4288-AE23-042C3C399E7A}" name="Código" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{F10FE83D-0C11-4488-B220-F560A4399F04}" name="Categoria" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{F10FE83D-0C11-4488-B220-F560A4399F04}" name="Categoria" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[#All],4,)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{7DC2ADED-AF8A-4BC8-A38E-FEF676FE49C9}" name="Qtd" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{05B7315B-2774-41BC-AFEC-4A19E452D6C7}" name="Preço Unitário" dataDxfId="10">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Preço Unitário]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{9937299F-2849-4F6D-997C-15E62F8FC55B}" name="Indice" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{9937299F-2849-4F6D-997C-15E62F8FC55B}" name="Indice" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.XMATCH(TB_Vendas[[#This Row],[Categoria]],Desc_Cols,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9C2947DF-1577-40C6-BA8E-DAD0D54AD25B}" name="indSES" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{9C2947DF-1577-40C6-BA8E-DAD0D54AD25B}" name="indSES" dataDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2277C041-507D-4501-BADE-7146CE69276B}" name="Desc.3" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{2277C041-507D-4501-BADE-7146CE69276B}" name="Desc.3" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D313142-1815-46CD-8658-071A923275C0}" name="Desc.2" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="14" xr3:uid="{7D313142-1815-46CD-8658-071A923275C0}" name="Desc.2" dataDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[Indice]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desc." dataDxfId="11" dataCellStyle="Porcentagem">
+    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desc." dataDxfId="5" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">INDEX(Desc_TabToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Qtd,1),MATCH(_xlfn.XLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Categoria]]),Desc_Cols,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3ACC2ADF-7728-47BF-82A0-D55FD0E1304E}" name="Desc. Vend." dataDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{3ACC2ADF-7728-47BF-82A0-D55FD0E1304E}" name="Desc. Vend." dataDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>_xlfn.XLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$4:$A$9,Vendedores!$D$4:$D$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F47E482D-60EB-4706-B1E5-B290E1301DF1}" name="Desconto" dataDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="11" xr3:uid="{F47E482D-60EB-4706-B1E5-B290E1301DF1}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vend.]],TB_Vendas[[#This Row],[Desc. Vend.]],TB_Vendas[[#This Row],[Desc.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2">
       <calculatedColumnFormula>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8824,88 +8891,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="40"/>
@@ -9001,6 +9068,3321 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D066AFB-3F48-47D7-9498-011A1BD0AB45}">
+  <dimension ref="C1:CB46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:AN3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="9.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="3:80" ht="9.75" customHeight="1">
+      <c r="W2" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="97"/>
+      <c r="AQ2" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="97"/>
+      <c r="BK2" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="96"/>
+      <c r="BN2" s="96"/>
+      <c r="BO2" s="96"/>
+      <c r="BP2" s="96"/>
+      <c r="BQ2" s="96"/>
+      <c r="BR2" s="96"/>
+      <c r="BS2" s="96"/>
+      <c r="BT2" s="96"/>
+      <c r="BU2" s="96"/>
+      <c r="BV2" s="96"/>
+      <c r="BW2" s="96"/>
+      <c r="BX2" s="96"/>
+      <c r="BY2" s="96"/>
+      <c r="BZ2" s="96"/>
+      <c r="CA2" s="96"/>
+      <c r="CB2" s="97"/>
+    </row>
+    <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
+      <c r="AQ3" s="98"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="99"/>
+      <c r="AT3" s="99"/>
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="99"/>
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="99"/>
+      <c r="BG3" s="99"/>
+      <c r="BH3" s="100"/>
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="99"/>
+      <c r="BN3" s="99"/>
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="99"/>
+      <c r="BU3" s="99"/>
+      <c r="BV3" s="99"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="100"/>
+    </row>
+    <row r="4" spans="3:80" ht="9.75" customHeight="1">
+      <c r="W4" s="101">
+        <f>COUNTA(TB_Produtos[Código])</f>
+        <v>60</v>
+      </c>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="103"/>
+      <c r="AQ4" s="101">
+        <f>SUM(TB_Vendas[Qtd])</f>
+        <v>250</v>
+      </c>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="102"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="103"/>
+      <c r="BK4" s="110">
+        <f>SUM(TB_Vendas[Total])</f>
+        <v>33304.799999999988</v>
+      </c>
+      <c r="BL4" s="111"/>
+      <c r="BM4" s="111"/>
+      <c r="BN4" s="111"/>
+      <c r="BO4" s="111"/>
+      <c r="BP4" s="111"/>
+      <c r="BQ4" s="111"/>
+      <c r="BR4" s="111"/>
+      <c r="BS4" s="111"/>
+      <c r="BT4" s="111"/>
+      <c r="BU4" s="111"/>
+      <c r="BV4" s="111"/>
+      <c r="BW4" s="111"/>
+      <c r="BX4" s="111"/>
+      <c r="BY4" s="111"/>
+      <c r="BZ4" s="111"/>
+      <c r="CA4" s="111"/>
+      <c r="CB4" s="112"/>
+    </row>
+    <row r="5" spans="3:80" ht="9.75" customHeight="1">
+      <c r="W5" s="104"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="106"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="105"/>
+      <c r="BB5" s="105"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="105"/>
+      <c r="BH5" s="106"/>
+      <c r="BK5" s="113"/>
+      <c r="BL5" s="114"/>
+      <c r="BM5" s="114"/>
+      <c r="BN5" s="114"/>
+      <c r="BO5" s="114"/>
+      <c r="BP5" s="114"/>
+      <c r="BQ5" s="114"/>
+      <c r="BR5" s="114"/>
+      <c r="BS5" s="114"/>
+      <c r="BT5" s="114"/>
+      <c r="BU5" s="114"/>
+      <c r="BV5" s="114"/>
+      <c r="BW5" s="114"/>
+      <c r="BX5" s="114"/>
+      <c r="BY5" s="114"/>
+      <c r="BZ5" s="114"/>
+      <c r="CA5" s="114"/>
+      <c r="CB5" s="115"/>
+    </row>
+    <row r="6" spans="3:80" ht="9.75" customHeight="1">
+      <c r="W6" s="104"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="106"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="106"/>
+      <c r="BK6" s="113"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="114"/>
+      <c r="BO6" s="114"/>
+      <c r="BP6" s="114"/>
+      <c r="BQ6" s="114"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="114"/>
+      <c r="BU6" s="114"/>
+      <c r="BV6" s="114"/>
+      <c r="BW6" s="114"/>
+      <c r="BX6" s="114"/>
+      <c r="BY6" s="114"/>
+      <c r="BZ6" s="114"/>
+      <c r="CA6" s="114"/>
+      <c r="CB6" s="115"/>
+    </row>
+    <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
+      <c r="W7" s="107"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="108"/>
+      <c r="AK7" s="108"/>
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="108"/>
+      <c r="AN7" s="109"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="108"/>
+      <c r="AY7" s="108"/>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
+      <c r="BC7" s="108"/>
+      <c r="BD7" s="108"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="108"/>
+      <c r="BG7" s="108"/>
+      <c r="BH7" s="109"/>
+      <c r="BK7" s="116"/>
+      <c r="BL7" s="117"/>
+      <c r="BM7" s="117"/>
+      <c r="BN7" s="117"/>
+      <c r="BO7" s="117"/>
+      <c r="BP7" s="117"/>
+      <c r="BQ7" s="117"/>
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="117"/>
+      <c r="BU7" s="117"/>
+      <c r="BV7" s="117"/>
+      <c r="BW7" s="117"/>
+      <c r="BX7" s="117"/>
+      <c r="BY7" s="117"/>
+      <c r="BZ7" s="117"/>
+      <c r="CA7" s="117"/>
+      <c r="CB7" s="118"/>
+    </row>
+    <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
+    <row r="9" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C9" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="96"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="96"/>
+      <c r="AJ9" s="96"/>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="96"/>
+      <c r="AQ9" s="96"/>
+      <c r="AR9" s="96"/>
+      <c r="AS9" s="96"/>
+      <c r="AT9" s="96"/>
+      <c r="AU9" s="96"/>
+      <c r="AV9" s="96"/>
+      <c r="AW9" s="96"/>
+      <c r="AX9" s="96"/>
+      <c r="AY9" s="96"/>
+      <c r="AZ9" s="96"/>
+      <c r="BA9" s="96"/>
+      <c r="BB9" s="96"/>
+      <c r="BC9" s="96"/>
+      <c r="BD9" s="96"/>
+      <c r="BE9" s="96"/>
+      <c r="BF9" s="96"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="96"/>
+      <c r="BI9" s="96"/>
+      <c r="BJ9" s="96"/>
+      <c r="BK9" s="96"/>
+      <c r="BL9" s="96"/>
+      <c r="BM9" s="96"/>
+      <c r="BN9" s="96"/>
+      <c r="BO9" s="96"/>
+      <c r="BP9" s="96"/>
+      <c r="BQ9" s="96"/>
+      <c r="BR9" s="96"/>
+      <c r="BS9" s="96"/>
+      <c r="BT9" s="96"/>
+      <c r="BU9" s="96"/>
+      <c r="BV9" s="96"/>
+      <c r="BW9" s="96"/>
+      <c r="BX9" s="96"/>
+      <c r="BY9" s="96"/>
+      <c r="BZ9" s="96"/>
+      <c r="CA9" s="96"/>
+      <c r="CB9" s="97"/>
+    </row>
+    <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="99"/>
+      <c r="AZ10" s="99"/>
+      <c r="BA10" s="99"/>
+      <c r="BB10" s="99"/>
+      <c r="BC10" s="99"/>
+      <c r="BD10" s="99"/>
+      <c r="BE10" s="99"/>
+      <c r="BF10" s="99"/>
+      <c r="BG10" s="99"/>
+      <c r="BH10" s="99"/>
+      <c r="BI10" s="99"/>
+      <c r="BJ10" s="99"/>
+      <c r="BK10" s="99"/>
+      <c r="BL10" s="99"/>
+      <c r="BM10" s="99"/>
+      <c r="BN10" s="99"/>
+      <c r="BO10" s="99"/>
+      <c r="BP10" s="99"/>
+      <c r="BQ10" s="99"/>
+      <c r="BR10" s="99"/>
+      <c r="BS10" s="99"/>
+      <c r="BT10" s="99"/>
+      <c r="BU10" s="99"/>
+      <c r="BV10" s="99"/>
+      <c r="BW10" s="99"/>
+      <c r="BX10" s="99"/>
+      <c r="BY10" s="99"/>
+      <c r="BZ10" s="99"/>
+      <c r="CA10" s="99"/>
+      <c r="CB10" s="100"/>
+    </row>
+    <row r="11" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="120"/>
+      <c r="AO11" s="120"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="120"/>
+      <c r="AR11" s="120"/>
+      <c r="AS11" s="120"/>
+      <c r="AT11" s="120"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="120"/>
+      <c r="AW11" s="120"/>
+      <c r="AX11" s="120"/>
+      <c r="AY11" s="120"/>
+      <c r="AZ11" s="120"/>
+      <c r="BA11" s="120"/>
+      <c r="BB11" s="120"/>
+      <c r="BC11" s="120"/>
+      <c r="BD11" s="120"/>
+      <c r="BE11" s="120"/>
+      <c r="BF11" s="120"/>
+      <c r="BG11" s="120"/>
+      <c r="BH11" s="120"/>
+      <c r="BI11" s="120"/>
+      <c r="BJ11" s="120"/>
+      <c r="BK11" s="120"/>
+      <c r="BL11" s="120"/>
+      <c r="BM11" s="120"/>
+      <c r="BN11" s="120"/>
+      <c r="BO11" s="120"/>
+      <c r="BP11" s="120"/>
+      <c r="BQ11" s="120"/>
+      <c r="BR11" s="120"/>
+      <c r="BS11" s="120"/>
+      <c r="BT11" s="120"/>
+      <c r="BU11" s="120"/>
+      <c r="BV11" s="120"/>
+      <c r="BW11" s="120"/>
+      <c r="BX11" s="120"/>
+      <c r="BY11" s="120"/>
+      <c r="BZ11" s="120"/>
+      <c r="CA11" s="120"/>
+      <c r="CB11" s="121"/>
+    </row>
+    <row r="12" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="123"/>
+      <c r="AC12" s="123"/>
+      <c r="AD12" s="123"/>
+      <c r="AE12" s="123"/>
+      <c r="AF12" s="123"/>
+      <c r="AG12" s="123"/>
+      <c r="AH12" s="123"/>
+      <c r="AI12" s="123"/>
+      <c r="AJ12" s="123"/>
+      <c r="AK12" s="123"/>
+      <c r="AL12" s="123"/>
+      <c r="AM12" s="123"/>
+      <c r="AN12" s="123"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="123"/>
+      <c r="AR12" s="123"/>
+      <c r="AS12" s="123"/>
+      <c r="AT12" s="123"/>
+      <c r="AU12" s="123"/>
+      <c r="AV12" s="123"/>
+      <c r="AW12" s="123"/>
+      <c r="AX12" s="123"/>
+      <c r="AY12" s="123"/>
+      <c r="AZ12" s="123"/>
+      <c r="BA12" s="123"/>
+      <c r="BB12" s="123"/>
+      <c r="BC12" s="123"/>
+      <c r="BD12" s="123"/>
+      <c r="BE12" s="123"/>
+      <c r="BF12" s="123"/>
+      <c r="BG12" s="123"/>
+      <c r="BH12" s="123"/>
+      <c r="BI12" s="123"/>
+      <c r="BJ12" s="123"/>
+      <c r="BK12" s="123"/>
+      <c r="BL12" s="123"/>
+      <c r="BM12" s="123"/>
+      <c r="BN12" s="123"/>
+      <c r="BO12" s="123"/>
+      <c r="BP12" s="123"/>
+      <c r="BQ12" s="123"/>
+      <c r="BR12" s="123"/>
+      <c r="BS12" s="123"/>
+      <c r="BT12" s="123"/>
+      <c r="BU12" s="123"/>
+      <c r="BV12" s="123"/>
+      <c r="BW12" s="123"/>
+      <c r="BX12" s="123"/>
+      <c r="BY12" s="123"/>
+      <c r="BZ12" s="123"/>
+      <c r="CA12" s="123"/>
+      <c r="CB12" s="124"/>
+    </row>
+    <row r="13" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="123"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="123"/>
+      <c r="AM13" s="123"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="123"/>
+      <c r="AP13" s="123"/>
+      <c r="AQ13" s="123"/>
+      <c r="AR13" s="123"/>
+      <c r="AS13" s="123"/>
+      <c r="AT13" s="123"/>
+      <c r="AU13" s="123"/>
+      <c r="AV13" s="123"/>
+      <c r="AW13" s="123"/>
+      <c r="AX13" s="123"/>
+      <c r="AY13" s="123"/>
+      <c r="AZ13" s="123"/>
+      <c r="BA13" s="123"/>
+      <c r="BB13" s="123"/>
+      <c r="BC13" s="123"/>
+      <c r="BD13" s="123"/>
+      <c r="BE13" s="123"/>
+      <c r="BF13" s="123"/>
+      <c r="BG13" s="123"/>
+      <c r="BH13" s="123"/>
+      <c r="BI13" s="123"/>
+      <c r="BJ13" s="123"/>
+      <c r="BK13" s="123"/>
+      <c r="BL13" s="123"/>
+      <c r="BM13" s="123"/>
+      <c r="BN13" s="123"/>
+      <c r="BO13" s="123"/>
+      <c r="BP13" s="123"/>
+      <c r="BQ13" s="123"/>
+      <c r="BR13" s="123"/>
+      <c r="BS13" s="123"/>
+      <c r="BT13" s="123"/>
+      <c r="BU13" s="123"/>
+      <c r="BV13" s="123"/>
+      <c r="BW13" s="123"/>
+      <c r="BX13" s="123"/>
+      <c r="BY13" s="123"/>
+      <c r="BZ13" s="123"/>
+      <c r="CA13" s="123"/>
+      <c r="CB13" s="124"/>
+    </row>
+    <row r="14" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="123"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="123"/>
+      <c r="AO14" s="123"/>
+      <c r="AP14" s="123"/>
+      <c r="AQ14" s="123"/>
+      <c r="AR14" s="123"/>
+      <c r="AS14" s="123"/>
+      <c r="AT14" s="123"/>
+      <c r="AU14" s="123"/>
+      <c r="AV14" s="123"/>
+      <c r="AW14" s="123"/>
+      <c r="AX14" s="123"/>
+      <c r="AY14" s="123"/>
+      <c r="AZ14" s="123"/>
+      <c r="BA14" s="123"/>
+      <c r="BB14" s="123"/>
+      <c r="BC14" s="123"/>
+      <c r="BD14" s="123"/>
+      <c r="BE14" s="123"/>
+      <c r="BF14" s="123"/>
+      <c r="BG14" s="123"/>
+      <c r="BH14" s="123"/>
+      <c r="BI14" s="123"/>
+      <c r="BJ14" s="123"/>
+      <c r="BK14" s="123"/>
+      <c r="BL14" s="123"/>
+      <c r="BM14" s="123"/>
+      <c r="BN14" s="123"/>
+      <c r="BO14" s="123"/>
+      <c r="BP14" s="123"/>
+      <c r="BQ14" s="123"/>
+      <c r="BR14" s="123"/>
+      <c r="BS14" s="123"/>
+      <c r="BT14" s="123"/>
+      <c r="BU14" s="123"/>
+      <c r="BV14" s="123"/>
+      <c r="BW14" s="123"/>
+      <c r="BX14" s="123"/>
+      <c r="BY14" s="123"/>
+      <c r="BZ14" s="123"/>
+      <c r="CA14" s="123"/>
+      <c r="CB14" s="124"/>
+    </row>
+    <row r="15" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="123"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="123"/>
+      <c r="AI15" s="123"/>
+      <c r="AJ15" s="123"/>
+      <c r="AK15" s="123"/>
+      <c r="AL15" s="123"/>
+      <c r="AM15" s="123"/>
+      <c r="AN15" s="123"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="123"/>
+      <c r="AR15" s="123"/>
+      <c r="AS15" s="123"/>
+      <c r="AT15" s="123"/>
+      <c r="AU15" s="123"/>
+      <c r="AV15" s="123"/>
+      <c r="AW15" s="123"/>
+      <c r="AX15" s="123"/>
+      <c r="AY15" s="123"/>
+      <c r="AZ15" s="123"/>
+      <c r="BA15" s="123"/>
+      <c r="BB15" s="123"/>
+      <c r="BC15" s="123"/>
+      <c r="BD15" s="123"/>
+      <c r="BE15" s="123"/>
+      <c r="BF15" s="123"/>
+      <c r="BG15" s="123"/>
+      <c r="BH15" s="123"/>
+      <c r="BI15" s="123"/>
+      <c r="BJ15" s="123"/>
+      <c r="BK15" s="123"/>
+      <c r="BL15" s="123"/>
+      <c r="BM15" s="123"/>
+      <c r="BN15" s="123"/>
+      <c r="BO15" s="123"/>
+      <c r="BP15" s="123"/>
+      <c r="BQ15" s="123"/>
+      <c r="BR15" s="123"/>
+      <c r="BS15" s="123"/>
+      <c r="BT15" s="123"/>
+      <c r="BU15" s="123"/>
+      <c r="BV15" s="123"/>
+      <c r="BW15" s="123"/>
+      <c r="BX15" s="123"/>
+      <c r="BY15" s="123"/>
+      <c r="BZ15" s="123"/>
+      <c r="CA15" s="123"/>
+      <c r="CB15" s="124"/>
+    </row>
+    <row r="16" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="123"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="123"/>
+      <c r="AE16" s="123"/>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="123"/>
+      <c r="AH16" s="123"/>
+      <c r="AI16" s="123"/>
+      <c r="AJ16" s="123"/>
+      <c r="AK16" s="123"/>
+      <c r="AL16" s="123"/>
+      <c r="AM16" s="123"/>
+      <c r="AN16" s="123"/>
+      <c r="AO16" s="123"/>
+      <c r="AP16" s="123"/>
+      <c r="AQ16" s="123"/>
+      <c r="AR16" s="123"/>
+      <c r="AS16" s="123"/>
+      <c r="AT16" s="123"/>
+      <c r="AU16" s="123"/>
+      <c r="AV16" s="123"/>
+      <c r="AW16" s="123"/>
+      <c r="AX16" s="123"/>
+      <c r="AY16" s="123"/>
+      <c r="AZ16" s="123"/>
+      <c r="BA16" s="123"/>
+      <c r="BB16" s="123"/>
+      <c r="BC16" s="123"/>
+      <c r="BD16" s="123"/>
+      <c r="BE16" s="123"/>
+      <c r="BF16" s="123"/>
+      <c r="BG16" s="123"/>
+      <c r="BH16" s="123"/>
+      <c r="BI16" s="123"/>
+      <c r="BJ16" s="123"/>
+      <c r="BK16" s="123"/>
+      <c r="BL16" s="123"/>
+      <c r="BM16" s="123"/>
+      <c r="BN16" s="123"/>
+      <c r="BO16" s="123"/>
+      <c r="BP16" s="123"/>
+      <c r="BQ16" s="123"/>
+      <c r="BR16" s="123"/>
+      <c r="BS16" s="123"/>
+      <c r="BT16" s="123"/>
+      <c r="BU16" s="123"/>
+      <c r="BV16" s="123"/>
+      <c r="BW16" s="123"/>
+      <c r="BX16" s="123"/>
+      <c r="BY16" s="123"/>
+      <c r="BZ16" s="123"/>
+      <c r="CA16" s="123"/>
+      <c r="CB16" s="124"/>
+    </row>
+    <row r="17" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="123"/>
+      <c r="AD17" s="123"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="123"/>
+      <c r="AJ17" s="123"/>
+      <c r="AK17" s="123"/>
+      <c r="AL17" s="123"/>
+      <c r="AM17" s="123"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="123"/>
+      <c r="AP17" s="123"/>
+      <c r="AQ17" s="123"/>
+      <c r="AR17" s="123"/>
+      <c r="AS17" s="123"/>
+      <c r="AT17" s="123"/>
+      <c r="AU17" s="123"/>
+      <c r="AV17" s="123"/>
+      <c r="AW17" s="123"/>
+      <c r="AX17" s="123"/>
+      <c r="AY17" s="123"/>
+      <c r="AZ17" s="123"/>
+      <c r="BA17" s="123"/>
+      <c r="BB17" s="123"/>
+      <c r="BC17" s="123"/>
+      <c r="BD17" s="123"/>
+      <c r="BE17" s="123"/>
+      <c r="BF17" s="123"/>
+      <c r="BG17" s="123"/>
+      <c r="BH17" s="123"/>
+      <c r="BI17" s="123"/>
+      <c r="BJ17" s="123"/>
+      <c r="BK17" s="123"/>
+      <c r="BL17" s="123"/>
+      <c r="BM17" s="123"/>
+      <c r="BN17" s="123"/>
+      <c r="BO17" s="123"/>
+      <c r="BP17" s="123"/>
+      <c r="BQ17" s="123"/>
+      <c r="BR17" s="123"/>
+      <c r="BS17" s="123"/>
+      <c r="BT17" s="123"/>
+      <c r="BU17" s="123"/>
+      <c r="BV17" s="123"/>
+      <c r="BW17" s="123"/>
+      <c r="BX17" s="123"/>
+      <c r="BY17" s="123"/>
+      <c r="BZ17" s="123"/>
+      <c r="CA17" s="123"/>
+      <c r="CB17" s="124"/>
+    </row>
+    <row r="18" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="123"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="123"/>
+      <c r="AC18" s="123"/>
+      <c r="AD18" s="123"/>
+      <c r="AE18" s="123"/>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="123"/>
+      <c r="AH18" s="123"/>
+      <c r="AI18" s="123"/>
+      <c r="AJ18" s="123"/>
+      <c r="AK18" s="123"/>
+      <c r="AL18" s="123"/>
+      <c r="AM18" s="123"/>
+      <c r="AN18" s="123"/>
+      <c r="AO18" s="123"/>
+      <c r="AP18" s="123"/>
+      <c r="AQ18" s="123"/>
+      <c r="AR18" s="123"/>
+      <c r="AS18" s="123"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="123"/>
+      <c r="AV18" s="123"/>
+      <c r="AW18" s="123"/>
+      <c r="AX18" s="123"/>
+      <c r="AY18" s="123"/>
+      <c r="AZ18" s="123"/>
+      <c r="BA18" s="123"/>
+      <c r="BB18" s="123"/>
+      <c r="BC18" s="123"/>
+      <c r="BD18" s="123"/>
+      <c r="BE18" s="123"/>
+      <c r="BF18" s="123"/>
+      <c r="BG18" s="123"/>
+      <c r="BH18" s="123"/>
+      <c r="BI18" s="123"/>
+      <c r="BJ18" s="123"/>
+      <c r="BK18" s="123"/>
+      <c r="BL18" s="123"/>
+      <c r="BM18" s="123"/>
+      <c r="BN18" s="123"/>
+      <c r="BO18" s="123"/>
+      <c r="BP18" s="123"/>
+      <c r="BQ18" s="123"/>
+      <c r="BR18" s="123"/>
+      <c r="BS18" s="123"/>
+      <c r="BT18" s="123"/>
+      <c r="BU18" s="123"/>
+      <c r="BV18" s="123"/>
+      <c r="BW18" s="123"/>
+      <c r="BX18" s="123"/>
+      <c r="BY18" s="123"/>
+      <c r="BZ18" s="123"/>
+      <c r="CA18" s="123"/>
+      <c r="CB18" s="124"/>
+    </row>
+    <row r="19" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="123"/>
+      <c r="AJ19" s="123"/>
+      <c r="AK19" s="123"/>
+      <c r="AL19" s="123"/>
+      <c r="AM19" s="123"/>
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="123"/>
+      <c r="AP19" s="123"/>
+      <c r="AQ19" s="123"/>
+      <c r="AR19" s="123"/>
+      <c r="AS19" s="123"/>
+      <c r="AT19" s="123"/>
+      <c r="AU19" s="123"/>
+      <c r="AV19" s="123"/>
+      <c r="AW19" s="123"/>
+      <c r="AX19" s="123"/>
+      <c r="AY19" s="123"/>
+      <c r="AZ19" s="123"/>
+      <c r="BA19" s="123"/>
+      <c r="BB19" s="123"/>
+      <c r="BC19" s="123"/>
+      <c r="BD19" s="123"/>
+      <c r="BE19" s="123"/>
+      <c r="BF19" s="123"/>
+      <c r="BG19" s="123"/>
+      <c r="BH19" s="123"/>
+      <c r="BI19" s="123"/>
+      <c r="BJ19" s="123"/>
+      <c r="BK19" s="123"/>
+      <c r="BL19" s="123"/>
+      <c r="BM19" s="123"/>
+      <c r="BN19" s="123"/>
+      <c r="BO19" s="123"/>
+      <c r="BP19" s="123"/>
+      <c r="BQ19" s="123"/>
+      <c r="BR19" s="123"/>
+      <c r="BS19" s="123"/>
+      <c r="BT19" s="123"/>
+      <c r="BU19" s="123"/>
+      <c r="BV19" s="123"/>
+      <c r="BW19" s="123"/>
+      <c r="BX19" s="123"/>
+      <c r="BY19" s="123"/>
+      <c r="BZ19" s="123"/>
+      <c r="CA19" s="123"/>
+      <c r="CB19" s="124"/>
+    </row>
+    <row r="20" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="123"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="123"/>
+      <c r="AI20" s="123"/>
+      <c r="AJ20" s="123"/>
+      <c r="AK20" s="123"/>
+      <c r="AL20" s="123"/>
+      <c r="AM20" s="123"/>
+      <c r="AN20" s="123"/>
+      <c r="AO20" s="123"/>
+      <c r="AP20" s="123"/>
+      <c r="AQ20" s="123"/>
+      <c r="AR20" s="123"/>
+      <c r="AS20" s="123"/>
+      <c r="AT20" s="123"/>
+      <c r="AU20" s="123"/>
+      <c r="AV20" s="123"/>
+      <c r="AW20" s="123"/>
+      <c r="AX20" s="123"/>
+      <c r="AY20" s="123"/>
+      <c r="AZ20" s="123"/>
+      <c r="BA20" s="123"/>
+      <c r="BB20" s="123"/>
+      <c r="BC20" s="123"/>
+      <c r="BD20" s="123"/>
+      <c r="BE20" s="123"/>
+      <c r="BF20" s="123"/>
+      <c r="BG20" s="123"/>
+      <c r="BH20" s="123"/>
+      <c r="BI20" s="123"/>
+      <c r="BJ20" s="123"/>
+      <c r="BK20" s="123"/>
+      <c r="BL20" s="123"/>
+      <c r="BM20" s="123"/>
+      <c r="BN20" s="123"/>
+      <c r="BO20" s="123"/>
+      <c r="BP20" s="123"/>
+      <c r="BQ20" s="123"/>
+      <c r="BR20" s="123"/>
+      <c r="BS20" s="123"/>
+      <c r="BT20" s="123"/>
+      <c r="BU20" s="123"/>
+      <c r="BV20" s="123"/>
+      <c r="BW20" s="123"/>
+      <c r="BX20" s="123"/>
+      <c r="BY20" s="123"/>
+      <c r="BZ20" s="123"/>
+      <c r="CA20" s="123"/>
+      <c r="CB20" s="124"/>
+    </row>
+    <row r="21" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="123"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="123"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="123"/>
+      <c r="AI21" s="123"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="123"/>
+      <c r="AL21" s="123"/>
+      <c r="AM21" s="123"/>
+      <c r="AN21" s="123"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="123"/>
+      <c r="AQ21" s="123"/>
+      <c r="AR21" s="123"/>
+      <c r="AS21" s="123"/>
+      <c r="AT21" s="123"/>
+      <c r="AU21" s="123"/>
+      <c r="AV21" s="123"/>
+      <c r="AW21" s="123"/>
+      <c r="AX21" s="123"/>
+      <c r="AY21" s="123"/>
+      <c r="AZ21" s="123"/>
+      <c r="BA21" s="123"/>
+      <c r="BB21" s="123"/>
+      <c r="BC21" s="123"/>
+      <c r="BD21" s="123"/>
+      <c r="BE21" s="123"/>
+      <c r="BF21" s="123"/>
+      <c r="BG21" s="123"/>
+      <c r="BH21" s="123"/>
+      <c r="BI21" s="123"/>
+      <c r="BJ21" s="123"/>
+      <c r="BK21" s="123"/>
+      <c r="BL21" s="123"/>
+      <c r="BM21" s="123"/>
+      <c r="BN21" s="123"/>
+      <c r="BO21" s="123"/>
+      <c r="BP21" s="123"/>
+      <c r="BQ21" s="123"/>
+      <c r="BR21" s="123"/>
+      <c r="BS21" s="123"/>
+      <c r="BT21" s="123"/>
+      <c r="BU21" s="123"/>
+      <c r="BV21" s="123"/>
+      <c r="BW21" s="123"/>
+      <c r="BX21" s="123"/>
+      <c r="BY21" s="123"/>
+      <c r="BZ21" s="123"/>
+      <c r="CA21" s="123"/>
+      <c r="CB21" s="124"/>
+    </row>
+    <row r="22" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="123"/>
+      <c r="AE22" s="123"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="123"/>
+      <c r="AI22" s="123"/>
+      <c r="AJ22" s="123"/>
+      <c r="AK22" s="123"/>
+      <c r="AL22" s="123"/>
+      <c r="AM22" s="123"/>
+      <c r="AN22" s="123"/>
+      <c r="AO22" s="123"/>
+      <c r="AP22" s="123"/>
+      <c r="AQ22" s="123"/>
+      <c r="AR22" s="123"/>
+      <c r="AS22" s="123"/>
+      <c r="AT22" s="123"/>
+      <c r="AU22" s="123"/>
+      <c r="AV22" s="123"/>
+      <c r="AW22" s="123"/>
+      <c r="AX22" s="123"/>
+      <c r="AY22" s="123"/>
+      <c r="AZ22" s="123"/>
+      <c r="BA22" s="123"/>
+      <c r="BB22" s="123"/>
+      <c r="BC22" s="123"/>
+      <c r="BD22" s="123"/>
+      <c r="BE22" s="123"/>
+      <c r="BF22" s="123"/>
+      <c r="BG22" s="123"/>
+      <c r="BH22" s="123"/>
+      <c r="BI22" s="123"/>
+      <c r="BJ22" s="123"/>
+      <c r="BK22" s="123"/>
+      <c r="BL22" s="123"/>
+      <c r="BM22" s="123"/>
+      <c r="BN22" s="123"/>
+      <c r="BO22" s="123"/>
+      <c r="BP22" s="123"/>
+      <c r="BQ22" s="123"/>
+      <c r="BR22" s="123"/>
+      <c r="BS22" s="123"/>
+      <c r="BT22" s="123"/>
+      <c r="BU22" s="123"/>
+      <c r="BV22" s="123"/>
+      <c r="BW22" s="123"/>
+      <c r="BX22" s="123"/>
+      <c r="BY22" s="123"/>
+      <c r="BZ22" s="123"/>
+      <c r="CA22" s="123"/>
+      <c r="CB22" s="124"/>
+    </row>
+    <row r="23" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="123"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="123"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="123"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="123"/>
+      <c r="AH23" s="123"/>
+      <c r="AI23" s="123"/>
+      <c r="AJ23" s="123"/>
+      <c r="AK23" s="123"/>
+      <c r="AL23" s="123"/>
+      <c r="AM23" s="123"/>
+      <c r="AN23" s="123"/>
+      <c r="AO23" s="123"/>
+      <c r="AP23" s="123"/>
+      <c r="AQ23" s="123"/>
+      <c r="AR23" s="123"/>
+      <c r="AS23" s="123"/>
+      <c r="AT23" s="123"/>
+      <c r="AU23" s="123"/>
+      <c r="AV23" s="123"/>
+      <c r="AW23" s="123"/>
+      <c r="AX23" s="123"/>
+      <c r="AY23" s="123"/>
+      <c r="AZ23" s="123"/>
+      <c r="BA23" s="123"/>
+      <c r="BB23" s="123"/>
+      <c r="BC23" s="123"/>
+      <c r="BD23" s="123"/>
+      <c r="BE23" s="123"/>
+      <c r="BF23" s="123"/>
+      <c r="BG23" s="123"/>
+      <c r="BH23" s="123"/>
+      <c r="BI23" s="123"/>
+      <c r="BJ23" s="123"/>
+      <c r="BK23" s="123"/>
+      <c r="BL23" s="123"/>
+      <c r="BM23" s="123"/>
+      <c r="BN23" s="123"/>
+      <c r="BO23" s="123"/>
+      <c r="BP23" s="123"/>
+      <c r="BQ23" s="123"/>
+      <c r="BR23" s="123"/>
+      <c r="BS23" s="123"/>
+      <c r="BT23" s="123"/>
+      <c r="BU23" s="123"/>
+      <c r="BV23" s="123"/>
+      <c r="BW23" s="123"/>
+      <c r="BX23" s="123"/>
+      <c r="BY23" s="123"/>
+      <c r="BZ23" s="123"/>
+      <c r="CA23" s="123"/>
+      <c r="CB23" s="124"/>
+    </row>
+    <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="126"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="126"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="126"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="126"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="126"/>
+      <c r="AJ24" s="126"/>
+      <c r="AK24" s="126"/>
+      <c r="AL24" s="126"/>
+      <c r="AM24" s="126"/>
+      <c r="AN24" s="126"/>
+      <c r="AO24" s="126"/>
+      <c r="AP24" s="126"/>
+      <c r="AQ24" s="126"/>
+      <c r="AR24" s="126"/>
+      <c r="AS24" s="126"/>
+      <c r="AT24" s="126"/>
+      <c r="AU24" s="126"/>
+      <c r="AV24" s="126"/>
+      <c r="AW24" s="126"/>
+      <c r="AX24" s="126"/>
+      <c r="AY24" s="126"/>
+      <c r="AZ24" s="126"/>
+      <c r="BA24" s="126"/>
+      <c r="BB24" s="126"/>
+      <c r="BC24" s="126"/>
+      <c r="BD24" s="126"/>
+      <c r="BE24" s="126"/>
+      <c r="BF24" s="126"/>
+      <c r="BG24" s="126"/>
+      <c r="BH24" s="126"/>
+      <c r="BI24" s="126"/>
+      <c r="BJ24" s="126"/>
+      <c r="BK24" s="126"/>
+      <c r="BL24" s="126"/>
+      <c r="BM24" s="126"/>
+      <c r="BN24" s="126"/>
+      <c r="BO24" s="126"/>
+      <c r="BP24" s="126"/>
+      <c r="BQ24" s="126"/>
+      <c r="BR24" s="126"/>
+      <c r="BS24" s="126"/>
+      <c r="BT24" s="126"/>
+      <c r="BU24" s="126"/>
+      <c r="BV24" s="126"/>
+      <c r="BW24" s="126"/>
+      <c r="BX24" s="126"/>
+      <c r="BY24" s="126"/>
+      <c r="BZ24" s="126"/>
+      <c r="CA24" s="126"/>
+      <c r="CB24" s="127"/>
+    </row>
+    <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
+    <row r="26" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C26" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="96"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="96"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="96"/>
+      <c r="AN26" s="97"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR26" s="96"/>
+      <c r="AS26" s="96"/>
+      <c r="AT26" s="96"/>
+      <c r="AU26" s="96"/>
+      <c r="AV26" s="96"/>
+      <c r="AW26" s="96"/>
+      <c r="AX26" s="96"/>
+      <c r="AY26" s="96"/>
+      <c r="AZ26" s="96"/>
+      <c r="BA26" s="96"/>
+      <c r="BB26" s="96"/>
+      <c r="BC26" s="96"/>
+      <c r="BD26" s="96"/>
+      <c r="BE26" s="96"/>
+      <c r="BF26" s="96"/>
+      <c r="BG26" s="96"/>
+      <c r="BH26" s="96"/>
+      <c r="BI26" s="96"/>
+      <c r="BJ26" s="96"/>
+      <c r="BK26" s="96"/>
+      <c r="BL26" s="96"/>
+      <c r="BM26" s="96"/>
+      <c r="BN26" s="96"/>
+      <c r="BO26" s="96"/>
+      <c r="BP26" s="96"/>
+      <c r="BQ26" s="96"/>
+      <c r="BR26" s="96"/>
+      <c r="BS26" s="96"/>
+      <c r="BT26" s="96"/>
+      <c r="BU26" s="96"/>
+      <c r="BV26" s="96"/>
+      <c r="BW26" s="96"/>
+      <c r="BX26" s="96"/>
+      <c r="BY26" s="96"/>
+      <c r="BZ26" s="96"/>
+      <c r="CA26" s="96"/>
+      <c r="CB26" s="97"/>
+    </row>
+    <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="99"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="99"/>
+      <c r="AS27" s="99"/>
+      <c r="AT27" s="99"/>
+      <c r="AU27" s="99"/>
+      <c r="AV27" s="99"/>
+      <c r="AW27" s="99"/>
+      <c r="AX27" s="99"/>
+      <c r="AY27" s="99"/>
+      <c r="AZ27" s="99"/>
+      <c r="BA27" s="99"/>
+      <c r="BB27" s="99"/>
+      <c r="BC27" s="99"/>
+      <c r="BD27" s="99"/>
+      <c r="BE27" s="99"/>
+      <c r="BF27" s="99"/>
+      <c r="BG27" s="99"/>
+      <c r="BH27" s="99"/>
+      <c r="BI27" s="99"/>
+      <c r="BJ27" s="99"/>
+      <c r="BK27" s="99"/>
+      <c r="BL27" s="99"/>
+      <c r="BM27" s="99"/>
+      <c r="BN27" s="99"/>
+      <c r="BO27" s="99"/>
+      <c r="BP27" s="99"/>
+      <c r="BQ27" s="99"/>
+      <c r="BR27" s="99"/>
+      <c r="BS27" s="99"/>
+      <c r="BT27" s="99"/>
+      <c r="BU27" s="99"/>
+      <c r="BV27" s="99"/>
+      <c r="BW27" s="99"/>
+      <c r="BX27" s="99"/>
+      <c r="BY27" s="99"/>
+      <c r="BZ27" s="99"/>
+      <c r="CA27" s="99"/>
+      <c r="CB27" s="100"/>
+    </row>
+    <row r="28" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C28" s="119"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="120"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="120"/>
+      <c r="Z28" s="120"/>
+      <c r="AA28" s="120"/>
+      <c r="AB28" s="120"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="120"/>
+      <c r="AE28" s="120"/>
+      <c r="AF28" s="120"/>
+      <c r="AG28" s="120"/>
+      <c r="AH28" s="120"/>
+      <c r="AI28" s="120"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="120"/>
+      <c r="AL28" s="120"/>
+      <c r="AM28" s="120"/>
+      <c r="AN28" s="121"/>
+      <c r="AQ28" s="119"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="120"/>
+      <c r="AY28" s="120"/>
+      <c r="AZ28" s="120"/>
+      <c r="BA28" s="120"/>
+      <c r="BB28" s="120"/>
+      <c r="BC28" s="120"/>
+      <c r="BD28" s="120"/>
+      <c r="BE28" s="120"/>
+      <c r="BF28" s="120"/>
+      <c r="BG28" s="120"/>
+      <c r="BH28" s="120"/>
+      <c r="BI28" s="120"/>
+      <c r="BJ28" s="120"/>
+      <c r="BK28" s="120"/>
+      <c r="BL28" s="120"/>
+      <c r="BM28" s="120"/>
+      <c r="BN28" s="120"/>
+      <c r="BO28" s="120"/>
+      <c r="BP28" s="120"/>
+      <c r="BQ28" s="120"/>
+      <c r="BR28" s="120"/>
+      <c r="BS28" s="120"/>
+      <c r="BT28" s="120"/>
+      <c r="BU28" s="120"/>
+      <c r="BV28" s="120"/>
+      <c r="BW28" s="120"/>
+      <c r="BX28" s="120"/>
+      <c r="BY28" s="120"/>
+      <c r="BZ28" s="120"/>
+      <c r="CA28" s="120"/>
+      <c r="CB28" s="121"/>
+    </row>
+    <row r="29" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123"/>
+      <c r="Y29" s="123"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="123"/>
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="123"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
+      <c r="AI29" s="123"/>
+      <c r="AJ29" s="123"/>
+      <c r="AK29" s="123"/>
+      <c r="AL29" s="123"/>
+      <c r="AM29" s="123"/>
+      <c r="AN29" s="124"/>
+      <c r="AQ29" s="122"/>
+      <c r="AR29" s="123"/>
+      <c r="AS29" s="123"/>
+      <c r="AT29" s="123"/>
+      <c r="AU29" s="123"/>
+      <c r="AV29" s="123"/>
+      <c r="AW29" s="123"/>
+      <c r="AX29" s="123"/>
+      <c r="AY29" s="123"/>
+      <c r="AZ29" s="123"/>
+      <c r="BA29" s="123"/>
+      <c r="BB29" s="123"/>
+      <c r="BC29" s="123"/>
+      <c r="BD29" s="123"/>
+      <c r="BE29" s="123"/>
+      <c r="BF29" s="123"/>
+      <c r="BG29" s="123"/>
+      <c r="BH29" s="123"/>
+      <c r="BI29" s="123"/>
+      <c r="BJ29" s="123"/>
+      <c r="BK29" s="123"/>
+      <c r="BL29" s="123"/>
+      <c r="BM29" s="123"/>
+      <c r="BN29" s="123"/>
+      <c r="BO29" s="123"/>
+      <c r="BP29" s="123"/>
+      <c r="BQ29" s="123"/>
+      <c r="BR29" s="123"/>
+      <c r="BS29" s="123"/>
+      <c r="BT29" s="123"/>
+      <c r="BU29" s="123"/>
+      <c r="BV29" s="123"/>
+      <c r="BW29" s="123"/>
+      <c r="BX29" s="123"/>
+      <c r="BY29" s="123"/>
+      <c r="BZ29" s="123"/>
+      <c r="CA29" s="123"/>
+      <c r="CB29" s="124"/>
+    </row>
+    <row r="30" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C30" s="122"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="123"/>
+      <c r="Z30" s="123"/>
+      <c r="AA30" s="123"/>
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="123"/>
+      <c r="AD30" s="123"/>
+      <c r="AE30" s="123"/>
+      <c r="AF30" s="123"/>
+      <c r="AG30" s="123"/>
+      <c r="AH30" s="123"/>
+      <c r="AI30" s="123"/>
+      <c r="AJ30" s="123"/>
+      <c r="AK30" s="123"/>
+      <c r="AL30" s="123"/>
+      <c r="AM30" s="123"/>
+      <c r="AN30" s="124"/>
+      <c r="AQ30" s="122"/>
+      <c r="AR30" s="123"/>
+      <c r="AS30" s="123"/>
+      <c r="AT30" s="123"/>
+      <c r="AU30" s="123"/>
+      <c r="AV30" s="123"/>
+      <c r="AW30" s="123"/>
+      <c r="AX30" s="123"/>
+      <c r="AY30" s="123"/>
+      <c r="AZ30" s="123"/>
+      <c r="BA30" s="123"/>
+      <c r="BB30" s="123"/>
+      <c r="BC30" s="123"/>
+      <c r="BD30" s="123"/>
+      <c r="BE30" s="123"/>
+      <c r="BF30" s="123"/>
+      <c r="BG30" s="123"/>
+      <c r="BH30" s="123"/>
+      <c r="BI30" s="123"/>
+      <c r="BJ30" s="123"/>
+      <c r="BK30" s="123"/>
+      <c r="BL30" s="123"/>
+      <c r="BM30" s="123"/>
+      <c r="BN30" s="123"/>
+      <c r="BO30" s="123"/>
+      <c r="BP30" s="123"/>
+      <c r="BQ30" s="123"/>
+      <c r="BR30" s="123"/>
+      <c r="BS30" s="123"/>
+      <c r="BT30" s="123"/>
+      <c r="BU30" s="123"/>
+      <c r="BV30" s="123"/>
+      <c r="BW30" s="123"/>
+      <c r="BX30" s="123"/>
+      <c r="BY30" s="123"/>
+      <c r="BZ30" s="123"/>
+      <c r="CA30" s="123"/>
+      <c r="CB30" s="124"/>
+    </row>
+    <row r="31" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="123"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="123"/>
+      <c r="AE31" s="123"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="123"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="123"/>
+      <c r="AJ31" s="123"/>
+      <c r="AK31" s="123"/>
+      <c r="AL31" s="123"/>
+      <c r="AM31" s="123"/>
+      <c r="AN31" s="124"/>
+      <c r="AQ31" s="122"/>
+      <c r="AR31" s="123"/>
+      <c r="AS31" s="123"/>
+      <c r="AT31" s="123"/>
+      <c r="AU31" s="123"/>
+      <c r="AV31" s="123"/>
+      <c r="AW31" s="123"/>
+      <c r="AX31" s="123"/>
+      <c r="AY31" s="123"/>
+      <c r="AZ31" s="123"/>
+      <c r="BA31" s="123"/>
+      <c r="BB31" s="123"/>
+      <c r="BC31" s="123"/>
+      <c r="BD31" s="123"/>
+      <c r="BE31" s="123"/>
+      <c r="BF31" s="123"/>
+      <c r="BG31" s="123"/>
+      <c r="BH31" s="123"/>
+      <c r="BI31" s="123"/>
+      <c r="BJ31" s="123"/>
+      <c r="BK31" s="123"/>
+      <c r="BL31" s="123"/>
+      <c r="BM31" s="123"/>
+      <c r="BN31" s="123"/>
+      <c r="BO31" s="123"/>
+      <c r="BP31" s="123"/>
+      <c r="BQ31" s="123"/>
+      <c r="BR31" s="123"/>
+      <c r="BS31" s="123"/>
+      <c r="BT31" s="123"/>
+      <c r="BU31" s="123"/>
+      <c r="BV31" s="123"/>
+      <c r="BW31" s="123"/>
+      <c r="BX31" s="123"/>
+      <c r="BY31" s="123"/>
+      <c r="BZ31" s="123"/>
+      <c r="CA31" s="123"/>
+      <c r="CB31" s="124"/>
+    </row>
+    <row r="32" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C32" s="122"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="123"/>
+      <c r="T32" s="123"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="123"/>
+      <c r="W32" s="123"/>
+      <c r="X32" s="123"/>
+      <c r="Y32" s="123"/>
+      <c r="Z32" s="123"/>
+      <c r="AA32" s="123"/>
+      <c r="AB32" s="123"/>
+      <c r="AC32" s="123"/>
+      <c r="AD32" s="123"/>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="123"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="123"/>
+      <c r="AJ32" s="123"/>
+      <c r="AK32" s="123"/>
+      <c r="AL32" s="123"/>
+      <c r="AM32" s="123"/>
+      <c r="AN32" s="124"/>
+      <c r="AQ32" s="122"/>
+      <c r="AR32" s="123"/>
+      <c r="AS32" s="123"/>
+      <c r="AT32" s="123"/>
+      <c r="AU32" s="123"/>
+      <c r="AV32" s="123"/>
+      <c r="AW32" s="123"/>
+      <c r="AX32" s="123"/>
+      <c r="AY32" s="123"/>
+      <c r="AZ32" s="123"/>
+      <c r="BA32" s="123"/>
+      <c r="BB32" s="123"/>
+      <c r="BC32" s="123"/>
+      <c r="BD32" s="123"/>
+      <c r="BE32" s="123"/>
+      <c r="BF32" s="123"/>
+      <c r="BG32" s="123"/>
+      <c r="BH32" s="123"/>
+      <c r="BI32" s="123"/>
+      <c r="BJ32" s="123"/>
+      <c r="BK32" s="123"/>
+      <c r="BL32" s="123"/>
+      <c r="BM32" s="123"/>
+      <c r="BN32" s="123"/>
+      <c r="BO32" s="123"/>
+      <c r="BP32" s="123"/>
+      <c r="BQ32" s="123"/>
+      <c r="BR32" s="123"/>
+      <c r="BS32" s="123"/>
+      <c r="BT32" s="123"/>
+      <c r="BU32" s="123"/>
+      <c r="BV32" s="123"/>
+      <c r="BW32" s="123"/>
+      <c r="BX32" s="123"/>
+      <c r="BY32" s="123"/>
+      <c r="BZ32" s="123"/>
+      <c r="CA32" s="123"/>
+      <c r="CB32" s="124"/>
+    </row>
+    <row r="33" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
+      <c r="T33" s="123"/>
+      <c r="U33" s="123"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
+      <c r="AC33" s="123"/>
+      <c r="AD33" s="123"/>
+      <c r="AE33" s="123"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="123"/>
+      <c r="AH33" s="123"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="123"/>
+      <c r="AL33" s="123"/>
+      <c r="AM33" s="123"/>
+      <c r="AN33" s="124"/>
+      <c r="AQ33" s="122"/>
+      <c r="AR33" s="123"/>
+      <c r="AS33" s="123"/>
+      <c r="AT33" s="123"/>
+      <c r="AU33" s="123"/>
+      <c r="AV33" s="123"/>
+      <c r="AW33" s="123"/>
+      <c r="AX33" s="123"/>
+      <c r="AY33" s="123"/>
+      <c r="AZ33" s="123"/>
+      <c r="BA33" s="123"/>
+      <c r="BB33" s="123"/>
+      <c r="BC33" s="123"/>
+      <c r="BD33" s="123"/>
+      <c r="BE33" s="123"/>
+      <c r="BF33" s="123"/>
+      <c r="BG33" s="123"/>
+      <c r="BH33" s="123"/>
+      <c r="BI33" s="123"/>
+      <c r="BJ33" s="123"/>
+      <c r="BK33" s="123"/>
+      <c r="BL33" s="123"/>
+      <c r="BM33" s="123"/>
+      <c r="BN33" s="123"/>
+      <c r="BO33" s="123"/>
+      <c r="BP33" s="123"/>
+      <c r="BQ33" s="123"/>
+      <c r="BR33" s="123"/>
+      <c r="BS33" s="123"/>
+      <c r="BT33" s="123"/>
+      <c r="BU33" s="123"/>
+      <c r="BV33" s="123"/>
+      <c r="BW33" s="123"/>
+      <c r="BX33" s="123"/>
+      <c r="BY33" s="123"/>
+      <c r="BZ33" s="123"/>
+      <c r="CA33" s="123"/>
+      <c r="CB33" s="124"/>
+    </row>
+    <row r="34" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C34" s="122"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="123"/>
+      <c r="W34" s="123"/>
+      <c r="X34" s="123"/>
+      <c r="Y34" s="123"/>
+      <c r="Z34" s="123"/>
+      <c r="AA34" s="123"/>
+      <c r="AB34" s="123"/>
+      <c r="AC34" s="123"/>
+      <c r="AD34" s="123"/>
+      <c r="AE34" s="123"/>
+      <c r="AF34" s="123"/>
+      <c r="AG34" s="123"/>
+      <c r="AH34" s="123"/>
+      <c r="AI34" s="123"/>
+      <c r="AJ34" s="123"/>
+      <c r="AK34" s="123"/>
+      <c r="AL34" s="123"/>
+      <c r="AM34" s="123"/>
+      <c r="AN34" s="124"/>
+      <c r="AQ34" s="122"/>
+      <c r="AR34" s="123"/>
+      <c r="AS34" s="123"/>
+      <c r="AT34" s="123"/>
+      <c r="AU34" s="123"/>
+      <c r="AV34" s="123"/>
+      <c r="AW34" s="123"/>
+      <c r="AX34" s="123"/>
+      <c r="AY34" s="123"/>
+      <c r="AZ34" s="123"/>
+      <c r="BA34" s="123"/>
+      <c r="BB34" s="123"/>
+      <c r="BC34" s="123"/>
+      <c r="BD34" s="123"/>
+      <c r="BE34" s="123"/>
+      <c r="BF34" s="123"/>
+      <c r="BG34" s="123"/>
+      <c r="BH34" s="123"/>
+      <c r="BI34" s="123"/>
+      <c r="BJ34" s="123"/>
+      <c r="BK34" s="123"/>
+      <c r="BL34" s="123"/>
+      <c r="BM34" s="123"/>
+      <c r="BN34" s="123"/>
+      <c r="BO34" s="123"/>
+      <c r="BP34" s="123"/>
+      <c r="BQ34" s="123"/>
+      <c r="BR34" s="123"/>
+      <c r="BS34" s="123"/>
+      <c r="BT34" s="123"/>
+      <c r="BU34" s="123"/>
+      <c r="BV34" s="123"/>
+      <c r="BW34" s="123"/>
+      <c r="BX34" s="123"/>
+      <c r="BY34" s="123"/>
+      <c r="BZ34" s="123"/>
+      <c r="CA34" s="123"/>
+      <c r="CB34" s="124"/>
+    </row>
+    <row r="35" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C35" s="122"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="123"/>
+      <c r="Q35" s="123"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="123"/>
+      <c r="T35" s="123"/>
+      <c r="U35" s="123"/>
+      <c r="V35" s="123"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="123"/>
+      <c r="Y35" s="123"/>
+      <c r="Z35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="123"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="123"/>
+      <c r="AF35" s="123"/>
+      <c r="AG35" s="123"/>
+      <c r="AH35" s="123"/>
+      <c r="AI35" s="123"/>
+      <c r="AJ35" s="123"/>
+      <c r="AK35" s="123"/>
+      <c r="AL35" s="123"/>
+      <c r="AM35" s="123"/>
+      <c r="AN35" s="124"/>
+      <c r="AQ35" s="122"/>
+      <c r="AR35" s="123"/>
+      <c r="AS35" s="123"/>
+      <c r="AT35" s="123"/>
+      <c r="AU35" s="123"/>
+      <c r="AV35" s="123"/>
+      <c r="AW35" s="123"/>
+      <c r="AX35" s="123"/>
+      <c r="AY35" s="123"/>
+      <c r="AZ35" s="123"/>
+      <c r="BA35" s="123"/>
+      <c r="BB35" s="123"/>
+      <c r="BC35" s="123"/>
+      <c r="BD35" s="123"/>
+      <c r="BE35" s="123"/>
+      <c r="BF35" s="123"/>
+      <c r="BG35" s="123"/>
+      <c r="BH35" s="123"/>
+      <c r="BI35" s="123"/>
+      <c r="BJ35" s="123"/>
+      <c r="BK35" s="123"/>
+      <c r="BL35" s="123"/>
+      <c r="BM35" s="123"/>
+      <c r="BN35" s="123"/>
+      <c r="BO35" s="123"/>
+      <c r="BP35" s="123"/>
+      <c r="BQ35" s="123"/>
+      <c r="BR35" s="123"/>
+      <c r="BS35" s="123"/>
+      <c r="BT35" s="123"/>
+      <c r="BU35" s="123"/>
+      <c r="BV35" s="123"/>
+      <c r="BW35" s="123"/>
+      <c r="BX35" s="123"/>
+      <c r="BY35" s="123"/>
+      <c r="BZ35" s="123"/>
+      <c r="CA35" s="123"/>
+      <c r="CB35" s="124"/>
+    </row>
+    <row r="36" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C36" s="122"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="123"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="123"/>
+      <c r="W36" s="123"/>
+      <c r="X36" s="123"/>
+      <c r="Y36" s="123"/>
+      <c r="Z36" s="123"/>
+      <c r="AA36" s="123"/>
+      <c r="AB36" s="123"/>
+      <c r="AC36" s="123"/>
+      <c r="AD36" s="123"/>
+      <c r="AE36" s="123"/>
+      <c r="AF36" s="123"/>
+      <c r="AG36" s="123"/>
+      <c r="AH36" s="123"/>
+      <c r="AI36" s="123"/>
+      <c r="AJ36" s="123"/>
+      <c r="AK36" s="123"/>
+      <c r="AL36" s="123"/>
+      <c r="AM36" s="123"/>
+      <c r="AN36" s="124"/>
+      <c r="AQ36" s="122"/>
+      <c r="AR36" s="123"/>
+      <c r="AS36" s="123"/>
+      <c r="AT36" s="123"/>
+      <c r="AU36" s="123"/>
+      <c r="AV36" s="123"/>
+      <c r="AW36" s="123"/>
+      <c r="AX36" s="123"/>
+      <c r="AY36" s="123"/>
+      <c r="AZ36" s="123"/>
+      <c r="BA36" s="123"/>
+      <c r="BB36" s="123"/>
+      <c r="BC36" s="123"/>
+      <c r="BD36" s="123"/>
+      <c r="BE36" s="123"/>
+      <c r="BF36" s="123"/>
+      <c r="BG36" s="123"/>
+      <c r="BH36" s="123"/>
+      <c r="BI36" s="123"/>
+      <c r="BJ36" s="123"/>
+      <c r="BK36" s="123"/>
+      <c r="BL36" s="123"/>
+      <c r="BM36" s="123"/>
+      <c r="BN36" s="123"/>
+      <c r="BO36" s="123"/>
+      <c r="BP36" s="123"/>
+      <c r="BQ36" s="123"/>
+      <c r="BR36" s="123"/>
+      <c r="BS36" s="123"/>
+      <c r="BT36" s="123"/>
+      <c r="BU36" s="123"/>
+      <c r="BV36" s="123"/>
+      <c r="BW36" s="123"/>
+      <c r="BX36" s="123"/>
+      <c r="BY36" s="123"/>
+      <c r="BZ36" s="123"/>
+      <c r="CA36" s="123"/>
+      <c r="CB36" s="124"/>
+    </row>
+    <row r="37" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C37" s="122"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="123"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="123"/>
+      <c r="Y37" s="123"/>
+      <c r="Z37" s="123"/>
+      <c r="AA37" s="123"/>
+      <c r="AB37" s="123"/>
+      <c r="AC37" s="123"/>
+      <c r="AD37" s="123"/>
+      <c r="AE37" s="123"/>
+      <c r="AF37" s="123"/>
+      <c r="AG37" s="123"/>
+      <c r="AH37" s="123"/>
+      <c r="AI37" s="123"/>
+      <c r="AJ37" s="123"/>
+      <c r="AK37" s="123"/>
+      <c r="AL37" s="123"/>
+      <c r="AM37" s="123"/>
+      <c r="AN37" s="124"/>
+      <c r="AQ37" s="122"/>
+      <c r="AR37" s="123"/>
+      <c r="AS37" s="123"/>
+      <c r="AT37" s="123"/>
+      <c r="AU37" s="123"/>
+      <c r="AV37" s="123"/>
+      <c r="AW37" s="123"/>
+      <c r="AX37" s="123"/>
+      <c r="AY37" s="123"/>
+      <c r="AZ37" s="123"/>
+      <c r="BA37" s="123"/>
+      <c r="BB37" s="123"/>
+      <c r="BC37" s="123"/>
+      <c r="BD37" s="123"/>
+      <c r="BE37" s="123"/>
+      <c r="BF37" s="123"/>
+      <c r="BG37" s="123"/>
+      <c r="BH37" s="123"/>
+      <c r="BI37" s="123"/>
+      <c r="BJ37" s="123"/>
+      <c r="BK37" s="123"/>
+      <c r="BL37" s="123"/>
+      <c r="BM37" s="123"/>
+      <c r="BN37" s="123"/>
+      <c r="BO37" s="123"/>
+      <c r="BP37" s="123"/>
+      <c r="BQ37" s="123"/>
+      <c r="BR37" s="123"/>
+      <c r="BS37" s="123"/>
+      <c r="BT37" s="123"/>
+      <c r="BU37" s="123"/>
+      <c r="BV37" s="123"/>
+      <c r="BW37" s="123"/>
+      <c r="BX37" s="123"/>
+      <c r="BY37" s="123"/>
+      <c r="BZ37" s="123"/>
+      <c r="CA37" s="123"/>
+      <c r="CB37" s="124"/>
+    </row>
+    <row r="38" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C38" s="122"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="123"/>
+      <c r="U38" s="123"/>
+      <c r="V38" s="123"/>
+      <c r="W38" s="123"/>
+      <c r="X38" s="123"/>
+      <c r="Y38" s="123"/>
+      <c r="Z38" s="123"/>
+      <c r="AA38" s="123"/>
+      <c r="AB38" s="123"/>
+      <c r="AC38" s="123"/>
+      <c r="AD38" s="123"/>
+      <c r="AE38" s="123"/>
+      <c r="AF38" s="123"/>
+      <c r="AG38" s="123"/>
+      <c r="AH38" s="123"/>
+      <c r="AI38" s="123"/>
+      <c r="AJ38" s="123"/>
+      <c r="AK38" s="123"/>
+      <c r="AL38" s="123"/>
+      <c r="AM38" s="123"/>
+      <c r="AN38" s="124"/>
+      <c r="AQ38" s="122"/>
+      <c r="AR38" s="123"/>
+      <c r="AS38" s="123"/>
+      <c r="AT38" s="123"/>
+      <c r="AU38" s="123"/>
+      <c r="AV38" s="123"/>
+      <c r="AW38" s="123"/>
+      <c r="AX38" s="123"/>
+      <c r="AY38" s="123"/>
+      <c r="AZ38" s="123"/>
+      <c r="BA38" s="123"/>
+      <c r="BB38" s="123"/>
+      <c r="BC38" s="123"/>
+      <c r="BD38" s="123"/>
+      <c r="BE38" s="123"/>
+      <c r="BF38" s="123"/>
+      <c r="BG38" s="123"/>
+      <c r="BH38" s="123"/>
+      <c r="BI38" s="123"/>
+      <c r="BJ38" s="123"/>
+      <c r="BK38" s="123"/>
+      <c r="BL38" s="123"/>
+      <c r="BM38" s="123"/>
+      <c r="BN38" s="123"/>
+      <c r="BO38" s="123"/>
+      <c r="BP38" s="123"/>
+      <c r="BQ38" s="123"/>
+      <c r="BR38" s="123"/>
+      <c r="BS38" s="123"/>
+      <c r="BT38" s="123"/>
+      <c r="BU38" s="123"/>
+      <c r="BV38" s="123"/>
+      <c r="BW38" s="123"/>
+      <c r="BX38" s="123"/>
+      <c r="BY38" s="123"/>
+      <c r="BZ38" s="123"/>
+      <c r="CA38" s="123"/>
+      <c r="CB38" s="124"/>
+    </row>
+    <row r="39" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C39" s="122"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
+      <c r="T39" s="123"/>
+      <c r="U39" s="123"/>
+      <c r="V39" s="123"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="123"/>
+      <c r="Y39" s="123"/>
+      <c r="Z39" s="123"/>
+      <c r="AA39" s="123"/>
+      <c r="AB39" s="123"/>
+      <c r="AC39" s="123"/>
+      <c r="AD39" s="123"/>
+      <c r="AE39" s="123"/>
+      <c r="AF39" s="123"/>
+      <c r="AG39" s="123"/>
+      <c r="AH39" s="123"/>
+      <c r="AI39" s="123"/>
+      <c r="AJ39" s="123"/>
+      <c r="AK39" s="123"/>
+      <c r="AL39" s="123"/>
+      <c r="AM39" s="123"/>
+      <c r="AN39" s="124"/>
+      <c r="AQ39" s="122"/>
+      <c r="AR39" s="123"/>
+      <c r="AS39" s="123"/>
+      <c r="AT39" s="123"/>
+      <c r="AU39" s="123"/>
+      <c r="AV39" s="123"/>
+      <c r="AW39" s="123"/>
+      <c r="AX39" s="123"/>
+      <c r="AY39" s="123"/>
+      <c r="AZ39" s="123"/>
+      <c r="BA39" s="123"/>
+      <c r="BB39" s="123"/>
+      <c r="BC39" s="123"/>
+      <c r="BD39" s="123"/>
+      <c r="BE39" s="123"/>
+      <c r="BF39" s="123"/>
+      <c r="BG39" s="123"/>
+      <c r="BH39" s="123"/>
+      <c r="BI39" s="123"/>
+      <c r="BJ39" s="123"/>
+      <c r="BK39" s="123"/>
+      <c r="BL39" s="123"/>
+      <c r="BM39" s="123"/>
+      <c r="BN39" s="123"/>
+      <c r="BO39" s="123"/>
+      <c r="BP39" s="123"/>
+      <c r="BQ39" s="123"/>
+      <c r="BR39" s="123"/>
+      <c r="BS39" s="123"/>
+      <c r="BT39" s="123"/>
+      <c r="BU39" s="123"/>
+      <c r="BV39" s="123"/>
+      <c r="BW39" s="123"/>
+      <c r="BX39" s="123"/>
+      <c r="BY39" s="123"/>
+      <c r="BZ39" s="123"/>
+      <c r="CA39" s="123"/>
+      <c r="CB39" s="124"/>
+    </row>
+    <row r="40" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C40" s="122"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="123"/>
+      <c r="U40" s="123"/>
+      <c r="V40" s="123"/>
+      <c r="W40" s="123"/>
+      <c r="X40" s="123"/>
+      <c r="Y40" s="123"/>
+      <c r="Z40" s="123"/>
+      <c r="AA40" s="123"/>
+      <c r="AB40" s="123"/>
+      <c r="AC40" s="123"/>
+      <c r="AD40" s="123"/>
+      <c r="AE40" s="123"/>
+      <c r="AF40" s="123"/>
+      <c r="AG40" s="123"/>
+      <c r="AH40" s="123"/>
+      <c r="AI40" s="123"/>
+      <c r="AJ40" s="123"/>
+      <c r="AK40" s="123"/>
+      <c r="AL40" s="123"/>
+      <c r="AM40" s="123"/>
+      <c r="AN40" s="124"/>
+      <c r="AQ40" s="122"/>
+      <c r="AR40" s="123"/>
+      <c r="AS40" s="123"/>
+      <c r="AT40" s="123"/>
+      <c r="AU40" s="123"/>
+      <c r="AV40" s="123"/>
+      <c r="AW40" s="123"/>
+      <c r="AX40" s="123"/>
+      <c r="AY40" s="123"/>
+      <c r="AZ40" s="123"/>
+      <c r="BA40" s="123"/>
+      <c r="BB40" s="123"/>
+      <c r="BC40" s="123"/>
+      <c r="BD40" s="123"/>
+      <c r="BE40" s="123"/>
+      <c r="BF40" s="123"/>
+      <c r="BG40" s="123"/>
+      <c r="BH40" s="123"/>
+      <c r="BI40" s="123"/>
+      <c r="BJ40" s="123"/>
+      <c r="BK40" s="123"/>
+      <c r="BL40" s="123"/>
+      <c r="BM40" s="123"/>
+      <c r="BN40" s="123"/>
+      <c r="BO40" s="123"/>
+      <c r="BP40" s="123"/>
+      <c r="BQ40" s="123"/>
+      <c r="BR40" s="123"/>
+      <c r="BS40" s="123"/>
+      <c r="BT40" s="123"/>
+      <c r="BU40" s="123"/>
+      <c r="BV40" s="123"/>
+      <c r="BW40" s="123"/>
+      <c r="BX40" s="123"/>
+      <c r="BY40" s="123"/>
+      <c r="BZ40" s="123"/>
+      <c r="CA40" s="123"/>
+      <c r="CB40" s="124"/>
+    </row>
+    <row r="41" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C41" s="122"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="123"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="123"/>
+      <c r="T41" s="123"/>
+      <c r="U41" s="123"/>
+      <c r="V41" s="123"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="123"/>
+      <c r="Y41" s="123"/>
+      <c r="Z41" s="123"/>
+      <c r="AA41" s="123"/>
+      <c r="AB41" s="123"/>
+      <c r="AC41" s="123"/>
+      <c r="AD41" s="123"/>
+      <c r="AE41" s="123"/>
+      <c r="AF41" s="123"/>
+      <c r="AG41" s="123"/>
+      <c r="AH41" s="123"/>
+      <c r="AI41" s="123"/>
+      <c r="AJ41" s="123"/>
+      <c r="AK41" s="123"/>
+      <c r="AL41" s="123"/>
+      <c r="AM41" s="123"/>
+      <c r="AN41" s="124"/>
+      <c r="AQ41" s="122"/>
+      <c r="AR41" s="123"/>
+      <c r="AS41" s="123"/>
+      <c r="AT41" s="123"/>
+      <c r="AU41" s="123"/>
+      <c r="AV41" s="123"/>
+      <c r="AW41" s="123"/>
+      <c r="AX41" s="123"/>
+      <c r="AY41" s="123"/>
+      <c r="AZ41" s="123"/>
+      <c r="BA41" s="123"/>
+      <c r="BB41" s="123"/>
+      <c r="BC41" s="123"/>
+      <c r="BD41" s="123"/>
+      <c r="BE41" s="123"/>
+      <c r="BF41" s="123"/>
+      <c r="BG41" s="123"/>
+      <c r="BH41" s="123"/>
+      <c r="BI41" s="123"/>
+      <c r="BJ41" s="123"/>
+      <c r="BK41" s="123"/>
+      <c r="BL41" s="123"/>
+      <c r="BM41" s="123"/>
+      <c r="BN41" s="123"/>
+      <c r="BO41" s="123"/>
+      <c r="BP41" s="123"/>
+      <c r="BQ41" s="123"/>
+      <c r="BR41" s="123"/>
+      <c r="BS41" s="123"/>
+      <c r="BT41" s="123"/>
+      <c r="BU41" s="123"/>
+      <c r="BV41" s="123"/>
+      <c r="BW41" s="123"/>
+      <c r="BX41" s="123"/>
+      <c r="BY41" s="123"/>
+      <c r="BZ41" s="123"/>
+      <c r="CA41" s="123"/>
+      <c r="CB41" s="124"/>
+    </row>
+    <row r="42" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C42" s="122"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="123"/>
+      <c r="P42" s="123"/>
+      <c r="Q42" s="123"/>
+      <c r="R42" s="123"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="123"/>
+      <c r="U42" s="123"/>
+      <c r="V42" s="123"/>
+      <c r="W42" s="123"/>
+      <c r="X42" s="123"/>
+      <c r="Y42" s="123"/>
+      <c r="Z42" s="123"/>
+      <c r="AA42" s="123"/>
+      <c r="AB42" s="123"/>
+      <c r="AC42" s="123"/>
+      <c r="AD42" s="123"/>
+      <c r="AE42" s="123"/>
+      <c r="AF42" s="123"/>
+      <c r="AG42" s="123"/>
+      <c r="AH42" s="123"/>
+      <c r="AI42" s="123"/>
+      <c r="AJ42" s="123"/>
+      <c r="AK42" s="123"/>
+      <c r="AL42" s="123"/>
+      <c r="AM42" s="123"/>
+      <c r="AN42" s="124"/>
+      <c r="AQ42" s="122"/>
+      <c r="AR42" s="123"/>
+      <c r="AS42" s="123"/>
+      <c r="AT42" s="123"/>
+      <c r="AU42" s="123"/>
+      <c r="AV42" s="123"/>
+      <c r="AW42" s="123"/>
+      <c r="AX42" s="123"/>
+      <c r="AY42" s="123"/>
+      <c r="AZ42" s="123"/>
+      <c r="BA42" s="123"/>
+      <c r="BB42" s="123"/>
+      <c r="BC42" s="123"/>
+      <c r="BD42" s="123"/>
+      <c r="BE42" s="123"/>
+      <c r="BF42" s="123"/>
+      <c r="BG42" s="123"/>
+      <c r="BH42" s="123"/>
+      <c r="BI42" s="123"/>
+      <c r="BJ42" s="123"/>
+      <c r="BK42" s="123"/>
+      <c r="BL42" s="123"/>
+      <c r="BM42" s="123"/>
+      <c r="BN42" s="123"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="123"/>
+      <c r="BT42" s="123"/>
+      <c r="BU42" s="123"/>
+      <c r="BV42" s="123"/>
+      <c r="BW42" s="123"/>
+      <c r="BX42" s="123"/>
+      <c r="BY42" s="123"/>
+      <c r="BZ42" s="123"/>
+      <c r="CA42" s="123"/>
+      <c r="CB42" s="124"/>
+    </row>
+    <row r="43" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C43" s="122"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="123"/>
+      <c r="R43" s="123"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="123"/>
+      <c r="U43" s="123"/>
+      <c r="V43" s="123"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="123"/>
+      <c r="Y43" s="123"/>
+      <c r="Z43" s="123"/>
+      <c r="AA43" s="123"/>
+      <c r="AB43" s="123"/>
+      <c r="AC43" s="123"/>
+      <c r="AD43" s="123"/>
+      <c r="AE43" s="123"/>
+      <c r="AF43" s="123"/>
+      <c r="AG43" s="123"/>
+      <c r="AH43" s="123"/>
+      <c r="AI43" s="123"/>
+      <c r="AJ43" s="123"/>
+      <c r="AK43" s="123"/>
+      <c r="AL43" s="123"/>
+      <c r="AM43" s="123"/>
+      <c r="AN43" s="124"/>
+      <c r="AQ43" s="122"/>
+      <c r="AR43" s="123"/>
+      <c r="AS43" s="123"/>
+      <c r="AT43" s="123"/>
+      <c r="AU43" s="123"/>
+      <c r="AV43" s="123"/>
+      <c r="AW43" s="123"/>
+      <c r="AX43" s="123"/>
+      <c r="AY43" s="123"/>
+      <c r="AZ43" s="123"/>
+      <c r="BA43" s="123"/>
+      <c r="BB43" s="123"/>
+      <c r="BC43" s="123"/>
+      <c r="BD43" s="123"/>
+      <c r="BE43" s="123"/>
+      <c r="BF43" s="123"/>
+      <c r="BG43" s="123"/>
+      <c r="BH43" s="123"/>
+      <c r="BI43" s="123"/>
+      <c r="BJ43" s="123"/>
+      <c r="BK43" s="123"/>
+      <c r="BL43" s="123"/>
+      <c r="BM43" s="123"/>
+      <c r="BN43" s="123"/>
+      <c r="BO43" s="123"/>
+      <c r="BP43" s="123"/>
+      <c r="BQ43" s="123"/>
+      <c r="BR43" s="123"/>
+      <c r="BS43" s="123"/>
+      <c r="BT43" s="123"/>
+      <c r="BU43" s="123"/>
+      <c r="BV43" s="123"/>
+      <c r="BW43" s="123"/>
+      <c r="BX43" s="123"/>
+      <c r="BY43" s="123"/>
+      <c r="BZ43" s="123"/>
+      <c r="CA43" s="123"/>
+      <c r="CB43" s="124"/>
+    </row>
+    <row r="44" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C44" s="122"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="123"/>
+      <c r="P44" s="123"/>
+      <c r="Q44" s="123"/>
+      <c r="R44" s="123"/>
+      <c r="S44" s="123"/>
+      <c r="T44" s="123"/>
+      <c r="U44" s="123"/>
+      <c r="V44" s="123"/>
+      <c r="W44" s="123"/>
+      <c r="X44" s="123"/>
+      <c r="Y44" s="123"/>
+      <c r="Z44" s="123"/>
+      <c r="AA44" s="123"/>
+      <c r="AB44" s="123"/>
+      <c r="AC44" s="123"/>
+      <c r="AD44" s="123"/>
+      <c r="AE44" s="123"/>
+      <c r="AF44" s="123"/>
+      <c r="AG44" s="123"/>
+      <c r="AH44" s="123"/>
+      <c r="AI44" s="123"/>
+      <c r="AJ44" s="123"/>
+      <c r="AK44" s="123"/>
+      <c r="AL44" s="123"/>
+      <c r="AM44" s="123"/>
+      <c r="AN44" s="124"/>
+      <c r="AQ44" s="122"/>
+      <c r="AR44" s="123"/>
+      <c r="AS44" s="123"/>
+      <c r="AT44" s="123"/>
+      <c r="AU44" s="123"/>
+      <c r="AV44" s="123"/>
+      <c r="AW44" s="123"/>
+      <c r="AX44" s="123"/>
+      <c r="AY44" s="123"/>
+      <c r="AZ44" s="123"/>
+      <c r="BA44" s="123"/>
+      <c r="BB44" s="123"/>
+      <c r="BC44" s="123"/>
+      <c r="BD44" s="123"/>
+      <c r="BE44" s="123"/>
+      <c r="BF44" s="123"/>
+      <c r="BG44" s="123"/>
+      <c r="BH44" s="123"/>
+      <c r="BI44" s="123"/>
+      <c r="BJ44" s="123"/>
+      <c r="BK44" s="123"/>
+      <c r="BL44" s="123"/>
+      <c r="BM44" s="123"/>
+      <c r="BN44" s="123"/>
+      <c r="BO44" s="123"/>
+      <c r="BP44" s="123"/>
+      <c r="BQ44" s="123"/>
+      <c r="BR44" s="123"/>
+      <c r="BS44" s="123"/>
+      <c r="BT44" s="123"/>
+      <c r="BU44" s="123"/>
+      <c r="BV44" s="123"/>
+      <c r="BW44" s="123"/>
+      <c r="BX44" s="123"/>
+      <c r="BY44" s="123"/>
+      <c r="BZ44" s="123"/>
+      <c r="CA44" s="123"/>
+      <c r="CB44" s="124"/>
+    </row>
+    <row r="45" spans="3:80" ht="9.75" customHeight="1">
+      <c r="C45" s="122"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
+      <c r="N45" s="123"/>
+      <c r="O45" s="123"/>
+      <c r="P45" s="123"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="123"/>
+      <c r="S45" s="123"/>
+      <c r="T45" s="123"/>
+      <c r="U45" s="123"/>
+      <c r="V45" s="123"/>
+      <c r="W45" s="123"/>
+      <c r="X45" s="123"/>
+      <c r="Y45" s="123"/>
+      <c r="Z45" s="123"/>
+      <c r="AA45" s="123"/>
+      <c r="AB45" s="123"/>
+      <c r="AC45" s="123"/>
+      <c r="AD45" s="123"/>
+      <c r="AE45" s="123"/>
+      <c r="AF45" s="123"/>
+      <c r="AG45" s="123"/>
+      <c r="AH45" s="123"/>
+      <c r="AI45" s="123"/>
+      <c r="AJ45" s="123"/>
+      <c r="AK45" s="123"/>
+      <c r="AL45" s="123"/>
+      <c r="AM45" s="123"/>
+      <c r="AN45" s="124"/>
+      <c r="AQ45" s="122"/>
+      <c r="AR45" s="123"/>
+      <c r="AS45" s="123"/>
+      <c r="AT45" s="123"/>
+      <c r="AU45" s="123"/>
+      <c r="AV45" s="123"/>
+      <c r="AW45" s="123"/>
+      <c r="AX45" s="123"/>
+      <c r="AY45" s="123"/>
+      <c r="AZ45" s="123"/>
+      <c r="BA45" s="123"/>
+      <c r="BB45" s="123"/>
+      <c r="BC45" s="123"/>
+      <c r="BD45" s="123"/>
+      <c r="BE45" s="123"/>
+      <c r="BF45" s="123"/>
+      <c r="BG45" s="123"/>
+      <c r="BH45" s="123"/>
+      <c r="BI45" s="123"/>
+      <c r="BJ45" s="123"/>
+      <c r="BK45" s="123"/>
+      <c r="BL45" s="123"/>
+      <c r="BM45" s="123"/>
+      <c r="BN45" s="123"/>
+      <c r="BO45" s="123"/>
+      <c r="BP45" s="123"/>
+      <c r="BQ45" s="123"/>
+      <c r="BR45" s="123"/>
+      <c r="BS45" s="123"/>
+      <c r="BT45" s="123"/>
+      <c r="BU45" s="123"/>
+      <c r="BV45" s="123"/>
+      <c r="BW45" s="123"/>
+      <c r="BX45" s="123"/>
+      <c r="BY45" s="123"/>
+      <c r="BZ45" s="123"/>
+      <c r="CA45" s="123"/>
+      <c r="CB45" s="124"/>
+    </row>
+    <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
+      <c r="C46" s="125"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="126"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="126"/>
+      <c r="U46" s="126"/>
+      <c r="V46" s="126"/>
+      <c r="W46" s="126"/>
+      <c r="X46" s="126"/>
+      <c r="Y46" s="126"/>
+      <c r="Z46" s="126"/>
+      <c r="AA46" s="126"/>
+      <c r="AB46" s="126"/>
+      <c r="AC46" s="126"/>
+      <c r="AD46" s="126"/>
+      <c r="AE46" s="126"/>
+      <c r="AF46" s="126"/>
+      <c r="AG46" s="126"/>
+      <c r="AH46" s="126"/>
+      <c r="AI46" s="126"/>
+      <c r="AJ46" s="126"/>
+      <c r="AK46" s="126"/>
+      <c r="AL46" s="126"/>
+      <c r="AM46" s="126"/>
+      <c r="AN46" s="127"/>
+      <c r="AQ46" s="125"/>
+      <c r="AR46" s="126"/>
+      <c r="AS46" s="126"/>
+      <c r="AT46" s="126"/>
+      <c r="AU46" s="126"/>
+      <c r="AV46" s="126"/>
+      <c r="AW46" s="126"/>
+      <c r="AX46" s="126"/>
+      <c r="AY46" s="126"/>
+      <c r="AZ46" s="126"/>
+      <c r="BA46" s="126"/>
+      <c r="BB46" s="126"/>
+      <c r="BC46" s="126"/>
+      <c r="BD46" s="126"/>
+      <c r="BE46" s="126"/>
+      <c r="BF46" s="126"/>
+      <c r="BG46" s="126"/>
+      <c r="BH46" s="126"/>
+      <c r="BI46" s="126"/>
+      <c r="BJ46" s="126"/>
+      <c r="BK46" s="126"/>
+      <c r="BL46" s="126"/>
+      <c r="BM46" s="126"/>
+      <c r="BN46" s="126"/>
+      <c r="BO46" s="126"/>
+      <c r="BP46" s="126"/>
+      <c r="BQ46" s="126"/>
+      <c r="BR46" s="126"/>
+      <c r="BS46" s="126"/>
+      <c r="BT46" s="126"/>
+      <c r="BU46" s="126"/>
+      <c r="BV46" s="126"/>
+      <c r="BW46" s="126"/>
+      <c r="BX46" s="126"/>
+      <c r="BY46" s="126"/>
+      <c r="BZ46" s="126"/>
+      <c r="CA46" s="126"/>
+      <c r="CB46" s="127"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C9:CB10"/>
+    <mergeCell ref="C11:CB24"/>
+    <mergeCell ref="C26:AN27"/>
+    <mergeCell ref="C28:AN46"/>
+    <mergeCell ref="AQ26:CB27"/>
+    <mergeCell ref="AQ28:CB46"/>
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10319,10 +13701,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="85"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -10431,8 +13813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF34D44-0E29-4A7F-B47B-66AF094D5F9D}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="F1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10443,7 +13825,7 @@
     <col min="4" max="5" width="11.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5546875" customWidth="1"/>
-    <col min="8" max="9" width="15.44140625" style="122" customWidth="1"/>
+    <col min="8" max="9" width="15.44140625" style="86" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" style="69" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
@@ -10460,9 +13842,9 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="124"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="45"/>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -10475,9 +13857,9 @@
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="125"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="1:16" ht="4.5" customHeight="1">
       <c r="A3" s="42"/>
@@ -10509,16 +13891,16 @@
       <c r="G4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="90" t="s">
         <v>169</v>
       </c>
       <c r="L4" s="36" t="s">
@@ -11125,7 +14507,7 @@
         <f>_xlfn.XMATCH(TB_Vendas[[#This Row],[Categoria]],Desc_Cols,0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="127" cm="1">
+      <c r="I14" s="91" cm="1">
         <f t="array" ref="I14">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
@@ -15687,15 +19069,15 @@
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
@@ -16088,6 +19470,528 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFB61EF-69D9-41C3-A23A-FE22F3926D27}">
+  <dimension ref="A2:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="128" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3" s="128">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="132" t="e">
+        <f>VLOOKUP(20,B2:C10,2,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="128">
+        <v>63.9</v>
+      </c>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="132">
+        <f>VLOOKUP(20,B13:C20,2,TRUE)</f>
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5" s="128">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="134">
+        <f>_xlfn.XLOOKUP(20,B3:B10,C3:C10,"",-1)</f>
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6" s="128">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" s="128">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8" s="128">
+        <v>39.9</v>
+      </c>
+      <c r="F8" s="129" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" s="128">
+        <v>85.9</v>
+      </c>
+      <c r="F9" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="130" t="str">
+        <f>_xlfn.XLOOKUP(35,B3:B10,A3:A10,,-1)</f>
+        <v>Calça jeans</v>
+      </c>
+      <c r="H9" s="130"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10" s="128">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="F11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="130" t="str">
+        <f>IF(_xlfn.XLOOKUP(65.9,C3:C10,A3:A10)="Bermuda","Sim","Não")</f>
+        <v>Sim</v>
+      </c>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13" s="128">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" s="128">
+        <v>63.9</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="C15" s="128">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F15" s="136" t="str">
+        <f>_xlfn.XLOOKUP(MAX(C3:C10),C3:C10,A3:A10,)</f>
+        <v>Bolsa de couro</v>
+      </c>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+      <c r="C16" s="128">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17" s="128">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18" s="128">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19" s="128">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20" s="128">
+        <v>89.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C20">
+    <sortCondition ref="B13:B20"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39905401-EB67-41E9-8A80-FEE1B38FBE37}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="1.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="C1" s="128"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3" s="128">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(20,_xlfn._xlws.SORT($B$3:$C$10),2,1)</f>
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="128">
+        <v>63.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(C3:C10,MATCH(MIN(ABS(B3:B10-20)),ABS(B3:B10-20),0))</f>
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+      <c r="C5" s="128">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="L5" s="135"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6" s="128">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" s="128">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8" s="128">
+        <v>39.9</v>
+      </c>
+      <c r="F8">
+        <f>MATCH(35,_xlfn._xlws.SORT(B2:B10),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" s="128">
+        <v>85.9</v>
+      </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn._xlws.SORT(A3:C10,2),F8,1)</f>
+        <v>Calça jeans</v>
+      </c>
+      <c r="L9" s="135"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10" s="128">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="128"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="128"/>
+      <c r="L12" s="135"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="128"/>
+      <c r="F13" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="128"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="128"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="128"/>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="128"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="128"/>
+      <c r="F18" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="128"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DC8038-61C9-4400-BEE1-D854E2F5FA67}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -16325,3319 +20229,4 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D066AFB-3F48-47D7-9498-011A1BD0AB45}">
-  <dimension ref="C1:CB46"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AN3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="9.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="2" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W2" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="89"/>
-      <c r="AQ2" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="88"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="89"/>
-      <c r="BK2" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="88"/>
-      <c r="BQ2" s="88"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="88"/>
-      <c r="BT2" s="88"/>
-      <c r="BU2" s="88"/>
-      <c r="BV2" s="88"/>
-      <c r="BW2" s="88"/>
-      <c r="BX2" s="88"/>
-      <c r="BY2" s="88"/>
-      <c r="BZ2" s="88"/>
-      <c r="CA2" s="88"/>
-      <c r="CB2" s="89"/>
-    </row>
-    <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="92"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="91"/>
-      <c r="AV3" s="91"/>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
-      <c r="BA3" s="91"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="91"/>
-      <c r="BD3" s="91"/>
-      <c r="BE3" s="91"/>
-      <c r="BF3" s="91"/>
-      <c r="BG3" s="91"/>
-      <c r="BH3" s="92"/>
-      <c r="BK3" s="90"/>
-      <c r="BL3" s="91"/>
-      <c r="BM3" s="91"/>
-      <c r="BN3" s="91"/>
-      <c r="BO3" s="91"/>
-      <c r="BP3" s="91"/>
-      <c r="BQ3" s="91"/>
-      <c r="BR3" s="91"/>
-      <c r="BS3" s="91"/>
-      <c r="BT3" s="91"/>
-      <c r="BU3" s="91"/>
-      <c r="BV3" s="91"/>
-      <c r="BW3" s="91"/>
-      <c r="BX3" s="91"/>
-      <c r="BY3" s="91"/>
-      <c r="BZ3" s="91"/>
-      <c r="CA3" s="91"/>
-      <c r="CB3" s="92"/>
-    </row>
-    <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="102">
-        <f>COUNTA(TB_Produtos[Código])</f>
-        <v>60</v>
-      </c>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="104"/>
-      <c r="AQ4" s="102">
-        <f>SUM(TB_Vendas[Qtd])</f>
-        <v>250</v>
-      </c>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="104"/>
-      <c r="BK4" s="111">
-        <f>SUM(TB_Vendas[Total])</f>
-        <v>33304.799999999988</v>
-      </c>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="112"/>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="112"/>
-      <c r="BS4" s="112"/>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="112"/>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="112"/>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="112"/>
-      <c r="CB4" s="113"/>
-    </row>
-    <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="105"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="107"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="106"/>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="106"/>
-      <c r="BD5" s="106"/>
-      <c r="BE5" s="106"/>
-      <c r="BF5" s="106"/>
-      <c r="BG5" s="106"/>
-      <c r="BH5" s="107"/>
-      <c r="BK5" s="114"/>
-      <c r="BL5" s="115"/>
-      <c r="BM5" s="115"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="115"/>
-      <c r="BY5" s="115"/>
-      <c r="BZ5" s="115"/>
-      <c r="CA5" s="115"/>
-      <c r="CB5" s="116"/>
-    </row>
-    <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="105"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="107"/>
-      <c r="AQ6" s="105"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="107"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="115"/>
-      <c r="BM6" s="115"/>
-      <c r="BN6" s="115"/>
-      <c r="BO6" s="115"/>
-      <c r="BP6" s="115"/>
-      <c r="BQ6" s="115"/>
-      <c r="BR6" s="115"/>
-      <c r="BS6" s="115"/>
-      <c r="BT6" s="115"/>
-      <c r="BU6" s="115"/>
-      <c r="BV6" s="115"/>
-      <c r="BW6" s="115"/>
-      <c r="BX6" s="115"/>
-      <c r="BY6" s="115"/>
-      <c r="BZ6" s="115"/>
-      <c r="CA6" s="115"/>
-      <c r="CB6" s="116"/>
-    </row>
-    <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="110"/>
-      <c r="AQ7" s="108"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="109"/>
-      <c r="BD7" s="109"/>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="110"/>
-      <c r="BK7" s="117"/>
-      <c r="BL7" s="118"/>
-      <c r="BM7" s="118"/>
-      <c r="BN7" s="118"/>
-      <c r="BO7" s="118"/>
-      <c r="BP7" s="118"/>
-      <c r="BQ7" s="118"/>
-      <c r="BR7" s="118"/>
-      <c r="BS7" s="118"/>
-      <c r="BT7" s="118"/>
-      <c r="BU7" s="118"/>
-      <c r="BV7" s="118"/>
-      <c r="BW7" s="118"/>
-      <c r="BX7" s="118"/>
-      <c r="BY7" s="118"/>
-      <c r="BZ7" s="118"/>
-      <c r="CA7" s="118"/>
-      <c r="CB7" s="119"/>
-    </row>
-    <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
-    <row r="9" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C9" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="88"/>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="88"/>
-      <c r="AP9" s="88"/>
-      <c r="AQ9" s="88"/>
-      <c r="AR9" s="88"/>
-      <c r="AS9" s="88"/>
-      <c r="AT9" s="88"/>
-      <c r="AU9" s="88"/>
-      <c r="AV9" s="88"/>
-      <c r="AW9" s="88"/>
-      <c r="AX9" s="88"/>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="88"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="88"/>
-      <c r="BC9" s="88"/>
-      <c r="BD9" s="88"/>
-      <c r="BE9" s="88"/>
-      <c r="BF9" s="88"/>
-      <c r="BG9" s="88"/>
-      <c r="BH9" s="88"/>
-      <c r="BI9" s="88"/>
-      <c r="BJ9" s="88"/>
-      <c r="BK9" s="88"/>
-      <c r="BL9" s="88"/>
-      <c r="BM9" s="88"/>
-      <c r="BN9" s="88"/>
-      <c r="BO9" s="88"/>
-      <c r="BP9" s="88"/>
-      <c r="BQ9" s="88"/>
-      <c r="BR9" s="88"/>
-      <c r="BS9" s="88"/>
-      <c r="BT9" s="88"/>
-      <c r="BU9" s="88"/>
-      <c r="BV9" s="88"/>
-      <c r="BW9" s="88"/>
-      <c r="BX9" s="88"/>
-      <c r="BY9" s="88"/>
-      <c r="BZ9" s="88"/>
-      <c r="CA9" s="88"/>
-      <c r="CB9" s="89"/>
-    </row>
-    <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="91"/>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
-      <c r="BP10" s="91"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="91"/>
-      <c r="BS10" s="91"/>
-      <c r="BT10" s="91"/>
-      <c r="BU10" s="91"/>
-      <c r="BV10" s="91"/>
-      <c r="BW10" s="91"/>
-      <c r="BX10" s="91"/>
-      <c r="BY10" s="91"/>
-      <c r="BZ10" s="91"/>
-      <c r="CA10" s="91"/>
-      <c r="CB10" s="92"/>
-    </row>
-    <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
-      <c r="AS11" s="94"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="94"/>
-      <c r="AZ11" s="94"/>
-      <c r="BA11" s="94"/>
-      <c r="BB11" s="94"/>
-      <c r="BC11" s="94"/>
-      <c r="BD11" s="94"/>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="94"/>
-      <c r="BG11" s="94"/>
-      <c r="BH11" s="94"/>
-      <c r="BI11" s="94"/>
-      <c r="BJ11" s="94"/>
-      <c r="BK11" s="94"/>
-      <c r="BL11" s="94"/>
-      <c r="BM11" s="94"/>
-      <c r="BN11" s="94"/>
-      <c r="BO11" s="94"/>
-      <c r="BP11" s="94"/>
-      <c r="BQ11" s="94"/>
-      <c r="BR11" s="94"/>
-      <c r="BS11" s="94"/>
-      <c r="BT11" s="94"/>
-      <c r="BU11" s="94"/>
-      <c r="BV11" s="94"/>
-      <c r="BW11" s="94"/>
-      <c r="BX11" s="94"/>
-      <c r="BY11" s="94"/>
-      <c r="BZ11" s="94"/>
-      <c r="CA11" s="94"/>
-      <c r="CB11" s="95"/>
-    </row>
-    <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="97"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="97"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="97"/>
-      <c r="AY12" s="97"/>
-      <c r="AZ12" s="97"/>
-      <c r="BA12" s="97"/>
-      <c r="BB12" s="97"/>
-      <c r="BC12" s="97"/>
-      <c r="BD12" s="97"/>
-      <c r="BE12" s="97"/>
-      <c r="BF12" s="97"/>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="97"/>
-      <c r="BI12" s="97"/>
-      <c r="BJ12" s="97"/>
-      <c r="BK12" s="97"/>
-      <c r="BL12" s="97"/>
-      <c r="BM12" s="97"/>
-      <c r="BN12" s="97"/>
-      <c r="BO12" s="97"/>
-      <c r="BP12" s="97"/>
-      <c r="BQ12" s="97"/>
-      <c r="BR12" s="97"/>
-      <c r="BS12" s="97"/>
-      <c r="BT12" s="97"/>
-      <c r="BU12" s="97"/>
-      <c r="BV12" s="97"/>
-      <c r="BW12" s="97"/>
-      <c r="BX12" s="97"/>
-      <c r="BY12" s="97"/>
-      <c r="BZ12" s="97"/>
-      <c r="CA12" s="97"/>
-      <c r="CB12" s="98"/>
-    </row>
-    <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="97"/>
-      <c r="BA13" s="97"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="97"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="97"/>
-      <c r="BJ13" s="97"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="97"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="97"/>
-      <c r="BP13" s="97"/>
-      <c r="BQ13" s="97"/>
-      <c r="BR13" s="97"/>
-      <c r="BS13" s="97"/>
-      <c r="BT13" s="97"/>
-      <c r="BU13" s="97"/>
-      <c r="BV13" s="97"/>
-      <c r="BW13" s="97"/>
-      <c r="BX13" s="97"/>
-      <c r="BY13" s="97"/>
-      <c r="BZ13" s="97"/>
-      <c r="CA13" s="97"/>
-      <c r="CB13" s="98"/>
-    </row>
-    <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
-      <c r="AP14" s="97"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="97"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="97"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="97"/>
-      <c r="AY14" s="97"/>
-      <c r="AZ14" s="97"/>
-      <c r="BA14" s="97"/>
-      <c r="BB14" s="97"/>
-      <c r="BC14" s="97"/>
-      <c r="BD14" s="97"/>
-      <c r="BE14" s="97"/>
-      <c r="BF14" s="97"/>
-      <c r="BG14" s="97"/>
-      <c r="BH14" s="97"/>
-      <c r="BI14" s="97"/>
-      <c r="BJ14" s="97"/>
-      <c r="BK14" s="97"/>
-      <c r="BL14" s="97"/>
-      <c r="BM14" s="97"/>
-      <c r="BN14" s="97"/>
-      <c r="BO14" s="97"/>
-      <c r="BP14" s="97"/>
-      <c r="BQ14" s="97"/>
-      <c r="BR14" s="97"/>
-      <c r="BS14" s="97"/>
-      <c r="BT14" s="97"/>
-      <c r="BU14" s="97"/>
-      <c r="BV14" s="97"/>
-      <c r="BW14" s="97"/>
-      <c r="BX14" s="97"/>
-      <c r="BY14" s="97"/>
-      <c r="BZ14" s="97"/>
-      <c r="CA14" s="97"/>
-      <c r="CB14" s="98"/>
-    </row>
-    <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="97"/>
-      <c r="AW15" s="97"/>
-      <c r="AX15" s="97"/>
-      <c r="AY15" s="97"/>
-      <c r="AZ15" s="97"/>
-      <c r="BA15" s="97"/>
-      <c r="BB15" s="97"/>
-      <c r="BC15" s="97"/>
-      <c r="BD15" s="97"/>
-      <c r="BE15" s="97"/>
-      <c r="BF15" s="97"/>
-      <c r="BG15" s="97"/>
-      <c r="BH15" s="97"/>
-      <c r="BI15" s="97"/>
-      <c r="BJ15" s="97"/>
-      <c r="BK15" s="97"/>
-      <c r="BL15" s="97"/>
-      <c r="BM15" s="97"/>
-      <c r="BN15" s="97"/>
-      <c r="BO15" s="97"/>
-      <c r="BP15" s="97"/>
-      <c r="BQ15" s="97"/>
-      <c r="BR15" s="97"/>
-      <c r="BS15" s="97"/>
-      <c r="BT15" s="97"/>
-      <c r="BU15" s="97"/>
-      <c r="BV15" s="97"/>
-      <c r="BW15" s="97"/>
-      <c r="BX15" s="97"/>
-      <c r="BY15" s="97"/>
-      <c r="BZ15" s="97"/>
-      <c r="CA15" s="97"/>
-      <c r="CB15" s="98"/>
-    </row>
-    <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="97"/>
-      <c r="BA16" s="97"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="97"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="97"/>
-      <c r="BF16" s="97"/>
-      <c r="BG16" s="97"/>
-      <c r="BH16" s="97"/>
-      <c r="BI16" s="97"/>
-      <c r="BJ16" s="97"/>
-      <c r="BK16" s="97"/>
-      <c r="BL16" s="97"/>
-      <c r="BM16" s="97"/>
-      <c r="BN16" s="97"/>
-      <c r="BO16" s="97"/>
-      <c r="BP16" s="97"/>
-      <c r="BQ16" s="97"/>
-      <c r="BR16" s="97"/>
-      <c r="BS16" s="97"/>
-      <c r="BT16" s="97"/>
-      <c r="BU16" s="97"/>
-      <c r="BV16" s="97"/>
-      <c r="BW16" s="97"/>
-      <c r="BX16" s="97"/>
-      <c r="BY16" s="97"/>
-      <c r="BZ16" s="97"/>
-      <c r="CA16" s="97"/>
-      <c r="CB16" s="98"/>
-    </row>
-    <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="97"/>
-      <c r="AK17" s="97"/>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="97"/>
-      <c r="AN17" s="97"/>
-      <c r="AO17" s="97"/>
-      <c r="AP17" s="97"/>
-      <c r="AQ17" s="97"/>
-      <c r="AR17" s="97"/>
-      <c r="AS17" s="97"/>
-      <c r="AT17" s="97"/>
-      <c r="AU17" s="97"/>
-      <c r="AV17" s="97"/>
-      <c r="AW17" s="97"/>
-      <c r="AX17" s="97"/>
-      <c r="AY17" s="97"/>
-      <c r="AZ17" s="97"/>
-      <c r="BA17" s="97"/>
-      <c r="BB17" s="97"/>
-      <c r="BC17" s="97"/>
-      <c r="BD17" s="97"/>
-      <c r="BE17" s="97"/>
-      <c r="BF17" s="97"/>
-      <c r="BG17" s="97"/>
-      <c r="BH17" s="97"/>
-      <c r="BI17" s="97"/>
-      <c r="BJ17" s="97"/>
-      <c r="BK17" s="97"/>
-      <c r="BL17" s="97"/>
-      <c r="BM17" s="97"/>
-      <c r="BN17" s="97"/>
-      <c r="BO17" s="97"/>
-      <c r="BP17" s="97"/>
-      <c r="BQ17" s="97"/>
-      <c r="BR17" s="97"/>
-      <c r="BS17" s="97"/>
-      <c r="BT17" s="97"/>
-      <c r="BU17" s="97"/>
-      <c r="BV17" s="97"/>
-      <c r="BW17" s="97"/>
-      <c r="BX17" s="97"/>
-      <c r="BY17" s="97"/>
-      <c r="BZ17" s="97"/>
-      <c r="CA17" s="97"/>
-      <c r="CB17" s="98"/>
-    </row>
-    <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
-      <c r="AI18" s="97"/>
-      <c r="AJ18" s="97"/>
-      <c r="AK18" s="97"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
-      <c r="AP18" s="97"/>
-      <c r="AQ18" s="97"/>
-      <c r="AR18" s="97"/>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="97"/>
-      <c r="AU18" s="97"/>
-      <c r="AV18" s="97"/>
-      <c r="AW18" s="97"/>
-      <c r="AX18" s="97"/>
-      <c r="AY18" s="97"/>
-      <c r="AZ18" s="97"/>
-      <c r="BA18" s="97"/>
-      <c r="BB18" s="97"/>
-      <c r="BC18" s="97"/>
-      <c r="BD18" s="97"/>
-      <c r="BE18" s="97"/>
-      <c r="BF18" s="97"/>
-      <c r="BG18" s="97"/>
-      <c r="BH18" s="97"/>
-      <c r="BI18" s="97"/>
-      <c r="BJ18" s="97"/>
-      <c r="BK18" s="97"/>
-      <c r="BL18" s="97"/>
-      <c r="BM18" s="97"/>
-      <c r="BN18" s="97"/>
-      <c r="BO18" s="97"/>
-      <c r="BP18" s="97"/>
-      <c r="BQ18" s="97"/>
-      <c r="BR18" s="97"/>
-      <c r="BS18" s="97"/>
-      <c r="BT18" s="97"/>
-      <c r="BU18" s="97"/>
-      <c r="BV18" s="97"/>
-      <c r="BW18" s="97"/>
-      <c r="BX18" s="97"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="97"/>
-      <c r="CA18" s="97"/>
-      <c r="CB18" s="98"/>
-    </row>
-    <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="97"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="97"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="97"/>
-      <c r="AQ19" s="97"/>
-      <c r="AR19" s="97"/>
-      <c r="AS19" s="97"/>
-      <c r="AT19" s="97"/>
-      <c r="AU19" s="97"/>
-      <c r="AV19" s="97"/>
-      <c r="AW19" s="97"/>
-      <c r="AX19" s="97"/>
-      <c r="AY19" s="97"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="97"/>
-      <c r="BB19" s="97"/>
-      <c r="BC19" s="97"/>
-      <c r="BD19" s="97"/>
-      <c r="BE19" s="97"/>
-      <c r="BF19" s="97"/>
-      <c r="BG19" s="97"/>
-      <c r="BH19" s="97"/>
-      <c r="BI19" s="97"/>
-      <c r="BJ19" s="97"/>
-      <c r="BK19" s="97"/>
-      <c r="BL19" s="97"/>
-      <c r="BM19" s="97"/>
-      <c r="BN19" s="97"/>
-      <c r="BO19" s="97"/>
-      <c r="BP19" s="97"/>
-      <c r="BQ19" s="97"/>
-      <c r="BR19" s="97"/>
-      <c r="BS19" s="97"/>
-      <c r="BT19" s="97"/>
-      <c r="BU19" s="97"/>
-      <c r="BV19" s="97"/>
-      <c r="BW19" s="97"/>
-      <c r="BX19" s="97"/>
-      <c r="BY19" s="97"/>
-      <c r="BZ19" s="97"/>
-      <c r="CA19" s="97"/>
-      <c r="CB19" s="98"/>
-    </row>
-    <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="97"/>
-      <c r="AX20" s="97"/>
-      <c r="AY20" s="97"/>
-      <c r="AZ20" s="97"/>
-      <c r="BA20" s="97"/>
-      <c r="BB20" s="97"/>
-      <c r="BC20" s="97"/>
-      <c r="BD20" s="97"/>
-      <c r="BE20" s="97"/>
-      <c r="BF20" s="97"/>
-      <c r="BG20" s="97"/>
-      <c r="BH20" s="97"/>
-      <c r="BI20" s="97"/>
-      <c r="BJ20" s="97"/>
-      <c r="BK20" s="97"/>
-      <c r="BL20" s="97"/>
-      <c r="BM20" s="97"/>
-      <c r="BN20" s="97"/>
-      <c r="BO20" s="97"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="97"/>
-      <c r="BR20" s="97"/>
-      <c r="BS20" s="97"/>
-      <c r="BT20" s="97"/>
-      <c r="BU20" s="97"/>
-      <c r="BV20" s="97"/>
-      <c r="BW20" s="97"/>
-      <c r="BX20" s="97"/>
-      <c r="BY20" s="97"/>
-      <c r="BZ20" s="97"/>
-      <c r="CA20" s="97"/>
-      <c r="CB20" s="98"/>
-    </row>
-    <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="97"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="97"/>
-      <c r="AN21" s="97"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="97"/>
-      <c r="AQ21" s="97"/>
-      <c r="AR21" s="97"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="97"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="97"/>
-      <c r="AW21" s="97"/>
-      <c r="AX21" s="97"/>
-      <c r="AY21" s="97"/>
-      <c r="AZ21" s="97"/>
-      <c r="BA21" s="97"/>
-      <c r="BB21" s="97"/>
-      <c r="BC21" s="97"/>
-      <c r="BD21" s="97"/>
-      <c r="BE21" s="97"/>
-      <c r="BF21" s="97"/>
-      <c r="BG21" s="97"/>
-      <c r="BH21" s="97"/>
-      <c r="BI21" s="97"/>
-      <c r="BJ21" s="97"/>
-      <c r="BK21" s="97"/>
-      <c r="BL21" s="97"/>
-      <c r="BM21" s="97"/>
-      <c r="BN21" s="97"/>
-      <c r="BO21" s="97"/>
-      <c r="BP21" s="97"/>
-      <c r="BQ21" s="97"/>
-      <c r="BR21" s="97"/>
-      <c r="BS21" s="97"/>
-      <c r="BT21" s="97"/>
-      <c r="BU21" s="97"/>
-      <c r="BV21" s="97"/>
-      <c r="BW21" s="97"/>
-      <c r="BX21" s="97"/>
-      <c r="BY21" s="97"/>
-      <c r="BZ21" s="97"/>
-      <c r="CA21" s="97"/>
-      <c r="CB21" s="98"/>
-    </row>
-    <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
-      <c r="AI22" s="97"/>
-      <c r="AJ22" s="97"/>
-      <c r="AK22" s="97"/>
-      <c r="AL22" s="97"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="97"/>
-      <c r="AO22" s="97"/>
-      <c r="AP22" s="97"/>
-      <c r="AQ22" s="97"/>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="97"/>
-      <c r="AT22" s="97"/>
-      <c r="AU22" s="97"/>
-      <c r="AV22" s="97"/>
-      <c r="AW22" s="97"/>
-      <c r="AX22" s="97"/>
-      <c r="AY22" s="97"/>
-      <c r="AZ22" s="97"/>
-      <c r="BA22" s="97"/>
-      <c r="BB22" s="97"/>
-      <c r="BC22" s="97"/>
-      <c r="BD22" s="97"/>
-      <c r="BE22" s="97"/>
-      <c r="BF22" s="97"/>
-      <c r="BG22" s="97"/>
-      <c r="BH22" s="97"/>
-      <c r="BI22" s="97"/>
-      <c r="BJ22" s="97"/>
-      <c r="BK22" s="97"/>
-      <c r="BL22" s="97"/>
-      <c r="BM22" s="97"/>
-      <c r="BN22" s="97"/>
-      <c r="BO22" s="97"/>
-      <c r="BP22" s="97"/>
-      <c r="BQ22" s="97"/>
-      <c r="BR22" s="97"/>
-      <c r="BS22" s="97"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
-      <c r="BV22" s="97"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="97"/>
-      <c r="BY22" s="97"/>
-      <c r="BZ22" s="97"/>
-      <c r="CA22" s="97"/>
-      <c r="CB22" s="98"/>
-    </row>
-    <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
-      <c r="AI23" s="97"/>
-      <c r="AJ23" s="97"/>
-      <c r="AK23" s="97"/>
-      <c r="AL23" s="97"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-      <c r="AP23" s="97"/>
-      <c r="AQ23" s="97"/>
-      <c r="AR23" s="97"/>
-      <c r="AS23" s="97"/>
-      <c r="AT23" s="97"/>
-      <c r="AU23" s="97"/>
-      <c r="AV23" s="97"/>
-      <c r="AW23" s="97"/>
-      <c r="AX23" s="97"/>
-      <c r="AY23" s="97"/>
-      <c r="AZ23" s="97"/>
-      <c r="BA23" s="97"/>
-      <c r="BB23" s="97"/>
-      <c r="BC23" s="97"/>
-      <c r="BD23" s="97"/>
-      <c r="BE23" s="97"/>
-      <c r="BF23" s="97"/>
-      <c r="BG23" s="97"/>
-      <c r="BH23" s="97"/>
-      <c r="BI23" s="97"/>
-      <c r="BJ23" s="97"/>
-      <c r="BK23" s="97"/>
-      <c r="BL23" s="97"/>
-      <c r="BM23" s="97"/>
-      <c r="BN23" s="97"/>
-      <c r="BO23" s="97"/>
-      <c r="BP23" s="97"/>
-      <c r="BQ23" s="97"/>
-      <c r="BR23" s="97"/>
-      <c r="BS23" s="97"/>
-      <c r="BT23" s="97"/>
-      <c r="BU23" s="97"/>
-      <c r="BV23" s="97"/>
-      <c r="BW23" s="97"/>
-      <c r="BX23" s="97"/>
-      <c r="BY23" s="97"/>
-      <c r="BZ23" s="97"/>
-      <c r="CA23" s="97"/>
-      <c r="CB23" s="98"/>
-    </row>
-    <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="100"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="100"/>
-      <c r="AU24" s="100"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="100"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="100"/>
-      <c r="BA24" s="100"/>
-      <c r="BB24" s="100"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="100"/>
-      <c r="BE24" s="100"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
-      <c r="BH24" s="100"/>
-      <c r="BI24" s="100"/>
-      <c r="BJ24" s="100"/>
-      <c r="BK24" s="100"/>
-      <c r="BL24" s="100"/>
-      <c r="BM24" s="100"/>
-      <c r="BN24" s="100"/>
-      <c r="BO24" s="100"/>
-      <c r="BP24" s="100"/>
-      <c r="BQ24" s="100"/>
-      <c r="BR24" s="100"/>
-      <c r="BS24" s="100"/>
-      <c r="BT24" s="100"/>
-      <c r="BU24" s="100"/>
-      <c r="BV24" s="100"/>
-      <c r="BW24" s="100"/>
-      <c r="BX24" s="100"/>
-      <c r="BY24" s="100"/>
-      <c r="BZ24" s="100"/>
-      <c r="CA24" s="100"/>
-      <c r="CB24" s="101"/>
-    </row>
-    <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
-    <row r="26" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C26" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="88"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR26" s="88"/>
-      <c r="AS26" s="88"/>
-      <c r="AT26" s="88"/>
-      <c r="AU26" s="88"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
-      <c r="AX26" s="88"/>
-      <c r="AY26" s="88"/>
-      <c r="AZ26" s="88"/>
-      <c r="BA26" s="88"/>
-      <c r="BB26" s="88"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="88"/>
-      <c r="BE26" s="88"/>
-      <c r="BF26" s="88"/>
-      <c r="BG26" s="88"/>
-      <c r="BH26" s="88"/>
-      <c r="BI26" s="88"/>
-      <c r="BJ26" s="88"/>
-      <c r="BK26" s="88"/>
-      <c r="BL26" s="88"/>
-      <c r="BM26" s="88"/>
-      <c r="BN26" s="88"/>
-      <c r="BO26" s="88"/>
-      <c r="BP26" s="88"/>
-      <c r="BQ26" s="88"/>
-      <c r="BR26" s="88"/>
-      <c r="BS26" s="88"/>
-      <c r="BT26" s="88"/>
-      <c r="BU26" s="88"/>
-      <c r="BV26" s="88"/>
-      <c r="BW26" s="88"/>
-      <c r="BX26" s="88"/>
-      <c r="BY26" s="88"/>
-      <c r="BZ26" s="88"/>
-      <c r="CA26" s="88"/>
-      <c r="CB26" s="89"/>
-    </row>
-    <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="91"/>
-      <c r="AJ27" s="91"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="91"/>
-      <c r="AN27" s="92"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="91"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91"/>
-      <c r="AV27" s="91"/>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="91"/>
-      <c r="BA27" s="91"/>
-      <c r="BB27" s="91"/>
-      <c r="BC27" s="91"/>
-      <c r="BD27" s="91"/>
-      <c r="BE27" s="91"/>
-      <c r="BF27" s="91"/>
-      <c r="BG27" s="91"/>
-      <c r="BH27" s="91"/>
-      <c r="BI27" s="91"/>
-      <c r="BJ27" s="91"/>
-      <c r="BK27" s="91"/>
-      <c r="BL27" s="91"/>
-      <c r="BM27" s="91"/>
-      <c r="BN27" s="91"/>
-      <c r="BO27" s="91"/>
-      <c r="BP27" s="91"/>
-      <c r="BQ27" s="91"/>
-      <c r="BR27" s="91"/>
-      <c r="BS27" s="91"/>
-      <c r="BT27" s="91"/>
-      <c r="BU27" s="91"/>
-      <c r="BV27" s="91"/>
-      <c r="BW27" s="91"/>
-      <c r="BX27" s="91"/>
-      <c r="BY27" s="91"/>
-      <c r="BZ27" s="91"/>
-      <c r="CA27" s="91"/>
-      <c r="CB27" s="92"/>
-    </row>
-    <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="93"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="94"/>
-      <c r="AJ28" s="94"/>
-      <c r="AK28" s="94"/>
-      <c r="AL28" s="94"/>
-      <c r="AM28" s="94"/>
-      <c r="AN28" s="95"/>
-      <c r="AQ28" s="93"/>
-      <c r="AR28" s="94"/>
-      <c r="AS28" s="94"/>
-      <c r="AT28" s="94"/>
-      <c r="AU28" s="94"/>
-      <c r="AV28" s="94"/>
-      <c r="AW28" s="94"/>
-      <c r="AX28" s="94"/>
-      <c r="AY28" s="94"/>
-      <c r="AZ28" s="94"/>
-      <c r="BA28" s="94"/>
-      <c r="BB28" s="94"/>
-      <c r="BC28" s="94"/>
-      <c r="BD28" s="94"/>
-      <c r="BE28" s="94"/>
-      <c r="BF28" s="94"/>
-      <c r="BG28" s="94"/>
-      <c r="BH28" s="94"/>
-      <c r="BI28" s="94"/>
-      <c r="BJ28" s="94"/>
-      <c r="BK28" s="94"/>
-      <c r="BL28" s="94"/>
-      <c r="BM28" s="94"/>
-      <c r="BN28" s="94"/>
-      <c r="BO28" s="94"/>
-      <c r="BP28" s="94"/>
-      <c r="BQ28" s="94"/>
-      <c r="BR28" s="94"/>
-      <c r="BS28" s="94"/>
-      <c r="BT28" s="94"/>
-      <c r="BU28" s="94"/>
-      <c r="BV28" s="94"/>
-      <c r="BW28" s="94"/>
-      <c r="BX28" s="94"/>
-      <c r="BY28" s="94"/>
-      <c r="BZ28" s="94"/>
-      <c r="CA28" s="94"/>
-      <c r="CB28" s="95"/>
-    </row>
-    <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="96"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="97"/>
-      <c r="AH29" s="97"/>
-      <c r="AI29" s="97"/>
-      <c r="AJ29" s="97"/>
-      <c r="AK29" s="97"/>
-      <c r="AL29" s="97"/>
-      <c r="AM29" s="97"/>
-      <c r="AN29" s="98"/>
-      <c r="AQ29" s="96"/>
-      <c r="AR29" s="97"/>
-      <c r="AS29" s="97"/>
-      <c r="AT29" s="97"/>
-      <c r="AU29" s="97"/>
-      <c r="AV29" s="97"/>
-      <c r="AW29" s="97"/>
-      <c r="AX29" s="97"/>
-      <c r="AY29" s="97"/>
-      <c r="AZ29" s="97"/>
-      <c r="BA29" s="97"/>
-      <c r="BB29" s="97"/>
-      <c r="BC29" s="97"/>
-      <c r="BD29" s="97"/>
-      <c r="BE29" s="97"/>
-      <c r="BF29" s="97"/>
-      <c r="BG29" s="97"/>
-      <c r="BH29" s="97"/>
-      <c r="BI29" s="97"/>
-      <c r="BJ29" s="97"/>
-      <c r="BK29" s="97"/>
-      <c r="BL29" s="97"/>
-      <c r="BM29" s="97"/>
-      <c r="BN29" s="97"/>
-      <c r="BO29" s="97"/>
-      <c r="BP29" s="97"/>
-      <c r="BQ29" s="97"/>
-      <c r="BR29" s="97"/>
-      <c r="BS29" s="97"/>
-      <c r="BT29" s="97"/>
-      <c r="BU29" s="97"/>
-      <c r="BV29" s="97"/>
-      <c r="BW29" s="97"/>
-      <c r="BX29" s="97"/>
-      <c r="BY29" s="97"/>
-      <c r="BZ29" s="97"/>
-      <c r="CA29" s="97"/>
-      <c r="CB29" s="98"/>
-    </row>
-    <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="97"/>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="97"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="97"/>
-      <c r="AL30" s="97"/>
-      <c r="AM30" s="97"/>
-      <c r="AN30" s="98"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="97"/>
-      <c r="AS30" s="97"/>
-      <c r="AT30" s="97"/>
-      <c r="AU30" s="97"/>
-      <c r="AV30" s="97"/>
-      <c r="AW30" s="97"/>
-      <c r="AX30" s="97"/>
-      <c r="AY30" s="97"/>
-      <c r="AZ30" s="97"/>
-      <c r="BA30" s="97"/>
-      <c r="BB30" s="97"/>
-      <c r="BC30" s="97"/>
-      <c r="BD30" s="97"/>
-      <c r="BE30" s="97"/>
-      <c r="BF30" s="97"/>
-      <c r="BG30" s="97"/>
-      <c r="BH30" s="97"/>
-      <c r="BI30" s="97"/>
-      <c r="BJ30" s="97"/>
-      <c r="BK30" s="97"/>
-      <c r="BL30" s="97"/>
-      <c r="BM30" s="97"/>
-      <c r="BN30" s="97"/>
-      <c r="BO30" s="97"/>
-      <c r="BP30" s="97"/>
-      <c r="BQ30" s="97"/>
-      <c r="BR30" s="97"/>
-      <c r="BS30" s="97"/>
-      <c r="BT30" s="97"/>
-      <c r="BU30" s="97"/>
-      <c r="BV30" s="97"/>
-      <c r="BW30" s="97"/>
-      <c r="BX30" s="97"/>
-      <c r="BY30" s="97"/>
-      <c r="BZ30" s="97"/>
-      <c r="CA30" s="97"/>
-      <c r="CB30" s="98"/>
-    </row>
-    <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="97"/>
-      <c r="AH31" s="97"/>
-      <c r="AI31" s="97"/>
-      <c r="AJ31" s="97"/>
-      <c r="AK31" s="97"/>
-      <c r="AL31" s="97"/>
-      <c r="AM31" s="97"/>
-      <c r="AN31" s="98"/>
-      <c r="AQ31" s="96"/>
-      <c r="AR31" s="97"/>
-      <c r="AS31" s="97"/>
-      <c r="AT31" s="97"/>
-      <c r="AU31" s="97"/>
-      <c r="AV31" s="97"/>
-      <c r="AW31" s="97"/>
-      <c r="AX31" s="97"/>
-      <c r="AY31" s="97"/>
-      <c r="AZ31" s="97"/>
-      <c r="BA31" s="97"/>
-      <c r="BB31" s="97"/>
-      <c r="BC31" s="97"/>
-      <c r="BD31" s="97"/>
-      <c r="BE31" s="97"/>
-      <c r="BF31" s="97"/>
-      <c r="BG31" s="97"/>
-      <c r="BH31" s="97"/>
-      <c r="BI31" s="97"/>
-      <c r="BJ31" s="97"/>
-      <c r="BK31" s="97"/>
-      <c r="BL31" s="97"/>
-      <c r="BM31" s="97"/>
-      <c r="BN31" s="97"/>
-      <c r="BO31" s="97"/>
-      <c r="BP31" s="97"/>
-      <c r="BQ31" s="97"/>
-      <c r="BR31" s="97"/>
-      <c r="BS31" s="97"/>
-      <c r="BT31" s="97"/>
-      <c r="BU31" s="97"/>
-      <c r="BV31" s="97"/>
-      <c r="BW31" s="97"/>
-      <c r="BX31" s="97"/>
-      <c r="BY31" s="97"/>
-      <c r="BZ31" s="97"/>
-      <c r="CA31" s="97"/>
-      <c r="CB31" s="98"/>
-    </row>
-    <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="97"/>
-      <c r="AH32" s="97"/>
-      <c r="AI32" s="97"/>
-      <c r="AJ32" s="97"/>
-      <c r="AK32" s="97"/>
-      <c r="AL32" s="97"/>
-      <c r="AM32" s="97"/>
-      <c r="AN32" s="98"/>
-      <c r="AQ32" s="96"/>
-      <c r="AR32" s="97"/>
-      <c r="AS32" s="97"/>
-      <c r="AT32" s="97"/>
-      <c r="AU32" s="97"/>
-      <c r="AV32" s="97"/>
-      <c r="AW32" s="97"/>
-      <c r="AX32" s="97"/>
-      <c r="AY32" s="97"/>
-      <c r="AZ32" s="97"/>
-      <c r="BA32" s="97"/>
-      <c r="BB32" s="97"/>
-      <c r="BC32" s="97"/>
-      <c r="BD32" s="97"/>
-      <c r="BE32" s="97"/>
-      <c r="BF32" s="97"/>
-      <c r="BG32" s="97"/>
-      <c r="BH32" s="97"/>
-      <c r="BI32" s="97"/>
-      <c r="BJ32" s="97"/>
-      <c r="BK32" s="97"/>
-      <c r="BL32" s="97"/>
-      <c r="BM32" s="97"/>
-      <c r="BN32" s="97"/>
-      <c r="BO32" s="97"/>
-      <c r="BP32" s="97"/>
-      <c r="BQ32" s="97"/>
-      <c r="BR32" s="97"/>
-      <c r="BS32" s="97"/>
-      <c r="BT32" s="97"/>
-      <c r="BU32" s="97"/>
-      <c r="BV32" s="97"/>
-      <c r="BW32" s="97"/>
-      <c r="BX32" s="97"/>
-      <c r="BY32" s="97"/>
-      <c r="BZ32" s="97"/>
-      <c r="CA32" s="97"/>
-      <c r="CB32" s="98"/>
-    </row>
-    <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="97"/>
-      <c r="AL33" s="97"/>
-      <c r="AM33" s="97"/>
-      <c r="AN33" s="98"/>
-      <c r="AQ33" s="96"/>
-      <c r="AR33" s="97"/>
-      <c r="AS33" s="97"/>
-      <c r="AT33" s="97"/>
-      <c r="AU33" s="97"/>
-      <c r="AV33" s="97"/>
-      <c r="AW33" s="97"/>
-      <c r="AX33" s="97"/>
-      <c r="AY33" s="97"/>
-      <c r="AZ33" s="97"/>
-      <c r="BA33" s="97"/>
-      <c r="BB33" s="97"/>
-      <c r="BC33" s="97"/>
-      <c r="BD33" s="97"/>
-      <c r="BE33" s="97"/>
-      <c r="BF33" s="97"/>
-      <c r="BG33" s="97"/>
-      <c r="BH33" s="97"/>
-      <c r="BI33" s="97"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
-      <c r="BP33" s="97"/>
-      <c r="BQ33" s="97"/>
-      <c r="BR33" s="97"/>
-      <c r="BS33" s="97"/>
-      <c r="BT33" s="97"/>
-      <c r="BU33" s="97"/>
-      <c r="BV33" s="97"/>
-      <c r="BW33" s="97"/>
-      <c r="BX33" s="97"/>
-      <c r="BY33" s="97"/>
-      <c r="BZ33" s="97"/>
-      <c r="CA33" s="97"/>
-      <c r="CB33" s="98"/>
-    </row>
-    <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" s="97"/>
-      <c r="AL34" s="97"/>
-      <c r="AM34" s="97"/>
-      <c r="AN34" s="98"/>
-      <c r="AQ34" s="96"/>
-      <c r="AR34" s="97"/>
-      <c r="AS34" s="97"/>
-      <c r="AT34" s="97"/>
-      <c r="AU34" s="97"/>
-      <c r="AV34" s="97"/>
-      <c r="AW34" s="97"/>
-      <c r="AX34" s="97"/>
-      <c r="AY34" s="97"/>
-      <c r="AZ34" s="97"/>
-      <c r="BA34" s="97"/>
-      <c r="BB34" s="97"/>
-      <c r="BC34" s="97"/>
-      <c r="BD34" s="97"/>
-      <c r="BE34" s="97"/>
-      <c r="BF34" s="97"/>
-      <c r="BG34" s="97"/>
-      <c r="BH34" s="97"/>
-      <c r="BI34" s="97"/>
-      <c r="BJ34" s="97"/>
-      <c r="BK34" s="97"/>
-      <c r="BL34" s="97"/>
-      <c r="BM34" s="97"/>
-      <c r="BN34" s="97"/>
-      <c r="BO34" s="97"/>
-      <c r="BP34" s="97"/>
-      <c r="BQ34" s="97"/>
-      <c r="BR34" s="97"/>
-      <c r="BS34" s="97"/>
-      <c r="BT34" s="97"/>
-      <c r="BU34" s="97"/>
-      <c r="BV34" s="97"/>
-      <c r="BW34" s="97"/>
-      <c r="BX34" s="97"/>
-      <c r="BY34" s="97"/>
-      <c r="BZ34" s="97"/>
-      <c r="CA34" s="97"/>
-      <c r="CB34" s="98"/>
-    </row>
-    <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="96"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="97"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="97"/>
-      <c r="AL35" s="97"/>
-      <c r="AM35" s="97"/>
-      <c r="AN35" s="98"/>
-      <c r="AQ35" s="96"/>
-      <c r="AR35" s="97"/>
-      <c r="AS35" s="97"/>
-      <c r="AT35" s="97"/>
-      <c r="AU35" s="97"/>
-      <c r="AV35" s="97"/>
-      <c r="AW35" s="97"/>
-      <c r="AX35" s="97"/>
-      <c r="AY35" s="97"/>
-      <c r="AZ35" s="97"/>
-      <c r="BA35" s="97"/>
-      <c r="BB35" s="97"/>
-      <c r="BC35" s="97"/>
-      <c r="BD35" s="97"/>
-      <c r="BE35" s="97"/>
-      <c r="BF35" s="97"/>
-      <c r="BG35" s="97"/>
-      <c r="BH35" s="97"/>
-      <c r="BI35" s="97"/>
-      <c r="BJ35" s="97"/>
-      <c r="BK35" s="97"/>
-      <c r="BL35" s="97"/>
-      <c r="BM35" s="97"/>
-      <c r="BN35" s="97"/>
-      <c r="BO35" s="97"/>
-      <c r="BP35" s="97"/>
-      <c r="BQ35" s="97"/>
-      <c r="BR35" s="97"/>
-      <c r="BS35" s="97"/>
-      <c r="BT35" s="97"/>
-      <c r="BU35" s="97"/>
-      <c r="BV35" s="97"/>
-      <c r="BW35" s="97"/>
-      <c r="BX35" s="97"/>
-      <c r="BY35" s="97"/>
-      <c r="BZ35" s="97"/>
-      <c r="CA35" s="97"/>
-      <c r="CB35" s="98"/>
-    </row>
-    <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="96"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="97"/>
-      <c r="AN36" s="98"/>
-      <c r="AQ36" s="96"/>
-      <c r="AR36" s="97"/>
-      <c r="AS36" s="97"/>
-      <c r="AT36" s="97"/>
-      <c r="AU36" s="97"/>
-      <c r="AV36" s="97"/>
-      <c r="AW36" s="97"/>
-      <c r="AX36" s="97"/>
-      <c r="AY36" s="97"/>
-      <c r="AZ36" s="97"/>
-      <c r="BA36" s="97"/>
-      <c r="BB36" s="97"/>
-      <c r="BC36" s="97"/>
-      <c r="BD36" s="97"/>
-      <c r="BE36" s="97"/>
-      <c r="BF36" s="97"/>
-      <c r="BG36" s="97"/>
-      <c r="BH36" s="97"/>
-      <c r="BI36" s="97"/>
-      <c r="BJ36" s="97"/>
-      <c r="BK36" s="97"/>
-      <c r="BL36" s="97"/>
-      <c r="BM36" s="97"/>
-      <c r="BN36" s="97"/>
-      <c r="BO36" s="97"/>
-      <c r="BP36" s="97"/>
-      <c r="BQ36" s="97"/>
-      <c r="BR36" s="97"/>
-      <c r="BS36" s="97"/>
-      <c r="BT36" s="97"/>
-      <c r="BU36" s="97"/>
-      <c r="BV36" s="97"/>
-      <c r="BW36" s="97"/>
-      <c r="BX36" s="97"/>
-      <c r="BY36" s="97"/>
-      <c r="BZ36" s="97"/>
-      <c r="CA36" s="97"/>
-      <c r="CB36" s="98"/>
-    </row>
-    <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="96"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" s="97"/>
-      <c r="AL37" s="97"/>
-      <c r="AM37" s="97"/>
-      <c r="AN37" s="98"/>
-      <c r="AQ37" s="96"/>
-      <c r="AR37" s="97"/>
-      <c r="AS37" s="97"/>
-      <c r="AT37" s="97"/>
-      <c r="AU37" s="97"/>
-      <c r="AV37" s="97"/>
-      <c r="AW37" s="97"/>
-      <c r="AX37" s="97"/>
-      <c r="AY37" s="97"/>
-      <c r="AZ37" s="97"/>
-      <c r="BA37" s="97"/>
-      <c r="BB37" s="97"/>
-      <c r="BC37" s="97"/>
-      <c r="BD37" s="97"/>
-      <c r="BE37" s="97"/>
-      <c r="BF37" s="97"/>
-      <c r="BG37" s="97"/>
-      <c r="BH37" s="97"/>
-      <c r="BI37" s="97"/>
-      <c r="BJ37" s="97"/>
-      <c r="BK37" s="97"/>
-      <c r="BL37" s="97"/>
-      <c r="BM37" s="97"/>
-      <c r="BN37" s="97"/>
-      <c r="BO37" s="97"/>
-      <c r="BP37" s="97"/>
-      <c r="BQ37" s="97"/>
-      <c r="BR37" s="97"/>
-      <c r="BS37" s="97"/>
-      <c r="BT37" s="97"/>
-      <c r="BU37" s="97"/>
-      <c r="BV37" s="97"/>
-      <c r="BW37" s="97"/>
-      <c r="BX37" s="97"/>
-      <c r="BY37" s="97"/>
-      <c r="BZ37" s="97"/>
-      <c r="CA37" s="97"/>
-      <c r="CB37" s="98"/>
-    </row>
-    <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="97"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="97"/>
-      <c r="AK38" s="97"/>
-      <c r="AL38" s="97"/>
-      <c r="AM38" s="97"/>
-      <c r="AN38" s="98"/>
-      <c r="AQ38" s="96"/>
-      <c r="AR38" s="97"/>
-      <c r="AS38" s="97"/>
-      <c r="AT38" s="97"/>
-      <c r="AU38" s="97"/>
-      <c r="AV38" s="97"/>
-      <c r="AW38" s="97"/>
-      <c r="AX38" s="97"/>
-      <c r="AY38" s="97"/>
-      <c r="AZ38" s="97"/>
-      <c r="BA38" s="97"/>
-      <c r="BB38" s="97"/>
-      <c r="BC38" s="97"/>
-      <c r="BD38" s="97"/>
-      <c r="BE38" s="97"/>
-      <c r="BF38" s="97"/>
-      <c r="BG38" s="97"/>
-      <c r="BH38" s="97"/>
-      <c r="BI38" s="97"/>
-      <c r="BJ38" s="97"/>
-      <c r="BK38" s="97"/>
-      <c r="BL38" s="97"/>
-      <c r="BM38" s="97"/>
-      <c r="BN38" s="97"/>
-      <c r="BO38" s="97"/>
-      <c r="BP38" s="97"/>
-      <c r="BQ38" s="97"/>
-      <c r="BR38" s="97"/>
-      <c r="BS38" s="97"/>
-      <c r="BT38" s="97"/>
-      <c r="BU38" s="97"/>
-      <c r="BV38" s="97"/>
-      <c r="BW38" s="97"/>
-      <c r="BX38" s="97"/>
-      <c r="BY38" s="97"/>
-      <c r="BZ38" s="97"/>
-      <c r="CA38" s="97"/>
-      <c r="CB38" s="98"/>
-    </row>
-    <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="96"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="97"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="97"/>
-      <c r="W39" s="97"/>
-      <c r="X39" s="97"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="97"/>
-      <c r="AK39" s="97"/>
-      <c r="AL39" s="97"/>
-      <c r="AM39" s="97"/>
-      <c r="AN39" s="98"/>
-      <c r="AQ39" s="96"/>
-      <c r="AR39" s="97"/>
-      <c r="AS39" s="97"/>
-      <c r="AT39" s="97"/>
-      <c r="AU39" s="97"/>
-      <c r="AV39" s="97"/>
-      <c r="AW39" s="97"/>
-      <c r="AX39" s="97"/>
-      <c r="AY39" s="97"/>
-      <c r="AZ39" s="97"/>
-      <c r="BA39" s="97"/>
-      <c r="BB39" s="97"/>
-      <c r="BC39" s="97"/>
-      <c r="BD39" s="97"/>
-      <c r="BE39" s="97"/>
-      <c r="BF39" s="97"/>
-      <c r="BG39" s="97"/>
-      <c r="BH39" s="97"/>
-      <c r="BI39" s="97"/>
-      <c r="BJ39" s="97"/>
-      <c r="BK39" s="97"/>
-      <c r="BL39" s="97"/>
-      <c r="BM39" s="97"/>
-      <c r="BN39" s="97"/>
-      <c r="BO39" s="97"/>
-      <c r="BP39" s="97"/>
-      <c r="BQ39" s="97"/>
-      <c r="BR39" s="97"/>
-      <c r="BS39" s="97"/>
-      <c r="BT39" s="97"/>
-      <c r="BU39" s="97"/>
-      <c r="BV39" s="97"/>
-      <c r="BW39" s="97"/>
-      <c r="BX39" s="97"/>
-      <c r="BY39" s="97"/>
-      <c r="BZ39" s="97"/>
-      <c r="CA39" s="97"/>
-      <c r="CB39" s="98"/>
-    </row>
-    <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="97"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="97"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
-      <c r="T40" s="97"/>
-      <c r="U40" s="97"/>
-      <c r="V40" s="97"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
-      <c r="Y40" s="97"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="97"/>
-      <c r="AF40" s="97"/>
-      <c r="AG40" s="97"/>
-      <c r="AH40" s="97"/>
-      <c r="AI40" s="97"/>
-      <c r="AJ40" s="97"/>
-      <c r="AK40" s="97"/>
-      <c r="AL40" s="97"/>
-      <c r="AM40" s="97"/>
-      <c r="AN40" s="98"/>
-      <c r="AQ40" s="96"/>
-      <c r="AR40" s="97"/>
-      <c r="AS40" s="97"/>
-      <c r="AT40" s="97"/>
-      <c r="AU40" s="97"/>
-      <c r="AV40" s="97"/>
-      <c r="AW40" s="97"/>
-      <c r="AX40" s="97"/>
-      <c r="AY40" s="97"/>
-      <c r="AZ40" s="97"/>
-      <c r="BA40" s="97"/>
-      <c r="BB40" s="97"/>
-      <c r="BC40" s="97"/>
-      <c r="BD40" s="97"/>
-      <c r="BE40" s="97"/>
-      <c r="BF40" s="97"/>
-      <c r="BG40" s="97"/>
-      <c r="BH40" s="97"/>
-      <c r="BI40" s="97"/>
-      <c r="BJ40" s="97"/>
-      <c r="BK40" s="97"/>
-      <c r="BL40" s="97"/>
-      <c r="BM40" s="97"/>
-      <c r="BN40" s="97"/>
-      <c r="BO40" s="97"/>
-      <c r="BP40" s="97"/>
-      <c r="BQ40" s="97"/>
-      <c r="BR40" s="97"/>
-      <c r="BS40" s="97"/>
-      <c r="BT40" s="97"/>
-      <c r="BU40" s="97"/>
-      <c r="BV40" s="97"/>
-      <c r="BW40" s="97"/>
-      <c r="BX40" s="97"/>
-      <c r="BY40" s="97"/>
-      <c r="BZ40" s="97"/>
-      <c r="CA40" s="97"/>
-      <c r="CB40" s="98"/>
-    </row>
-    <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="97"/>
-      <c r="S41" s="97"/>
-      <c r="T41" s="97"/>
-      <c r="U41" s="97"/>
-      <c r="V41" s="97"/>
-      <c r="W41" s="97"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="97"/>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97"/>
-      <c r="AH41" s="97"/>
-      <c r="AI41" s="97"/>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97"/>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97"/>
-      <c r="AN41" s="98"/>
-      <c r="AQ41" s="96"/>
-      <c r="AR41" s="97"/>
-      <c r="AS41" s="97"/>
-      <c r="AT41" s="97"/>
-      <c r="AU41" s="97"/>
-      <c r="AV41" s="97"/>
-      <c r="AW41" s="97"/>
-      <c r="AX41" s="97"/>
-      <c r="AY41" s="97"/>
-      <c r="AZ41" s="97"/>
-      <c r="BA41" s="97"/>
-      <c r="BB41" s="97"/>
-      <c r="BC41" s="97"/>
-      <c r="BD41" s="97"/>
-      <c r="BE41" s="97"/>
-      <c r="BF41" s="97"/>
-      <c r="BG41" s="97"/>
-      <c r="BH41" s="97"/>
-      <c r="BI41" s="97"/>
-      <c r="BJ41" s="97"/>
-      <c r="BK41" s="97"/>
-      <c r="BL41" s="97"/>
-      <c r="BM41" s="97"/>
-      <c r="BN41" s="97"/>
-      <c r="BO41" s="97"/>
-      <c r="BP41" s="97"/>
-      <c r="BQ41" s="97"/>
-      <c r="BR41" s="97"/>
-      <c r="BS41" s="97"/>
-      <c r="BT41" s="97"/>
-      <c r="BU41" s="97"/>
-      <c r="BV41" s="97"/>
-      <c r="BW41" s="97"/>
-      <c r="BX41" s="97"/>
-      <c r="BY41" s="97"/>
-      <c r="BZ41" s="97"/>
-      <c r="CA41" s="97"/>
-      <c r="CB41" s="98"/>
-    </row>
-    <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-      <c r="AI42" s="97"/>
-      <c r="AJ42" s="97"/>
-      <c r="AK42" s="97"/>
-      <c r="AL42" s="97"/>
-      <c r="AM42" s="97"/>
-      <c r="AN42" s="98"/>
-      <c r="AQ42" s="96"/>
-      <c r="AR42" s="97"/>
-      <c r="AS42" s="97"/>
-      <c r="AT42" s="97"/>
-      <c r="AU42" s="97"/>
-      <c r="AV42" s="97"/>
-      <c r="AW42" s="97"/>
-      <c r="AX42" s="97"/>
-      <c r="AY42" s="97"/>
-      <c r="AZ42" s="97"/>
-      <c r="BA42" s="97"/>
-      <c r="BB42" s="97"/>
-      <c r="BC42" s="97"/>
-      <c r="BD42" s="97"/>
-      <c r="BE42" s="97"/>
-      <c r="BF42" s="97"/>
-      <c r="BG42" s="97"/>
-      <c r="BH42" s="97"/>
-      <c r="BI42" s="97"/>
-      <c r="BJ42" s="97"/>
-      <c r="BK42" s="97"/>
-      <c r="BL42" s="97"/>
-      <c r="BM42" s="97"/>
-      <c r="BN42" s="97"/>
-      <c r="BO42" s="97"/>
-      <c r="BP42" s="97"/>
-      <c r="BQ42" s="97"/>
-      <c r="BR42" s="97"/>
-      <c r="BS42" s="97"/>
-      <c r="BT42" s="97"/>
-      <c r="BU42" s="97"/>
-      <c r="BV42" s="97"/>
-      <c r="BW42" s="97"/>
-      <c r="BX42" s="97"/>
-      <c r="BY42" s="97"/>
-      <c r="BZ42" s="97"/>
-      <c r="CA42" s="97"/>
-      <c r="CB42" s="98"/>
-    </row>
-    <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="96"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="97"/>
-      <c r="AF43" s="97"/>
-      <c r="AG43" s="97"/>
-      <c r="AH43" s="97"/>
-      <c r="AI43" s="97"/>
-      <c r="AJ43" s="97"/>
-      <c r="AK43" s="97"/>
-      <c r="AL43" s="97"/>
-      <c r="AM43" s="97"/>
-      <c r="AN43" s="98"/>
-      <c r="AQ43" s="96"/>
-      <c r="AR43" s="97"/>
-      <c r="AS43" s="97"/>
-      <c r="AT43" s="97"/>
-      <c r="AU43" s="97"/>
-      <c r="AV43" s="97"/>
-      <c r="AW43" s="97"/>
-      <c r="AX43" s="97"/>
-      <c r="AY43" s="97"/>
-      <c r="AZ43" s="97"/>
-      <c r="BA43" s="97"/>
-      <c r="BB43" s="97"/>
-      <c r="BC43" s="97"/>
-      <c r="BD43" s="97"/>
-      <c r="BE43" s="97"/>
-      <c r="BF43" s="97"/>
-      <c r="BG43" s="97"/>
-      <c r="BH43" s="97"/>
-      <c r="BI43" s="97"/>
-      <c r="BJ43" s="97"/>
-      <c r="BK43" s="97"/>
-      <c r="BL43" s="97"/>
-      <c r="BM43" s="97"/>
-      <c r="BN43" s="97"/>
-      <c r="BO43" s="97"/>
-      <c r="BP43" s="97"/>
-      <c r="BQ43" s="97"/>
-      <c r="BR43" s="97"/>
-      <c r="BS43" s="97"/>
-      <c r="BT43" s="97"/>
-      <c r="BU43" s="97"/>
-      <c r="BV43" s="97"/>
-      <c r="BW43" s="97"/>
-      <c r="BX43" s="97"/>
-      <c r="BY43" s="97"/>
-      <c r="BZ43" s="97"/>
-      <c r="CA43" s="97"/>
-      <c r="CB43" s="98"/>
-    </row>
-    <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="96"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-      <c r="AI44" s="97"/>
-      <c r="AJ44" s="97"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="98"/>
-      <c r="AQ44" s="96"/>
-      <c r="AR44" s="97"/>
-      <c r="AS44" s="97"/>
-      <c r="AT44" s="97"/>
-      <c r="AU44" s="97"/>
-      <c r="AV44" s="97"/>
-      <c r="AW44" s="97"/>
-      <c r="AX44" s="97"/>
-      <c r="AY44" s="97"/>
-      <c r="AZ44" s="97"/>
-      <c r="BA44" s="97"/>
-      <c r="BB44" s="97"/>
-      <c r="BC44" s="97"/>
-      <c r="BD44" s="97"/>
-      <c r="BE44" s="97"/>
-      <c r="BF44" s="97"/>
-      <c r="BG44" s="97"/>
-      <c r="BH44" s="97"/>
-      <c r="BI44" s="97"/>
-      <c r="BJ44" s="97"/>
-      <c r="BK44" s="97"/>
-      <c r="BL44" s="97"/>
-      <c r="BM44" s="97"/>
-      <c r="BN44" s="97"/>
-      <c r="BO44" s="97"/>
-      <c r="BP44" s="97"/>
-      <c r="BQ44" s="97"/>
-      <c r="BR44" s="97"/>
-      <c r="BS44" s="97"/>
-      <c r="BT44" s="97"/>
-      <c r="BU44" s="97"/>
-      <c r="BV44" s="97"/>
-      <c r="BW44" s="97"/>
-      <c r="BX44" s="97"/>
-      <c r="BY44" s="97"/>
-      <c r="BZ44" s="97"/>
-      <c r="CA44" s="97"/>
-      <c r="CB44" s="98"/>
-    </row>
-    <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="96"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AG45" s="97"/>
-      <c r="AH45" s="97"/>
-      <c r="AI45" s="97"/>
-      <c r="AJ45" s="97"/>
-      <c r="AK45" s="97"/>
-      <c r="AL45" s="97"/>
-      <c r="AM45" s="97"/>
-      <c r="AN45" s="98"/>
-      <c r="AQ45" s="96"/>
-      <c r="AR45" s="97"/>
-      <c r="AS45" s="97"/>
-      <c r="AT45" s="97"/>
-      <c r="AU45" s="97"/>
-      <c r="AV45" s="97"/>
-      <c r="AW45" s="97"/>
-      <c r="AX45" s="97"/>
-      <c r="AY45" s="97"/>
-      <c r="AZ45" s="97"/>
-      <c r="BA45" s="97"/>
-      <c r="BB45" s="97"/>
-      <c r="BC45" s="97"/>
-      <c r="BD45" s="97"/>
-      <c r="BE45" s="97"/>
-      <c r="BF45" s="97"/>
-      <c r="BG45" s="97"/>
-      <c r="BH45" s="97"/>
-      <c r="BI45" s="97"/>
-      <c r="BJ45" s="97"/>
-      <c r="BK45" s="97"/>
-      <c r="BL45" s="97"/>
-      <c r="BM45" s="97"/>
-      <c r="BN45" s="97"/>
-      <c r="BO45" s="97"/>
-      <c r="BP45" s="97"/>
-      <c r="BQ45" s="97"/>
-      <c r="BR45" s="97"/>
-      <c r="BS45" s="97"/>
-      <c r="BT45" s="97"/>
-      <c r="BU45" s="97"/>
-      <c r="BV45" s="97"/>
-      <c r="BW45" s="97"/>
-      <c r="BX45" s="97"/>
-      <c r="BY45" s="97"/>
-      <c r="BZ45" s="97"/>
-      <c r="CA45" s="97"/>
-      <c r="CB45" s="98"/>
-    </row>
-    <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="100"/>
-      <c r="AB46" s="100"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="100"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="100"/>
-      <c r="AH46" s="100"/>
-      <c r="AI46" s="100"/>
-      <c r="AJ46" s="100"/>
-      <c r="AK46" s="100"/>
-      <c r="AL46" s="100"/>
-      <c r="AM46" s="100"/>
-      <c r="AN46" s="101"/>
-      <c r="AQ46" s="99"/>
-      <c r="AR46" s="100"/>
-      <c r="AS46" s="100"/>
-      <c r="AT46" s="100"/>
-      <c r="AU46" s="100"/>
-      <c r="AV46" s="100"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="100"/>
-      <c r="AY46" s="100"/>
-      <c r="AZ46" s="100"/>
-      <c r="BA46" s="100"/>
-      <c r="BB46" s="100"/>
-      <c r="BC46" s="100"/>
-      <c r="BD46" s="100"/>
-      <c r="BE46" s="100"/>
-      <c r="BF46" s="100"/>
-      <c r="BG46" s="100"/>
-      <c r="BH46" s="100"/>
-      <c r="BI46" s="100"/>
-      <c r="BJ46" s="100"/>
-      <c r="BK46" s="100"/>
-      <c r="BL46" s="100"/>
-      <c r="BM46" s="100"/>
-      <c r="BN46" s="100"/>
-      <c r="BO46" s="100"/>
-      <c r="BP46" s="100"/>
-      <c r="BQ46" s="100"/>
-      <c r="BR46" s="100"/>
-      <c r="BS46" s="100"/>
-      <c r="BT46" s="100"/>
-      <c r="BU46" s="100"/>
-      <c r="BV46" s="100"/>
-      <c r="BW46" s="100"/>
-      <c r="BX46" s="100"/>
-      <c r="BY46" s="100"/>
-      <c r="BZ46" s="100"/>
-      <c r="CA46" s="100"/>
-      <c r="CB46" s="101"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
-    <mergeCell ref="C9:CB10"/>
-    <mergeCell ref="C11:CB24"/>
-    <mergeCell ref="C26:AN27"/>
-    <mergeCell ref="C28:AN46"/>
-    <mergeCell ref="AQ26:CB27"/>
-    <mergeCell ref="AQ28:CB46"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/4 - Meteora Ecommerce.xlsx
+++ b/Excel/4 - Meteora Ecommerce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menez\KR\Programação\00.Estudos\DataEng\DataEngPills\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF860C93-D55A-4584-957A-EDA5B9B30625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415733A5-DCFF-4ACB-82C2-88C6D9E6A671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" tabRatio="698" firstSheet="5" activeTab="7" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" tabRatio="698" firstSheet="2" activeTab="3" xr2:uid="{F6D97A53-F63B-4272-A181-44B26E0B790F}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="25" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1631,6 +1631,16 @@
     <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1638,6 +1648,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,6 +1670,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1712,46 +1752,12 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Cabeçalho Meteora" xfId="3" xr:uid="{43DBFFA1-791E-423B-B2A6-377CC2810274}"/>
@@ -1763,6 +1769,17 @@
     <cellStyle name="Título Meteora" xfId="2" xr:uid="{52F1EA3C-B23E-4AE6-AE73-27AD9F7C9021}"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1821,17 +1838,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -8553,28 +8559,28 @@
     <tableColumn id="15" xr3:uid="{9937299F-2849-4F6D-997C-15E62F8FC55B}" name="Indice" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.XMATCH(TB_Vendas[[#This Row],[Categoria]],Desc_Cols,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9C2947DF-1577-40C6-BA8E-DAD0D54AD25B}" name="indSES" dataDxfId="8">
+    <tableColumn id="16" xr3:uid="{9C2947DF-1577-40C6-BA8E-DAD0D54AD25B}" name="indSES" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2277C041-507D-4501-BADE-7146CE69276B}" name="Desc.3" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{2277C041-507D-4501-BADE-7146CE69276B}" name="Desc.3" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D313142-1815-46CD-8658-071A923275C0}" name="Desc.2" dataDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="14" xr3:uid="{7D313142-1815-46CD-8658-071A923275C0}" name="Desc.2" dataDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[Indice]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desc." dataDxfId="5" dataCellStyle="Porcentagem">
+    <tableColumn id="2" xr3:uid="{4BEBDE19-FA81-4412-AC83-E0AE6998A9B4}" name="Desc." dataDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula array="1">INDEX(Desc_TabToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Qtd,1),MATCH(_xlfn.XLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Categoria]]),Desc_Cols,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3ACC2ADF-7728-47BF-82A0-D55FD0E1304E}" name="Desc. Vend." dataDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{3ACC2ADF-7728-47BF-82A0-D55FD0E1304E}" name="Desc. Vend." dataDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>_xlfn.XLOOKUP(TB_Vendas[[#This Row],[Vendedor]],Vendedores!$A$4:$A$9,Vendedores!$D$4:$D$9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F47E482D-60EB-4706-B1E5-B290E1301DF1}" name="Desconto" dataDxfId="3" dataCellStyle="Porcentagem">
+    <tableColumn id="11" xr3:uid="{F47E482D-60EB-4706-B1E5-B290E1301DF1}" name="Desconto" dataDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF(TB_Vendas[[#This Row],[Desc.]]&gt;TB_Vendas[[#This Row],[Desc. Vend.]],TB_Vendas[[#This Row],[Desc. Vend.]],TB_Vendas[[#This Row],[Desc.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{9459B662-6A4F-4486-82B1-12F67B8F842E}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>TB_Vendas[[#This Row],[Preço Unitário]]*TB_Vendas[[#This Row],[Qtd]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{192FEBCA-1287-48A6-9BE6-69528F71C305}" name="Vendedor" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8891,88 +8897,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="40"/>
@@ -9089,3300 +9095,3300 @@
   <sheetData>
     <row r="1" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W2" s="95" t="s">
+      <c r="W2" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="97"/>
-      <c r="AQ2" s="95" t="s">
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="106"/>
+      <c r="AQ2" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="97"/>
-      <c r="BK2" s="95" t="s">
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="105"/>
+      <c r="BC2" s="105"/>
+      <c r="BD2" s="105"/>
+      <c r="BE2" s="105"/>
+      <c r="BF2" s="105"/>
+      <c r="BG2" s="105"/>
+      <c r="BH2" s="106"/>
+      <c r="BK2" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="BL2" s="96"/>
-      <c r="BM2" s="96"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="96"/>
-      <c r="BP2" s="96"/>
-      <c r="BQ2" s="96"/>
-      <c r="BR2" s="96"/>
-      <c r="BS2" s="96"/>
-      <c r="BT2" s="96"/>
-      <c r="BU2" s="96"/>
-      <c r="BV2" s="96"/>
-      <c r="BW2" s="96"/>
-      <c r="BX2" s="96"/>
-      <c r="BY2" s="96"/>
-      <c r="BZ2" s="96"/>
-      <c r="CA2" s="96"/>
-      <c r="CB2" s="97"/>
+      <c r="BL2" s="105"/>
+      <c r="BM2" s="105"/>
+      <c r="BN2" s="105"/>
+      <c r="BO2" s="105"/>
+      <c r="BP2" s="105"/>
+      <c r="BQ2" s="105"/>
+      <c r="BR2" s="105"/>
+      <c r="BS2" s="105"/>
+      <c r="BT2" s="105"/>
+      <c r="BU2" s="105"/>
+      <c r="BV2" s="105"/>
+      <c r="BW2" s="105"/>
+      <c r="BX2" s="105"/>
+      <c r="BY2" s="105"/>
+      <c r="BZ2" s="105"/>
+      <c r="CA2" s="105"/>
+      <c r="CB2" s="106"/>
     </row>
     <row r="3" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W3" s="98"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="100"/>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="99"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="99"/>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="100"/>
-      <c r="BK3" s="98"/>
-      <c r="BL3" s="99"/>
-      <c r="BM3" s="99"/>
-      <c r="BN3" s="99"/>
-      <c r="BO3" s="99"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="99"/>
-      <c r="BT3" s="99"/>
-      <c r="BU3" s="99"/>
-      <c r="BV3" s="99"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="99"/>
-      <c r="CB3" s="100"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108"/>
+      <c r="AN3" s="109"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="108"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108"/>
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108"/>
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="108"/>
+      <c r="BD3" s="108"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="108"/>
+      <c r="BG3" s="108"/>
+      <c r="BH3" s="109"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="108"/>
+      <c r="BM3" s="108"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="108"/>
+      <c r="BP3" s="108"/>
+      <c r="BQ3" s="108"/>
+      <c r="BR3" s="108"/>
+      <c r="BS3" s="108"/>
+      <c r="BT3" s="108"/>
+      <c r="BU3" s="108"/>
+      <c r="BV3" s="108"/>
+      <c r="BW3" s="108"/>
+      <c r="BX3" s="108"/>
+      <c r="BY3" s="108"/>
+      <c r="BZ3" s="108"/>
+      <c r="CA3" s="108"/>
+      <c r="CB3" s="109"/>
     </row>
     <row r="4" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W4" s="101">
+      <c r="W4" s="119">
         <f>COUNTA(TB_Produtos[Código])</f>
         <v>60</v>
       </c>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="103"/>
-      <c r="AQ4" s="101">
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="121"/>
+      <c r="AQ4" s="119">
         <f>SUM(TB_Vendas[Qtd])</f>
         <v>250</v>
       </c>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="103"/>
-      <c r="BK4" s="110">
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="121"/>
+      <c r="BK4" s="128">
         <f>SUM(TB_Vendas[Total])</f>
         <v>33304.799999999988</v>
       </c>
-      <c r="BL4" s="111"/>
-      <c r="BM4" s="111"/>
-      <c r="BN4" s="111"/>
-      <c r="BO4" s="111"/>
-      <c r="BP4" s="111"/>
-      <c r="BQ4" s="111"/>
-      <c r="BR4" s="111"/>
-      <c r="BS4" s="111"/>
-      <c r="BT4" s="111"/>
-      <c r="BU4" s="111"/>
-      <c r="BV4" s="111"/>
-      <c r="BW4" s="111"/>
-      <c r="BX4" s="111"/>
-      <c r="BY4" s="111"/>
-      <c r="BZ4" s="111"/>
-      <c r="CA4" s="111"/>
-      <c r="CB4" s="112"/>
+      <c r="BL4" s="129"/>
+      <c r="BM4" s="129"/>
+      <c r="BN4" s="129"/>
+      <c r="BO4" s="129"/>
+      <c r="BP4" s="129"/>
+      <c r="BQ4" s="129"/>
+      <c r="BR4" s="129"/>
+      <c r="BS4" s="129"/>
+      <c r="BT4" s="129"/>
+      <c r="BU4" s="129"/>
+      <c r="BV4" s="129"/>
+      <c r="BW4" s="129"/>
+      <c r="BX4" s="129"/>
+      <c r="BY4" s="129"/>
+      <c r="BZ4" s="129"/>
+      <c r="CA4" s="129"/>
+      <c r="CB4" s="130"/>
     </row>
     <row r="5" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W5" s="104"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="106"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="105"/>
-      <c r="AU5" s="105"/>
-      <c r="AV5" s="105"/>
-      <c r="AW5" s="105"/>
-      <c r="AX5" s="105"/>
-      <c r="AY5" s="105"/>
-      <c r="AZ5" s="105"/>
-      <c r="BA5" s="105"/>
-      <c r="BB5" s="105"/>
-      <c r="BC5" s="105"/>
-      <c r="BD5" s="105"/>
-      <c r="BE5" s="105"/>
-      <c r="BF5" s="105"/>
-      <c r="BG5" s="105"/>
-      <c r="BH5" s="106"/>
-      <c r="BK5" s="113"/>
-      <c r="BL5" s="114"/>
-      <c r="BM5" s="114"/>
-      <c r="BN5" s="114"/>
-      <c r="BO5" s="114"/>
-      <c r="BP5" s="114"/>
-      <c r="BQ5" s="114"/>
-      <c r="BR5" s="114"/>
-      <c r="BS5" s="114"/>
-      <c r="BT5" s="114"/>
-      <c r="BU5" s="114"/>
-      <c r="BV5" s="114"/>
-      <c r="BW5" s="114"/>
-      <c r="BX5" s="114"/>
-      <c r="BY5" s="114"/>
-      <c r="BZ5" s="114"/>
-      <c r="CA5" s="114"/>
-      <c r="CB5" s="115"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="123"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="124"/>
+      <c r="AQ5" s="122"/>
+      <c r="AR5" s="123"/>
+      <c r="AS5" s="123"/>
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="123"/>
+      <c r="AV5" s="123"/>
+      <c r="AW5" s="123"/>
+      <c r="AX5" s="123"/>
+      <c r="AY5" s="123"/>
+      <c r="AZ5" s="123"/>
+      <c r="BA5" s="123"/>
+      <c r="BB5" s="123"/>
+      <c r="BC5" s="123"/>
+      <c r="BD5" s="123"/>
+      <c r="BE5" s="123"/>
+      <c r="BF5" s="123"/>
+      <c r="BG5" s="123"/>
+      <c r="BH5" s="124"/>
+      <c r="BK5" s="131"/>
+      <c r="BL5" s="132"/>
+      <c r="BM5" s="132"/>
+      <c r="BN5" s="132"/>
+      <c r="BO5" s="132"/>
+      <c r="BP5" s="132"/>
+      <c r="BQ5" s="132"/>
+      <c r="BR5" s="132"/>
+      <c r="BS5" s="132"/>
+      <c r="BT5" s="132"/>
+      <c r="BU5" s="132"/>
+      <c r="BV5" s="132"/>
+      <c r="BW5" s="132"/>
+      <c r="BX5" s="132"/>
+      <c r="BY5" s="132"/>
+      <c r="BZ5" s="132"/>
+      <c r="CA5" s="132"/>
+      <c r="CB5" s="133"/>
     </row>
     <row r="6" spans="3:80" ht="9.75" customHeight="1">
-      <c r="W6" s="104"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
-      <c r="AE6" s="105"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="105"/>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="106"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="105"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105"/>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="105"/>
-      <c r="AY6" s="105"/>
-      <c r="AZ6" s="105"/>
-      <c r="BA6" s="105"/>
-      <c r="BB6" s="105"/>
-      <c r="BC6" s="105"/>
-      <c r="BD6" s="105"/>
-      <c r="BE6" s="105"/>
-      <c r="BF6" s="105"/>
-      <c r="BG6" s="105"/>
-      <c r="BH6" s="106"/>
-      <c r="BK6" s="113"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="114"/>
-      <c r="BO6" s="114"/>
-      <c r="BP6" s="114"/>
-      <c r="BQ6" s="114"/>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="114"/>
-      <c r="BT6" s="114"/>
-      <c r="BU6" s="114"/>
-      <c r="BV6" s="114"/>
-      <c r="BW6" s="114"/>
-      <c r="BX6" s="114"/>
-      <c r="BY6" s="114"/>
-      <c r="BZ6" s="114"/>
-      <c r="CA6" s="114"/>
-      <c r="CB6" s="115"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="124"/>
+      <c r="AQ6" s="122"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123"/>
+      <c r="AU6" s="123"/>
+      <c r="AV6" s="123"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123"/>
+      <c r="AZ6" s="123"/>
+      <c r="BA6" s="123"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123"/>
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="124"/>
+      <c r="BK6" s="131"/>
+      <c r="BL6" s="132"/>
+      <c r="BM6" s="132"/>
+      <c r="BN6" s="132"/>
+      <c r="BO6" s="132"/>
+      <c r="BP6" s="132"/>
+      <c r="BQ6" s="132"/>
+      <c r="BR6" s="132"/>
+      <c r="BS6" s="132"/>
+      <c r="BT6" s="132"/>
+      <c r="BU6" s="132"/>
+      <c r="BV6" s="132"/>
+      <c r="BW6" s="132"/>
+      <c r="BX6" s="132"/>
+      <c r="BY6" s="132"/>
+      <c r="BZ6" s="132"/>
+      <c r="CA6" s="132"/>
+      <c r="CB6" s="133"/>
     </row>
     <row r="7" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="W7" s="107"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="108"/>
-      <c r="AK7" s="108"/>
-      <c r="AL7" s="108"/>
-      <c r="AM7" s="108"/>
-      <c r="AN7" s="109"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="108"/>
-      <c r="AS7" s="108"/>
-      <c r="AT7" s="108"/>
-      <c r="AU7" s="108"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="108"/>
-      <c r="AX7" s="108"/>
-      <c r="AY7" s="108"/>
-      <c r="AZ7" s="108"/>
-      <c r="BA7" s="108"/>
-      <c r="BB7" s="108"/>
-      <c r="BC7" s="108"/>
-      <c r="BD7" s="108"/>
-      <c r="BE7" s="108"/>
-      <c r="BF7" s="108"/>
-      <c r="BG7" s="108"/>
-      <c r="BH7" s="109"/>
-      <c r="BK7" s="116"/>
-      <c r="BL7" s="117"/>
-      <c r="BM7" s="117"/>
-      <c r="BN7" s="117"/>
-      <c r="BO7" s="117"/>
-      <c r="BP7" s="117"/>
-      <c r="BQ7" s="117"/>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="117"/>
-      <c r="BU7" s="117"/>
-      <c r="BV7" s="117"/>
-      <c r="BW7" s="117"/>
-      <c r="BX7" s="117"/>
-      <c r="BY7" s="117"/>
-      <c r="BZ7" s="117"/>
-      <c r="CA7" s="117"/>
-      <c r="CB7" s="118"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="127"/>
+      <c r="AQ7" s="125"/>
+      <c r="AR7" s="126"/>
+      <c r="AS7" s="126"/>
+      <c r="AT7" s="126"/>
+      <c r="AU7" s="126"/>
+      <c r="AV7" s="126"/>
+      <c r="AW7" s="126"/>
+      <c r="AX7" s="126"/>
+      <c r="AY7" s="126"/>
+      <c r="AZ7" s="126"/>
+      <c r="BA7" s="126"/>
+      <c r="BB7" s="126"/>
+      <c r="BC7" s="126"/>
+      <c r="BD7" s="126"/>
+      <c r="BE7" s="126"/>
+      <c r="BF7" s="126"/>
+      <c r="BG7" s="126"/>
+      <c r="BH7" s="127"/>
+      <c r="BK7" s="134"/>
+      <c r="BL7" s="135"/>
+      <c r="BM7" s="135"/>
+      <c r="BN7" s="135"/>
+      <c r="BO7" s="135"/>
+      <c r="BP7" s="135"/>
+      <c r="BQ7" s="135"/>
+      <c r="BR7" s="135"/>
+      <c r="BS7" s="135"/>
+      <c r="BT7" s="135"/>
+      <c r="BU7" s="135"/>
+      <c r="BV7" s="135"/>
+      <c r="BW7" s="135"/>
+      <c r="BX7" s="135"/>
+      <c r="BY7" s="135"/>
+      <c r="BZ7" s="135"/>
+      <c r="CA7" s="135"/>
+      <c r="CB7" s="136"/>
     </row>
     <row r="8" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="9" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="96"/>
-      <c r="AZ9" s="96"/>
-      <c r="BA9" s="96"/>
-      <c r="BB9" s="96"/>
-      <c r="BC9" s="96"/>
-      <c r="BD9" s="96"/>
-      <c r="BE9" s="96"/>
-      <c r="BF9" s="96"/>
-      <c r="BG9" s="96"/>
-      <c r="BH9" s="96"/>
-      <c r="BI9" s="96"/>
-      <c r="BJ9" s="96"/>
-      <c r="BK9" s="96"/>
-      <c r="BL9" s="96"/>
-      <c r="BM9" s="96"/>
-      <c r="BN9" s="96"/>
-      <c r="BO9" s="96"/>
-      <c r="BP9" s="96"/>
-      <c r="BQ9" s="96"/>
-      <c r="BR9" s="96"/>
-      <c r="BS9" s="96"/>
-      <c r="BT9" s="96"/>
-      <c r="BU9" s="96"/>
-      <c r="BV9" s="96"/>
-      <c r="BW9" s="96"/>
-      <c r="BX9" s="96"/>
-      <c r="BY9" s="96"/>
-      <c r="BZ9" s="96"/>
-      <c r="CA9" s="96"/>
-      <c r="CB9" s="97"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="105"/>
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="105"/>
+      <c r="BK9" s="105"/>
+      <c r="BL9" s="105"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="105"/>
+      <c r="BP9" s="105"/>
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="105"/>
+      <c r="BU9" s="105"/>
+      <c r="BV9" s="105"/>
+      <c r="BW9" s="105"/>
+      <c r="BX9" s="105"/>
+      <c r="BY9" s="105"/>
+      <c r="BZ9" s="105"/>
+      <c r="CA9" s="105"/>
+      <c r="CB9" s="106"/>
     </row>
     <row r="10" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C10" s="98"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="99"/>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="99"/>
-      <c r="BC10" s="99"/>
-      <c r="BD10" s="99"/>
-      <c r="BE10" s="99"/>
-      <c r="BF10" s="99"/>
-      <c r="BG10" s="99"/>
-      <c r="BH10" s="99"/>
-      <c r="BI10" s="99"/>
-      <c r="BJ10" s="99"/>
-      <c r="BK10" s="99"/>
-      <c r="BL10" s="99"/>
-      <c r="BM10" s="99"/>
-      <c r="BN10" s="99"/>
-      <c r="BO10" s="99"/>
-      <c r="BP10" s="99"/>
-      <c r="BQ10" s="99"/>
-      <c r="BR10" s="99"/>
-      <c r="BS10" s="99"/>
-      <c r="BT10" s="99"/>
-      <c r="BU10" s="99"/>
-      <c r="BV10" s="99"/>
-      <c r="BW10" s="99"/>
-      <c r="BX10" s="99"/>
-      <c r="BY10" s="99"/>
-      <c r="BZ10" s="99"/>
-      <c r="CA10" s="99"/>
-      <c r="CB10" s="100"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="108"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="108"/>
+      <c r="AM10" s="108"/>
+      <c r="AN10" s="108"/>
+      <c r="AO10" s="108"/>
+      <c r="AP10" s="108"/>
+      <c r="AQ10" s="108"/>
+      <c r="AR10" s="108"/>
+      <c r="AS10" s="108"/>
+      <c r="AT10" s="108"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="108"/>
+      <c r="AW10" s="108"/>
+      <c r="AX10" s="108"/>
+      <c r="AY10" s="108"/>
+      <c r="AZ10" s="108"/>
+      <c r="BA10" s="108"/>
+      <c r="BB10" s="108"/>
+      <c r="BC10" s="108"/>
+      <c r="BD10" s="108"/>
+      <c r="BE10" s="108"/>
+      <c r="BF10" s="108"/>
+      <c r="BG10" s="108"/>
+      <c r="BH10" s="108"/>
+      <c r="BI10" s="108"/>
+      <c r="BJ10" s="108"/>
+      <c r="BK10" s="108"/>
+      <c r="BL10" s="108"/>
+      <c r="BM10" s="108"/>
+      <c r="BN10" s="108"/>
+      <c r="BO10" s="108"/>
+      <c r="BP10" s="108"/>
+      <c r="BQ10" s="108"/>
+      <c r="BR10" s="108"/>
+      <c r="BS10" s="108"/>
+      <c r="BT10" s="108"/>
+      <c r="BU10" s="108"/>
+      <c r="BV10" s="108"/>
+      <c r="BW10" s="108"/>
+      <c r="BX10" s="108"/>
+      <c r="BY10" s="108"/>
+      <c r="BZ10" s="108"/>
+      <c r="CA10" s="108"/>
+      <c r="CB10" s="109"/>
     </row>
     <row r="11" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="120"/>
-      <c r="AM11" s="120"/>
-      <c r="AN11" s="120"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="120"/>
-      <c r="AW11" s="120"/>
-      <c r="AX11" s="120"/>
-      <c r="AY11" s="120"/>
-      <c r="AZ11" s="120"/>
-      <c r="BA11" s="120"/>
-      <c r="BB11" s="120"/>
-      <c r="BC11" s="120"/>
-      <c r="BD11" s="120"/>
-      <c r="BE11" s="120"/>
-      <c r="BF11" s="120"/>
-      <c r="BG11" s="120"/>
-      <c r="BH11" s="120"/>
-      <c r="BI11" s="120"/>
-      <c r="BJ11" s="120"/>
-      <c r="BK11" s="120"/>
-      <c r="BL11" s="120"/>
-      <c r="BM11" s="120"/>
-      <c r="BN11" s="120"/>
-      <c r="BO11" s="120"/>
-      <c r="BP11" s="120"/>
-      <c r="BQ11" s="120"/>
-      <c r="BR11" s="120"/>
-      <c r="BS11" s="120"/>
-      <c r="BT11" s="120"/>
-      <c r="BU11" s="120"/>
-      <c r="BV11" s="120"/>
-      <c r="BW11" s="120"/>
-      <c r="BX11" s="120"/>
-      <c r="BY11" s="120"/>
-      <c r="BZ11" s="120"/>
-      <c r="CA11" s="120"/>
-      <c r="CB11" s="121"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="111"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="111"/>
+      <c r="AY11" s="111"/>
+      <c r="AZ11" s="111"/>
+      <c r="BA11" s="111"/>
+      <c r="BB11" s="111"/>
+      <c r="BC11" s="111"/>
+      <c r="BD11" s="111"/>
+      <c r="BE11" s="111"/>
+      <c r="BF11" s="111"/>
+      <c r="BG11" s="111"/>
+      <c r="BH11" s="111"/>
+      <c r="BI11" s="111"/>
+      <c r="BJ11" s="111"/>
+      <c r="BK11" s="111"/>
+      <c r="BL11" s="111"/>
+      <c r="BM11" s="111"/>
+      <c r="BN11" s="111"/>
+      <c r="BO11" s="111"/>
+      <c r="BP11" s="111"/>
+      <c r="BQ11" s="111"/>
+      <c r="BR11" s="111"/>
+      <c r="BS11" s="111"/>
+      <c r="BT11" s="111"/>
+      <c r="BU11" s="111"/>
+      <c r="BV11" s="111"/>
+      <c r="BW11" s="111"/>
+      <c r="BX11" s="111"/>
+      <c r="BY11" s="111"/>
+      <c r="BZ11" s="111"/>
+      <c r="CA11" s="111"/>
+      <c r="CB11" s="112"/>
     </row>
     <row r="12" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="123"/>
-      <c r="AD12" s="123"/>
-      <c r="AE12" s="123"/>
-      <c r="AF12" s="123"/>
-      <c r="AG12" s="123"/>
-      <c r="AH12" s="123"/>
-      <c r="AI12" s="123"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="123"/>
-      <c r="AM12" s="123"/>
-      <c r="AN12" s="123"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="123"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
-      <c r="AS12" s="123"/>
-      <c r="AT12" s="123"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="123"/>
-      <c r="AW12" s="123"/>
-      <c r="AX12" s="123"/>
-      <c r="AY12" s="123"/>
-      <c r="AZ12" s="123"/>
-      <c r="BA12" s="123"/>
-      <c r="BB12" s="123"/>
-      <c r="BC12" s="123"/>
-      <c r="BD12" s="123"/>
-      <c r="BE12" s="123"/>
-      <c r="BF12" s="123"/>
-      <c r="BG12" s="123"/>
-      <c r="BH12" s="123"/>
-      <c r="BI12" s="123"/>
-      <c r="BJ12" s="123"/>
-      <c r="BK12" s="123"/>
-      <c r="BL12" s="123"/>
-      <c r="BM12" s="123"/>
-      <c r="BN12" s="123"/>
-      <c r="BO12" s="123"/>
-      <c r="BP12" s="123"/>
-      <c r="BQ12" s="123"/>
-      <c r="BR12" s="123"/>
-      <c r="BS12" s="123"/>
-      <c r="BT12" s="123"/>
-      <c r="BU12" s="123"/>
-      <c r="BV12" s="123"/>
-      <c r="BW12" s="123"/>
-      <c r="BX12" s="123"/>
-      <c r="BY12" s="123"/>
-      <c r="BZ12" s="123"/>
-      <c r="CA12" s="123"/>
-      <c r="CB12" s="124"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="114"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="114"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="114"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+      <c r="AX12" s="114"/>
+      <c r="AY12" s="114"/>
+      <c r="AZ12" s="114"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="114"/>
+      <c r="BC12" s="114"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="114"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="114"/>
+      <c r="BI12" s="114"/>
+      <c r="BJ12" s="114"/>
+      <c r="BK12" s="114"/>
+      <c r="BL12" s="114"/>
+      <c r="BM12" s="114"/>
+      <c r="BN12" s="114"/>
+      <c r="BO12" s="114"/>
+      <c r="BP12" s="114"/>
+      <c r="BQ12" s="114"/>
+      <c r="BR12" s="114"/>
+      <c r="BS12" s="114"/>
+      <c r="BT12" s="114"/>
+      <c r="BU12" s="114"/>
+      <c r="BV12" s="114"/>
+      <c r="BW12" s="114"/>
+      <c r="BX12" s="114"/>
+      <c r="BY12" s="114"/>
+      <c r="BZ12" s="114"/>
+      <c r="CA12" s="114"/>
+      <c r="CB12" s="115"/>
     </row>
     <row r="13" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="123"/>
-      <c r="AK13" s="123"/>
-      <c r="AL13" s="123"/>
-      <c r="AM13" s="123"/>
-      <c r="AN13" s="123"/>
-      <c r="AO13" s="123"/>
-      <c r="AP13" s="123"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="123"/>
-      <c r="AS13" s="123"/>
-      <c r="AT13" s="123"/>
-      <c r="AU13" s="123"/>
-      <c r="AV13" s="123"/>
-      <c r="AW13" s="123"/>
-      <c r="AX13" s="123"/>
-      <c r="AY13" s="123"/>
-      <c r="AZ13" s="123"/>
-      <c r="BA13" s="123"/>
-      <c r="BB13" s="123"/>
-      <c r="BC13" s="123"/>
-      <c r="BD13" s="123"/>
-      <c r="BE13" s="123"/>
-      <c r="BF13" s="123"/>
-      <c r="BG13" s="123"/>
-      <c r="BH13" s="123"/>
-      <c r="BI13" s="123"/>
-      <c r="BJ13" s="123"/>
-      <c r="BK13" s="123"/>
-      <c r="BL13" s="123"/>
-      <c r="BM13" s="123"/>
-      <c r="BN13" s="123"/>
-      <c r="BO13" s="123"/>
-      <c r="BP13" s="123"/>
-      <c r="BQ13" s="123"/>
-      <c r="BR13" s="123"/>
-      <c r="BS13" s="123"/>
-      <c r="BT13" s="123"/>
-      <c r="BU13" s="123"/>
-      <c r="BV13" s="123"/>
-      <c r="BW13" s="123"/>
-      <c r="BX13" s="123"/>
-      <c r="BY13" s="123"/>
-      <c r="BZ13" s="123"/>
-      <c r="CA13" s="123"/>
-      <c r="CB13" s="124"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
+      <c r="BJ13" s="114"/>
+      <c r="BK13" s="114"/>
+      <c r="BL13" s="114"/>
+      <c r="BM13" s="114"/>
+      <c r="BN13" s="114"/>
+      <c r="BO13" s="114"/>
+      <c r="BP13" s="114"/>
+      <c r="BQ13" s="114"/>
+      <c r="BR13" s="114"/>
+      <c r="BS13" s="114"/>
+      <c r="BT13" s="114"/>
+      <c r="BU13" s="114"/>
+      <c r="BV13" s="114"/>
+      <c r="BW13" s="114"/>
+      <c r="BX13" s="114"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="115"/>
     </row>
     <row r="14" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="123"/>
-      <c r="T14" s="123"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="123"/>
-      <c r="AO14" s="123"/>
-      <c r="AP14" s="123"/>
-      <c r="AQ14" s="123"/>
-      <c r="AR14" s="123"/>
-      <c r="AS14" s="123"/>
-      <c r="AT14" s="123"/>
-      <c r="AU14" s="123"/>
-      <c r="AV14" s="123"/>
-      <c r="AW14" s="123"/>
-      <c r="AX14" s="123"/>
-      <c r="AY14" s="123"/>
-      <c r="AZ14" s="123"/>
-      <c r="BA14" s="123"/>
-      <c r="BB14" s="123"/>
-      <c r="BC14" s="123"/>
-      <c r="BD14" s="123"/>
-      <c r="BE14" s="123"/>
-      <c r="BF14" s="123"/>
-      <c r="BG14" s="123"/>
-      <c r="BH14" s="123"/>
-      <c r="BI14" s="123"/>
-      <c r="BJ14" s="123"/>
-      <c r="BK14" s="123"/>
-      <c r="BL14" s="123"/>
-      <c r="BM14" s="123"/>
-      <c r="BN14" s="123"/>
-      <c r="BO14" s="123"/>
-      <c r="BP14" s="123"/>
-      <c r="BQ14" s="123"/>
-      <c r="BR14" s="123"/>
-      <c r="BS14" s="123"/>
-      <c r="BT14" s="123"/>
-      <c r="BU14" s="123"/>
-      <c r="BV14" s="123"/>
-      <c r="BW14" s="123"/>
-      <c r="BX14" s="123"/>
-      <c r="BY14" s="123"/>
-      <c r="BZ14" s="123"/>
-      <c r="CA14" s="123"/>
-      <c r="CB14" s="124"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
+      <c r="BM14" s="114"/>
+      <c r="BN14" s="114"/>
+      <c r="BO14" s="114"/>
+      <c r="BP14" s="114"/>
+      <c r="BQ14" s="114"/>
+      <c r="BR14" s="114"/>
+      <c r="BS14" s="114"/>
+      <c r="BT14" s="114"/>
+      <c r="BU14" s="114"/>
+      <c r="BV14" s="114"/>
+      <c r="BW14" s="114"/>
+      <c r="BX14" s="114"/>
+      <c r="BY14" s="114"/>
+      <c r="BZ14" s="114"/>
+      <c r="CA14" s="114"/>
+      <c r="CB14" s="115"/>
     </row>
     <row r="15" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="123"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="123"/>
-      <c r="AD15" s="123"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="123"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="123"/>
-      <c r="AM15" s="123"/>
-      <c r="AN15" s="123"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="123"/>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="123"/>
-      <c r="AS15" s="123"/>
-      <c r="AT15" s="123"/>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="123"/>
-      <c r="AW15" s="123"/>
-      <c r="AX15" s="123"/>
-      <c r="AY15" s="123"/>
-      <c r="AZ15" s="123"/>
-      <c r="BA15" s="123"/>
-      <c r="BB15" s="123"/>
-      <c r="BC15" s="123"/>
-      <c r="BD15" s="123"/>
-      <c r="BE15" s="123"/>
-      <c r="BF15" s="123"/>
-      <c r="BG15" s="123"/>
-      <c r="BH15" s="123"/>
-      <c r="BI15" s="123"/>
-      <c r="BJ15" s="123"/>
-      <c r="BK15" s="123"/>
-      <c r="BL15" s="123"/>
-      <c r="BM15" s="123"/>
-      <c r="BN15" s="123"/>
-      <c r="BO15" s="123"/>
-      <c r="BP15" s="123"/>
-      <c r="BQ15" s="123"/>
-      <c r="BR15" s="123"/>
-      <c r="BS15" s="123"/>
-      <c r="BT15" s="123"/>
-      <c r="BU15" s="123"/>
-      <c r="BV15" s="123"/>
-      <c r="BW15" s="123"/>
-      <c r="BX15" s="123"/>
-      <c r="BY15" s="123"/>
-      <c r="BZ15" s="123"/>
-      <c r="CA15" s="123"/>
-      <c r="CB15" s="124"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
+      <c r="BJ15" s="114"/>
+      <c r="BK15" s="114"/>
+      <c r="BL15" s="114"/>
+      <c r="BM15" s="114"/>
+      <c r="BN15" s="114"/>
+      <c r="BO15" s="114"/>
+      <c r="BP15" s="114"/>
+      <c r="BQ15" s="114"/>
+      <c r="BR15" s="114"/>
+      <c r="BS15" s="114"/>
+      <c r="BT15" s="114"/>
+      <c r="BU15" s="114"/>
+      <c r="BV15" s="114"/>
+      <c r="BW15" s="114"/>
+      <c r="BX15" s="114"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="115"/>
     </row>
     <row r="16" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="123"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="123"/>
-      <c r="AF16" s="123"/>
-      <c r="AG16" s="123"/>
-      <c r="AH16" s="123"/>
-      <c r="AI16" s="123"/>
-      <c r="AJ16" s="123"/>
-      <c r="AK16" s="123"/>
-      <c r="AL16" s="123"/>
-      <c r="AM16" s="123"/>
-      <c r="AN16" s="123"/>
-      <c r="AO16" s="123"/>
-      <c r="AP16" s="123"/>
-      <c r="AQ16" s="123"/>
-      <c r="AR16" s="123"/>
-      <c r="AS16" s="123"/>
-      <c r="AT16" s="123"/>
-      <c r="AU16" s="123"/>
-      <c r="AV16" s="123"/>
-      <c r="AW16" s="123"/>
-      <c r="AX16" s="123"/>
-      <c r="AY16" s="123"/>
-      <c r="AZ16" s="123"/>
-      <c r="BA16" s="123"/>
-      <c r="BB16" s="123"/>
-      <c r="BC16" s="123"/>
-      <c r="BD16" s="123"/>
-      <c r="BE16" s="123"/>
-      <c r="BF16" s="123"/>
-      <c r="BG16" s="123"/>
-      <c r="BH16" s="123"/>
-      <c r="BI16" s="123"/>
-      <c r="BJ16" s="123"/>
-      <c r="BK16" s="123"/>
-      <c r="BL16" s="123"/>
-      <c r="BM16" s="123"/>
-      <c r="BN16" s="123"/>
-      <c r="BO16" s="123"/>
-      <c r="BP16" s="123"/>
-      <c r="BQ16" s="123"/>
-      <c r="BR16" s="123"/>
-      <c r="BS16" s="123"/>
-      <c r="BT16" s="123"/>
-      <c r="BU16" s="123"/>
-      <c r="BV16" s="123"/>
-      <c r="BW16" s="123"/>
-      <c r="BX16" s="123"/>
-      <c r="BY16" s="123"/>
-      <c r="BZ16" s="123"/>
-      <c r="CA16" s="123"/>
-      <c r="CB16" s="124"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="114"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="114"/>
+      <c r="BF16" s="114"/>
+      <c r="BG16" s="114"/>
+      <c r="BH16" s="114"/>
+      <c r="BI16" s="114"/>
+      <c r="BJ16" s="114"/>
+      <c r="BK16" s="114"/>
+      <c r="BL16" s="114"/>
+      <c r="BM16" s="114"/>
+      <c r="BN16" s="114"/>
+      <c r="BO16" s="114"/>
+      <c r="BP16" s="114"/>
+      <c r="BQ16" s="114"/>
+      <c r="BR16" s="114"/>
+      <c r="BS16" s="114"/>
+      <c r="BT16" s="114"/>
+      <c r="BU16" s="114"/>
+      <c r="BV16" s="114"/>
+      <c r="BW16" s="114"/>
+      <c r="BX16" s="114"/>
+      <c r="BY16" s="114"/>
+      <c r="BZ16" s="114"/>
+      <c r="CA16" s="114"/>
+      <c r="CB16" s="115"/>
     </row>
     <row r="17" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="123"/>
-      <c r="AD17" s="123"/>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="123"/>
-      <c r="AG17" s="123"/>
-      <c r="AH17" s="123"/>
-      <c r="AI17" s="123"/>
-      <c r="AJ17" s="123"/>
-      <c r="AK17" s="123"/>
-      <c r="AL17" s="123"/>
-      <c r="AM17" s="123"/>
-      <c r="AN17" s="123"/>
-      <c r="AO17" s="123"/>
-      <c r="AP17" s="123"/>
-      <c r="AQ17" s="123"/>
-      <c r="AR17" s="123"/>
-      <c r="AS17" s="123"/>
-      <c r="AT17" s="123"/>
-      <c r="AU17" s="123"/>
-      <c r="AV17" s="123"/>
-      <c r="AW17" s="123"/>
-      <c r="AX17" s="123"/>
-      <c r="AY17" s="123"/>
-      <c r="AZ17" s="123"/>
-      <c r="BA17" s="123"/>
-      <c r="BB17" s="123"/>
-      <c r="BC17" s="123"/>
-      <c r="BD17" s="123"/>
-      <c r="BE17" s="123"/>
-      <c r="BF17" s="123"/>
-      <c r="BG17" s="123"/>
-      <c r="BH17" s="123"/>
-      <c r="BI17" s="123"/>
-      <c r="BJ17" s="123"/>
-      <c r="BK17" s="123"/>
-      <c r="BL17" s="123"/>
-      <c r="BM17" s="123"/>
-      <c r="BN17" s="123"/>
-      <c r="BO17" s="123"/>
-      <c r="BP17" s="123"/>
-      <c r="BQ17" s="123"/>
-      <c r="BR17" s="123"/>
-      <c r="BS17" s="123"/>
-      <c r="BT17" s="123"/>
-      <c r="BU17" s="123"/>
-      <c r="BV17" s="123"/>
-      <c r="BW17" s="123"/>
-      <c r="BX17" s="123"/>
-      <c r="BY17" s="123"/>
-      <c r="BZ17" s="123"/>
-      <c r="CA17" s="123"/>
-      <c r="CB17" s="124"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="114"/>
+      <c r="AL17" s="114"/>
+      <c r="AM17" s="114"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="114"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+      <c r="AX17" s="114"/>
+      <c r="AY17" s="114"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="114"/>
+      <c r="BC17" s="114"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="114"/>
+      <c r="BG17" s="114"/>
+      <c r="BH17" s="114"/>
+      <c r="BI17" s="114"/>
+      <c r="BJ17" s="114"/>
+      <c r="BK17" s="114"/>
+      <c r="BL17" s="114"/>
+      <c r="BM17" s="114"/>
+      <c r="BN17" s="114"/>
+      <c r="BO17" s="114"/>
+      <c r="BP17" s="114"/>
+      <c r="BQ17" s="114"/>
+      <c r="BR17" s="114"/>
+      <c r="BS17" s="114"/>
+      <c r="BT17" s="114"/>
+      <c r="BU17" s="114"/>
+      <c r="BV17" s="114"/>
+      <c r="BW17" s="114"/>
+      <c r="BX17" s="114"/>
+      <c r="BY17" s="114"/>
+      <c r="BZ17" s="114"/>
+      <c r="CA17" s="114"/>
+      <c r="CB17" s="115"/>
     </row>
     <row r="18" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="123"/>
-      <c r="AA18" s="123"/>
-      <c r="AB18" s="123"/>
-      <c r="AC18" s="123"/>
-      <c r="AD18" s="123"/>
-      <c r="AE18" s="123"/>
-      <c r="AF18" s="123"/>
-      <c r="AG18" s="123"/>
-      <c r="AH18" s="123"/>
-      <c r="AI18" s="123"/>
-      <c r="AJ18" s="123"/>
-      <c r="AK18" s="123"/>
-      <c r="AL18" s="123"/>
-      <c r="AM18" s="123"/>
-      <c r="AN18" s="123"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="123"/>
-      <c r="AQ18" s="123"/>
-      <c r="AR18" s="123"/>
-      <c r="AS18" s="123"/>
-      <c r="AT18" s="123"/>
-      <c r="AU18" s="123"/>
-      <c r="AV18" s="123"/>
-      <c r="AW18" s="123"/>
-      <c r="AX18" s="123"/>
-      <c r="AY18" s="123"/>
-      <c r="AZ18" s="123"/>
-      <c r="BA18" s="123"/>
-      <c r="BB18" s="123"/>
-      <c r="BC18" s="123"/>
-      <c r="BD18" s="123"/>
-      <c r="BE18" s="123"/>
-      <c r="BF18" s="123"/>
-      <c r="BG18" s="123"/>
-      <c r="BH18" s="123"/>
-      <c r="BI18" s="123"/>
-      <c r="BJ18" s="123"/>
-      <c r="BK18" s="123"/>
-      <c r="BL18" s="123"/>
-      <c r="BM18" s="123"/>
-      <c r="BN18" s="123"/>
-      <c r="BO18" s="123"/>
-      <c r="BP18" s="123"/>
-      <c r="BQ18" s="123"/>
-      <c r="BR18" s="123"/>
-      <c r="BS18" s="123"/>
-      <c r="BT18" s="123"/>
-      <c r="BU18" s="123"/>
-      <c r="BV18" s="123"/>
-      <c r="BW18" s="123"/>
-      <c r="BX18" s="123"/>
-      <c r="BY18" s="123"/>
-      <c r="BZ18" s="123"/>
-      <c r="CA18" s="123"/>
-      <c r="CB18" s="124"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="114"/>
+      <c r="AJ18" s="114"/>
+      <c r="AK18" s="114"/>
+      <c r="AL18" s="114"/>
+      <c r="AM18" s="114"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+      <c r="AX18" s="114"/>
+      <c r="AY18" s="114"/>
+      <c r="AZ18" s="114"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="114"/>
+      <c r="BC18" s="114"/>
+      <c r="BD18" s="114"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="114"/>
+      <c r="BG18" s="114"/>
+      <c r="BH18" s="114"/>
+      <c r="BI18" s="114"/>
+      <c r="BJ18" s="114"/>
+      <c r="BK18" s="114"/>
+      <c r="BL18" s="114"/>
+      <c r="BM18" s="114"/>
+      <c r="BN18" s="114"/>
+      <c r="BO18" s="114"/>
+      <c r="BP18" s="114"/>
+      <c r="BQ18" s="114"/>
+      <c r="BR18" s="114"/>
+      <c r="BS18" s="114"/>
+      <c r="BT18" s="114"/>
+      <c r="BU18" s="114"/>
+      <c r="BV18" s="114"/>
+      <c r="BW18" s="114"/>
+      <c r="BX18" s="114"/>
+      <c r="BY18" s="114"/>
+      <c r="BZ18" s="114"/>
+      <c r="CA18" s="114"/>
+      <c r="CB18" s="115"/>
     </row>
     <row r="19" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="123"/>
-      <c r="AA19" s="123"/>
-      <c r="AB19" s="123"/>
-      <c r="AC19" s="123"/>
-      <c r="AD19" s="123"/>
-      <c r="AE19" s="123"/>
-      <c r="AF19" s="123"/>
-      <c r="AG19" s="123"/>
-      <c r="AH19" s="123"/>
-      <c r="AI19" s="123"/>
-      <c r="AJ19" s="123"/>
-      <c r="AK19" s="123"/>
-      <c r="AL19" s="123"/>
-      <c r="AM19" s="123"/>
-      <c r="AN19" s="123"/>
-      <c r="AO19" s="123"/>
-      <c r="AP19" s="123"/>
-      <c r="AQ19" s="123"/>
-      <c r="AR19" s="123"/>
-      <c r="AS19" s="123"/>
-      <c r="AT19" s="123"/>
-      <c r="AU19" s="123"/>
-      <c r="AV19" s="123"/>
-      <c r="AW19" s="123"/>
-      <c r="AX19" s="123"/>
-      <c r="AY19" s="123"/>
-      <c r="AZ19" s="123"/>
-      <c r="BA19" s="123"/>
-      <c r="BB19" s="123"/>
-      <c r="BC19" s="123"/>
-      <c r="BD19" s="123"/>
-      <c r="BE19" s="123"/>
-      <c r="BF19" s="123"/>
-      <c r="BG19" s="123"/>
-      <c r="BH19" s="123"/>
-      <c r="BI19" s="123"/>
-      <c r="BJ19" s="123"/>
-      <c r="BK19" s="123"/>
-      <c r="BL19" s="123"/>
-      <c r="BM19" s="123"/>
-      <c r="BN19" s="123"/>
-      <c r="BO19" s="123"/>
-      <c r="BP19" s="123"/>
-      <c r="BQ19" s="123"/>
-      <c r="BR19" s="123"/>
-      <c r="BS19" s="123"/>
-      <c r="BT19" s="123"/>
-      <c r="BU19" s="123"/>
-      <c r="BV19" s="123"/>
-      <c r="BW19" s="123"/>
-      <c r="BX19" s="123"/>
-      <c r="BY19" s="123"/>
-      <c r="BZ19" s="123"/>
-      <c r="CA19" s="123"/>
-      <c r="CB19" s="124"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="114"/>
+      <c r="AI19" s="114"/>
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="114"/>
+      <c r="AL19" s="114"/>
+      <c r="AM19" s="114"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="114"/>
+      <c r="AZ19" s="114"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="114"/>
+      <c r="BD19" s="114"/>
+      <c r="BE19" s="114"/>
+      <c r="BF19" s="114"/>
+      <c r="BG19" s="114"/>
+      <c r="BH19" s="114"/>
+      <c r="BI19" s="114"/>
+      <c r="BJ19" s="114"/>
+      <c r="BK19" s="114"/>
+      <c r="BL19" s="114"/>
+      <c r="BM19" s="114"/>
+      <c r="BN19" s="114"/>
+      <c r="BO19" s="114"/>
+      <c r="BP19" s="114"/>
+      <c r="BQ19" s="114"/>
+      <c r="BR19" s="114"/>
+      <c r="BS19" s="114"/>
+      <c r="BT19" s="114"/>
+      <c r="BU19" s="114"/>
+      <c r="BV19" s="114"/>
+      <c r="BW19" s="114"/>
+      <c r="BX19" s="114"/>
+      <c r="BY19" s="114"/>
+      <c r="BZ19" s="114"/>
+      <c r="CA19" s="114"/>
+      <c r="CB19" s="115"/>
     </row>
     <row r="20" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="123"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="123"/>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="123"/>
-      <c r="AL20" s="123"/>
-      <c r="AM20" s="123"/>
-      <c r="AN20" s="123"/>
-      <c r="AO20" s="123"/>
-      <c r="AP20" s="123"/>
-      <c r="AQ20" s="123"/>
-      <c r="AR20" s="123"/>
-      <c r="AS20" s="123"/>
-      <c r="AT20" s="123"/>
-      <c r="AU20" s="123"/>
-      <c r="AV20" s="123"/>
-      <c r="AW20" s="123"/>
-      <c r="AX20" s="123"/>
-      <c r="AY20" s="123"/>
-      <c r="AZ20" s="123"/>
-      <c r="BA20" s="123"/>
-      <c r="BB20" s="123"/>
-      <c r="BC20" s="123"/>
-      <c r="BD20" s="123"/>
-      <c r="BE20" s="123"/>
-      <c r="BF20" s="123"/>
-      <c r="BG20" s="123"/>
-      <c r="BH20" s="123"/>
-      <c r="BI20" s="123"/>
-      <c r="BJ20" s="123"/>
-      <c r="BK20" s="123"/>
-      <c r="BL20" s="123"/>
-      <c r="BM20" s="123"/>
-      <c r="BN20" s="123"/>
-      <c r="BO20" s="123"/>
-      <c r="BP20" s="123"/>
-      <c r="BQ20" s="123"/>
-      <c r="BR20" s="123"/>
-      <c r="BS20" s="123"/>
-      <c r="BT20" s="123"/>
-      <c r="BU20" s="123"/>
-      <c r="BV20" s="123"/>
-      <c r="BW20" s="123"/>
-      <c r="BX20" s="123"/>
-      <c r="BY20" s="123"/>
-      <c r="BZ20" s="123"/>
-      <c r="CA20" s="123"/>
-      <c r="CB20" s="124"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="114"/>
+      <c r="AZ20" s="114"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="114"/>
+      <c r="BC20" s="114"/>
+      <c r="BD20" s="114"/>
+      <c r="BE20" s="114"/>
+      <c r="BF20" s="114"/>
+      <c r="BG20" s="114"/>
+      <c r="BH20" s="114"/>
+      <c r="BI20" s="114"/>
+      <c r="BJ20" s="114"/>
+      <c r="BK20" s="114"/>
+      <c r="BL20" s="114"/>
+      <c r="BM20" s="114"/>
+      <c r="BN20" s="114"/>
+      <c r="BO20" s="114"/>
+      <c r="BP20" s="114"/>
+      <c r="BQ20" s="114"/>
+      <c r="BR20" s="114"/>
+      <c r="BS20" s="114"/>
+      <c r="BT20" s="114"/>
+      <c r="BU20" s="114"/>
+      <c r="BV20" s="114"/>
+      <c r="BW20" s="114"/>
+      <c r="BX20" s="114"/>
+      <c r="BY20" s="114"/>
+      <c r="BZ20" s="114"/>
+      <c r="CA20" s="114"/>
+      <c r="CB20" s="115"/>
     </row>
     <row r="21" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="123"/>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="123"/>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="123"/>
-      <c r="AH21" s="123"/>
-      <c r="AI21" s="123"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="123"/>
-      <c r="AL21" s="123"/>
-      <c r="AM21" s="123"/>
-      <c r="AN21" s="123"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="123"/>
-      <c r="AQ21" s="123"/>
-      <c r="AR21" s="123"/>
-      <c r="AS21" s="123"/>
-      <c r="AT21" s="123"/>
-      <c r="AU21" s="123"/>
-      <c r="AV21" s="123"/>
-      <c r="AW21" s="123"/>
-      <c r="AX21" s="123"/>
-      <c r="AY21" s="123"/>
-      <c r="AZ21" s="123"/>
-      <c r="BA21" s="123"/>
-      <c r="BB21" s="123"/>
-      <c r="BC21" s="123"/>
-      <c r="BD21" s="123"/>
-      <c r="BE21" s="123"/>
-      <c r="BF21" s="123"/>
-      <c r="BG21" s="123"/>
-      <c r="BH21" s="123"/>
-      <c r="BI21" s="123"/>
-      <c r="BJ21" s="123"/>
-      <c r="BK21" s="123"/>
-      <c r="BL21" s="123"/>
-      <c r="BM21" s="123"/>
-      <c r="BN21" s="123"/>
-      <c r="BO21" s="123"/>
-      <c r="BP21" s="123"/>
-      <c r="BQ21" s="123"/>
-      <c r="BR21" s="123"/>
-      <c r="BS21" s="123"/>
-      <c r="BT21" s="123"/>
-      <c r="BU21" s="123"/>
-      <c r="BV21" s="123"/>
-      <c r="BW21" s="123"/>
-      <c r="BX21" s="123"/>
-      <c r="BY21" s="123"/>
-      <c r="BZ21" s="123"/>
-      <c r="CA21" s="123"/>
-      <c r="CB21" s="124"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="114"/>
+      <c r="AI21" s="114"/>
+      <c r="AJ21" s="114"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="114"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+      <c r="AX21" s="114"/>
+      <c r="AY21" s="114"/>
+      <c r="AZ21" s="114"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="114"/>
+      <c r="BC21" s="114"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="114"/>
+      <c r="BG21" s="114"/>
+      <c r="BH21" s="114"/>
+      <c r="BI21" s="114"/>
+      <c r="BJ21" s="114"/>
+      <c r="BK21" s="114"/>
+      <c r="BL21" s="114"/>
+      <c r="BM21" s="114"/>
+      <c r="BN21" s="114"/>
+      <c r="BO21" s="114"/>
+      <c r="BP21" s="114"/>
+      <c r="BQ21" s="114"/>
+      <c r="BR21" s="114"/>
+      <c r="BS21" s="114"/>
+      <c r="BT21" s="114"/>
+      <c r="BU21" s="114"/>
+      <c r="BV21" s="114"/>
+      <c r="BW21" s="114"/>
+      <c r="BX21" s="114"/>
+      <c r="BY21" s="114"/>
+      <c r="BZ21" s="114"/>
+      <c r="CA21" s="114"/>
+      <c r="CB21" s="115"/>
     </row>
     <row r="22" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="123"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="123"/>
-      <c r="AE22" s="123"/>
-      <c r="AF22" s="123"/>
-      <c r="AG22" s="123"/>
-      <c r="AH22" s="123"/>
-      <c r="AI22" s="123"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="123"/>
-      <c r="AL22" s="123"/>
-      <c r="AM22" s="123"/>
-      <c r="AN22" s="123"/>
-      <c r="AO22" s="123"/>
-      <c r="AP22" s="123"/>
-      <c r="AQ22" s="123"/>
-      <c r="AR22" s="123"/>
-      <c r="AS22" s="123"/>
-      <c r="AT22" s="123"/>
-      <c r="AU22" s="123"/>
-      <c r="AV22" s="123"/>
-      <c r="AW22" s="123"/>
-      <c r="AX22" s="123"/>
-      <c r="AY22" s="123"/>
-      <c r="AZ22" s="123"/>
-      <c r="BA22" s="123"/>
-      <c r="BB22" s="123"/>
-      <c r="BC22" s="123"/>
-      <c r="BD22" s="123"/>
-      <c r="BE22" s="123"/>
-      <c r="BF22" s="123"/>
-      <c r="BG22" s="123"/>
-      <c r="BH22" s="123"/>
-      <c r="BI22" s="123"/>
-      <c r="BJ22" s="123"/>
-      <c r="BK22" s="123"/>
-      <c r="BL22" s="123"/>
-      <c r="BM22" s="123"/>
-      <c r="BN22" s="123"/>
-      <c r="BO22" s="123"/>
-      <c r="BP22" s="123"/>
-      <c r="BQ22" s="123"/>
-      <c r="BR22" s="123"/>
-      <c r="BS22" s="123"/>
-      <c r="BT22" s="123"/>
-      <c r="BU22" s="123"/>
-      <c r="BV22" s="123"/>
-      <c r="BW22" s="123"/>
-      <c r="BX22" s="123"/>
-      <c r="BY22" s="123"/>
-      <c r="BZ22" s="123"/>
-      <c r="CA22" s="123"/>
-      <c r="CB22" s="124"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
+      <c r="Q22" s="114"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="114"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="114"/>
+      <c r="AA22" s="114"/>
+      <c r="AB22" s="114"/>
+      <c r="AC22" s="114"/>
+      <c r="AD22" s="114"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="114"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="114"/>
+      <c r="AI22" s="114"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="114"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+      <c r="AX22" s="114"/>
+      <c r="AY22" s="114"/>
+      <c r="AZ22" s="114"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="114"/>
+      <c r="BC22" s="114"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="114"/>
+      <c r="BF22" s="114"/>
+      <c r="BG22" s="114"/>
+      <c r="BH22" s="114"/>
+      <c r="BI22" s="114"/>
+      <c r="BJ22" s="114"/>
+      <c r="BK22" s="114"/>
+      <c r="BL22" s="114"/>
+      <c r="BM22" s="114"/>
+      <c r="BN22" s="114"/>
+      <c r="BO22" s="114"/>
+      <c r="BP22" s="114"/>
+      <c r="BQ22" s="114"/>
+      <c r="BR22" s="114"/>
+      <c r="BS22" s="114"/>
+      <c r="BT22" s="114"/>
+      <c r="BU22" s="114"/>
+      <c r="BV22" s="114"/>
+      <c r="BW22" s="114"/>
+      <c r="BX22" s="114"/>
+      <c r="BY22" s="114"/>
+      <c r="BZ22" s="114"/>
+      <c r="CA22" s="114"/>
+      <c r="CB22" s="115"/>
     </row>
     <row r="23" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="123"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="123"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="123"/>
-      <c r="AF23" s="123"/>
-      <c r="AG23" s="123"/>
-      <c r="AH23" s="123"/>
-      <c r="AI23" s="123"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="123"/>
-      <c r="AL23" s="123"/>
-      <c r="AM23" s="123"/>
-      <c r="AN23" s="123"/>
-      <c r="AO23" s="123"/>
-      <c r="AP23" s="123"/>
-      <c r="AQ23" s="123"/>
-      <c r="AR23" s="123"/>
-      <c r="AS23" s="123"/>
-      <c r="AT23" s="123"/>
-      <c r="AU23" s="123"/>
-      <c r="AV23" s="123"/>
-      <c r="AW23" s="123"/>
-      <c r="AX23" s="123"/>
-      <c r="AY23" s="123"/>
-      <c r="AZ23" s="123"/>
-      <c r="BA23" s="123"/>
-      <c r="BB23" s="123"/>
-      <c r="BC23" s="123"/>
-      <c r="BD23" s="123"/>
-      <c r="BE23" s="123"/>
-      <c r="BF23" s="123"/>
-      <c r="BG23" s="123"/>
-      <c r="BH23" s="123"/>
-      <c r="BI23" s="123"/>
-      <c r="BJ23" s="123"/>
-      <c r="BK23" s="123"/>
-      <c r="BL23" s="123"/>
-      <c r="BM23" s="123"/>
-      <c r="BN23" s="123"/>
-      <c r="BO23" s="123"/>
-      <c r="BP23" s="123"/>
-      <c r="BQ23" s="123"/>
-      <c r="BR23" s="123"/>
-      <c r="BS23" s="123"/>
-      <c r="BT23" s="123"/>
-      <c r="BU23" s="123"/>
-      <c r="BV23" s="123"/>
-      <c r="BW23" s="123"/>
-      <c r="BX23" s="123"/>
-      <c r="BY23" s="123"/>
-      <c r="BZ23" s="123"/>
-      <c r="CA23" s="123"/>
-      <c r="CB23" s="124"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="114"/>
+      <c r="Z23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="114"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="114"/>
+      <c r="AI23" s="114"/>
+      <c r="AJ23" s="114"/>
+      <c r="AK23" s="114"/>
+      <c r="AL23" s="114"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+      <c r="AX23" s="114"/>
+      <c r="AY23" s="114"/>
+      <c r="AZ23" s="114"/>
+      <c r="BA23" s="114"/>
+      <c r="BB23" s="114"/>
+      <c r="BC23" s="114"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="114"/>
+      <c r="BF23" s="114"/>
+      <c r="BG23" s="114"/>
+      <c r="BH23" s="114"/>
+      <c r="BI23" s="114"/>
+      <c r="BJ23" s="114"/>
+      <c r="BK23" s="114"/>
+      <c r="BL23" s="114"/>
+      <c r="BM23" s="114"/>
+      <c r="BN23" s="114"/>
+      <c r="BO23" s="114"/>
+      <c r="BP23" s="114"/>
+      <c r="BQ23" s="114"/>
+      <c r="BR23" s="114"/>
+      <c r="BS23" s="114"/>
+      <c r="BT23" s="114"/>
+      <c r="BU23" s="114"/>
+      <c r="BV23" s="114"/>
+      <c r="BW23" s="114"/>
+      <c r="BX23" s="114"/>
+      <c r="BY23" s="114"/>
+      <c r="BZ23" s="114"/>
+      <c r="CA23" s="114"/>
+      <c r="CB23" s="115"/>
     </row>
     <row r="24" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C24" s="125"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="126"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="126"/>
-      <c r="AF24" s="126"/>
-      <c r="AG24" s="126"/>
-      <c r="AH24" s="126"/>
-      <c r="AI24" s="126"/>
-      <c r="AJ24" s="126"/>
-      <c r="AK24" s="126"/>
-      <c r="AL24" s="126"/>
-      <c r="AM24" s="126"/>
-      <c r="AN24" s="126"/>
-      <c r="AO24" s="126"/>
-      <c r="AP24" s="126"/>
-      <c r="AQ24" s="126"/>
-      <c r="AR24" s="126"/>
-      <c r="AS24" s="126"/>
-      <c r="AT24" s="126"/>
-      <c r="AU24" s="126"/>
-      <c r="AV24" s="126"/>
-      <c r="AW24" s="126"/>
-      <c r="AX24" s="126"/>
-      <c r="AY24" s="126"/>
-      <c r="AZ24" s="126"/>
-      <c r="BA24" s="126"/>
-      <c r="BB24" s="126"/>
-      <c r="BC24" s="126"/>
-      <c r="BD24" s="126"/>
-      <c r="BE24" s="126"/>
-      <c r="BF24" s="126"/>
-      <c r="BG24" s="126"/>
-      <c r="BH24" s="126"/>
-      <c r="BI24" s="126"/>
-      <c r="BJ24" s="126"/>
-      <c r="BK24" s="126"/>
-      <c r="BL24" s="126"/>
-      <c r="BM24" s="126"/>
-      <c r="BN24" s="126"/>
-      <c r="BO24" s="126"/>
-      <c r="BP24" s="126"/>
-      <c r="BQ24" s="126"/>
-      <c r="BR24" s="126"/>
-      <c r="BS24" s="126"/>
-      <c r="BT24" s="126"/>
-      <c r="BU24" s="126"/>
-      <c r="BV24" s="126"/>
-      <c r="BW24" s="126"/>
-      <c r="BX24" s="126"/>
-      <c r="BY24" s="126"/>
-      <c r="BZ24" s="126"/>
-      <c r="CA24" s="126"/>
-      <c r="CB24" s="127"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
+      <c r="AS24" s="117"/>
+      <c r="AT24" s="117"/>
+      <c r="AU24" s="117"/>
+      <c r="AV24" s="117"/>
+      <c r="AW24" s="117"/>
+      <c r="AX24" s="117"/>
+      <c r="AY24" s="117"/>
+      <c r="AZ24" s="117"/>
+      <c r="BA24" s="117"/>
+      <c r="BB24" s="117"/>
+      <c r="BC24" s="117"/>
+      <c r="BD24" s="117"/>
+      <c r="BE24" s="117"/>
+      <c r="BF24" s="117"/>
+      <c r="BG24" s="117"/>
+      <c r="BH24" s="117"/>
+      <c r="BI24" s="117"/>
+      <c r="BJ24" s="117"/>
+      <c r="BK24" s="117"/>
+      <c r="BL24" s="117"/>
+      <c r="BM24" s="117"/>
+      <c r="BN24" s="117"/>
+      <c r="BO24" s="117"/>
+      <c r="BP24" s="117"/>
+      <c r="BQ24" s="117"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="117"/>
+      <c r="BU24" s="117"/>
+      <c r="BV24" s="117"/>
+      <c r="BW24" s="117"/>
+      <c r="BX24" s="117"/>
+      <c r="BY24" s="117"/>
+      <c r="BZ24" s="117"/>
+      <c r="CA24" s="117"/>
+      <c r="CB24" s="118"/>
     </row>
     <row r="25" spans="3:80" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="26" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="96"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="96"/>
-      <c r="AD26" s="96"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="96"/>
-      <c r="AI26" s="96"/>
-      <c r="AJ26" s="96"/>
-      <c r="AK26" s="96"/>
-      <c r="AL26" s="96"/>
-      <c r="AM26" s="96"/>
-      <c r="AN26" s="97"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="106"/>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
-      <c r="AQ26" s="95" t="s">
+      <c r="AQ26" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="AR26" s="96"/>
-      <c r="AS26" s="96"/>
-      <c r="AT26" s="96"/>
-      <c r="AU26" s="96"/>
-      <c r="AV26" s="96"/>
-      <c r="AW26" s="96"/>
-      <c r="AX26" s="96"/>
-      <c r="AY26" s="96"/>
-      <c r="AZ26" s="96"/>
-      <c r="BA26" s="96"/>
-      <c r="BB26" s="96"/>
-      <c r="BC26" s="96"/>
-      <c r="BD26" s="96"/>
-      <c r="BE26" s="96"/>
-      <c r="BF26" s="96"/>
-      <c r="BG26" s="96"/>
-      <c r="BH26" s="96"/>
-      <c r="BI26" s="96"/>
-      <c r="BJ26" s="96"/>
-      <c r="BK26" s="96"/>
-      <c r="BL26" s="96"/>
-      <c r="BM26" s="96"/>
-      <c r="BN26" s="96"/>
-      <c r="BO26" s="96"/>
-      <c r="BP26" s="96"/>
-      <c r="BQ26" s="96"/>
-      <c r="BR26" s="96"/>
-      <c r="BS26" s="96"/>
-      <c r="BT26" s="96"/>
-      <c r="BU26" s="96"/>
-      <c r="BV26" s="96"/>
-      <c r="BW26" s="96"/>
-      <c r="BX26" s="96"/>
-      <c r="BY26" s="96"/>
-      <c r="BZ26" s="96"/>
-      <c r="CA26" s="96"/>
-      <c r="CB26" s="97"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="105"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
+      <c r="AX26" s="105"/>
+      <c r="AY26" s="105"/>
+      <c r="AZ26" s="105"/>
+      <c r="BA26" s="105"/>
+      <c r="BB26" s="105"/>
+      <c r="BC26" s="105"/>
+      <c r="BD26" s="105"/>
+      <c r="BE26" s="105"/>
+      <c r="BF26" s="105"/>
+      <c r="BG26" s="105"/>
+      <c r="BH26" s="105"/>
+      <c r="BI26" s="105"/>
+      <c r="BJ26" s="105"/>
+      <c r="BK26" s="105"/>
+      <c r="BL26" s="105"/>
+      <c r="BM26" s="105"/>
+      <c r="BN26" s="105"/>
+      <c r="BO26" s="105"/>
+      <c r="BP26" s="105"/>
+      <c r="BQ26" s="105"/>
+      <c r="BR26" s="105"/>
+      <c r="BS26" s="105"/>
+      <c r="BT26" s="105"/>
+      <c r="BU26" s="105"/>
+      <c r="BV26" s="105"/>
+      <c r="BW26" s="105"/>
+      <c r="BX26" s="105"/>
+      <c r="BY26" s="105"/>
+      <c r="BZ26" s="105"/>
+      <c r="CA26" s="105"/>
+      <c r="CB26" s="106"/>
     </row>
     <row r="27" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="99"/>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="99"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="99"/>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="99"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="99"/>
-      <c r="AN27" s="100"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="109"/>
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
-      <c r="AQ27" s="98"/>
-      <c r="AR27" s="99"/>
-      <c r="AS27" s="99"/>
-      <c r="AT27" s="99"/>
-      <c r="AU27" s="99"/>
-      <c r="AV27" s="99"/>
-      <c r="AW27" s="99"/>
-      <c r="AX27" s="99"/>
-      <c r="AY27" s="99"/>
-      <c r="AZ27" s="99"/>
-      <c r="BA27" s="99"/>
-      <c r="BB27" s="99"/>
-      <c r="BC27" s="99"/>
-      <c r="BD27" s="99"/>
-      <c r="BE27" s="99"/>
-      <c r="BF27" s="99"/>
-      <c r="BG27" s="99"/>
-      <c r="BH27" s="99"/>
-      <c r="BI27" s="99"/>
-      <c r="BJ27" s="99"/>
-      <c r="BK27" s="99"/>
-      <c r="BL27" s="99"/>
-      <c r="BM27" s="99"/>
-      <c r="BN27" s="99"/>
-      <c r="BO27" s="99"/>
-      <c r="BP27" s="99"/>
-      <c r="BQ27" s="99"/>
-      <c r="BR27" s="99"/>
-      <c r="BS27" s="99"/>
-      <c r="BT27" s="99"/>
-      <c r="BU27" s="99"/>
-      <c r="BV27" s="99"/>
-      <c r="BW27" s="99"/>
-      <c r="BX27" s="99"/>
-      <c r="BY27" s="99"/>
-      <c r="BZ27" s="99"/>
-      <c r="CA27" s="99"/>
-      <c r="CB27" s="100"/>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="108"/>
+      <c r="AS27" s="108"/>
+      <c r="AT27" s="108"/>
+      <c r="AU27" s="108"/>
+      <c r="AV27" s="108"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="108"/>
+      <c r="AY27" s="108"/>
+      <c r="AZ27" s="108"/>
+      <c r="BA27" s="108"/>
+      <c r="BB27" s="108"/>
+      <c r="BC27" s="108"/>
+      <c r="BD27" s="108"/>
+      <c r="BE27" s="108"/>
+      <c r="BF27" s="108"/>
+      <c r="BG27" s="108"/>
+      <c r="BH27" s="108"/>
+      <c r="BI27" s="108"/>
+      <c r="BJ27" s="108"/>
+      <c r="BK27" s="108"/>
+      <c r="BL27" s="108"/>
+      <c r="BM27" s="108"/>
+      <c r="BN27" s="108"/>
+      <c r="BO27" s="108"/>
+      <c r="BP27" s="108"/>
+      <c r="BQ27" s="108"/>
+      <c r="BR27" s="108"/>
+      <c r="BS27" s="108"/>
+      <c r="BT27" s="108"/>
+      <c r="BU27" s="108"/>
+      <c r="BV27" s="108"/>
+      <c r="BW27" s="108"/>
+      <c r="BX27" s="108"/>
+      <c r="BY27" s="108"/>
+      <c r="BZ27" s="108"/>
+      <c r="CA27" s="108"/>
+      <c r="CB27" s="109"/>
     </row>
     <row r="28" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="120"/>
-      <c r="AH28" s="120"/>
-      <c r="AI28" s="120"/>
-      <c r="AJ28" s="120"/>
-      <c r="AK28" s="120"/>
-      <c r="AL28" s="120"/>
-      <c r="AM28" s="120"/>
-      <c r="AN28" s="121"/>
-      <c r="AQ28" s="119"/>
-      <c r="AR28" s="120"/>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="120"/>
-      <c r="AU28" s="120"/>
-      <c r="AV28" s="120"/>
-      <c r="AW28" s="120"/>
-      <c r="AX28" s="120"/>
-      <c r="AY28" s="120"/>
-      <c r="AZ28" s="120"/>
-      <c r="BA28" s="120"/>
-      <c r="BB28" s="120"/>
-      <c r="BC28" s="120"/>
-      <c r="BD28" s="120"/>
-      <c r="BE28" s="120"/>
-      <c r="BF28" s="120"/>
-      <c r="BG28" s="120"/>
-      <c r="BH28" s="120"/>
-      <c r="BI28" s="120"/>
-      <c r="BJ28" s="120"/>
-      <c r="BK28" s="120"/>
-      <c r="BL28" s="120"/>
-      <c r="BM28" s="120"/>
-      <c r="BN28" s="120"/>
-      <c r="BO28" s="120"/>
-      <c r="BP28" s="120"/>
-      <c r="BQ28" s="120"/>
-      <c r="BR28" s="120"/>
-      <c r="BS28" s="120"/>
-      <c r="BT28" s="120"/>
-      <c r="BU28" s="120"/>
-      <c r="BV28" s="120"/>
-      <c r="BW28" s="120"/>
-      <c r="BX28" s="120"/>
-      <c r="BY28" s="120"/>
-      <c r="BZ28" s="120"/>
-      <c r="CA28" s="120"/>
-      <c r="CB28" s="121"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="111"/>
+      <c r="AL28" s="111"/>
+      <c r="AM28" s="111"/>
+      <c r="AN28" s="112"/>
+      <c r="AQ28" s="110"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
+      <c r="AX28" s="111"/>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="111"/>
+      <c r="BA28" s="111"/>
+      <c r="BB28" s="111"/>
+      <c r="BC28" s="111"/>
+      <c r="BD28" s="111"/>
+      <c r="BE28" s="111"/>
+      <c r="BF28" s="111"/>
+      <c r="BG28" s="111"/>
+      <c r="BH28" s="111"/>
+      <c r="BI28" s="111"/>
+      <c r="BJ28" s="111"/>
+      <c r="BK28" s="111"/>
+      <c r="BL28" s="111"/>
+      <c r="BM28" s="111"/>
+      <c r="BN28" s="111"/>
+      <c r="BO28" s="111"/>
+      <c r="BP28" s="111"/>
+      <c r="BQ28" s="111"/>
+      <c r="BR28" s="111"/>
+      <c r="BS28" s="111"/>
+      <c r="BT28" s="111"/>
+      <c r="BU28" s="111"/>
+      <c r="BV28" s="111"/>
+      <c r="BW28" s="111"/>
+      <c r="BX28" s="111"/>
+      <c r="BY28" s="111"/>
+      <c r="BZ28" s="111"/>
+      <c r="CA28" s="111"/>
+      <c r="CB28" s="112"/>
     </row>
     <row r="29" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="123"/>
-      <c r="X29" s="123"/>
-      <c r="Y29" s="123"/>
-      <c r="Z29" s="123"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="123"/>
-      <c r="AD29" s="123"/>
-      <c r="AE29" s="123"/>
-      <c r="AF29" s="123"/>
-      <c r="AG29" s="123"/>
-      <c r="AH29" s="123"/>
-      <c r="AI29" s="123"/>
-      <c r="AJ29" s="123"/>
-      <c r="AK29" s="123"/>
-      <c r="AL29" s="123"/>
-      <c r="AM29" s="123"/>
-      <c r="AN29" s="124"/>
-      <c r="AQ29" s="122"/>
-      <c r="AR29" s="123"/>
-      <c r="AS29" s="123"/>
-      <c r="AT29" s="123"/>
-      <c r="AU29" s="123"/>
-      <c r="AV29" s="123"/>
-      <c r="AW29" s="123"/>
-      <c r="AX29" s="123"/>
-      <c r="AY29" s="123"/>
-      <c r="AZ29" s="123"/>
-      <c r="BA29" s="123"/>
-      <c r="BB29" s="123"/>
-      <c r="BC29" s="123"/>
-      <c r="BD29" s="123"/>
-      <c r="BE29" s="123"/>
-      <c r="BF29" s="123"/>
-      <c r="BG29" s="123"/>
-      <c r="BH29" s="123"/>
-      <c r="BI29" s="123"/>
-      <c r="BJ29" s="123"/>
-      <c r="BK29" s="123"/>
-      <c r="BL29" s="123"/>
-      <c r="BM29" s="123"/>
-      <c r="BN29" s="123"/>
-      <c r="BO29" s="123"/>
-      <c r="BP29" s="123"/>
-      <c r="BQ29" s="123"/>
-      <c r="BR29" s="123"/>
-      <c r="BS29" s="123"/>
-      <c r="BT29" s="123"/>
-      <c r="BU29" s="123"/>
-      <c r="BV29" s="123"/>
-      <c r="BW29" s="123"/>
-      <c r="BX29" s="123"/>
-      <c r="BY29" s="123"/>
-      <c r="BZ29" s="123"/>
-      <c r="CA29" s="123"/>
-      <c r="CB29" s="124"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="114"/>
+      <c r="AN29" s="115"/>
+      <c r="AQ29" s="113"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
+      <c r="AX29" s="114"/>
+      <c r="AY29" s="114"/>
+      <c r="AZ29" s="114"/>
+      <c r="BA29" s="114"/>
+      <c r="BB29" s="114"/>
+      <c r="BC29" s="114"/>
+      <c r="BD29" s="114"/>
+      <c r="BE29" s="114"/>
+      <c r="BF29" s="114"/>
+      <c r="BG29" s="114"/>
+      <c r="BH29" s="114"/>
+      <c r="BI29" s="114"/>
+      <c r="BJ29" s="114"/>
+      <c r="BK29" s="114"/>
+      <c r="BL29" s="114"/>
+      <c r="BM29" s="114"/>
+      <c r="BN29" s="114"/>
+      <c r="BO29" s="114"/>
+      <c r="BP29" s="114"/>
+      <c r="BQ29" s="114"/>
+      <c r="BR29" s="114"/>
+      <c r="BS29" s="114"/>
+      <c r="BT29" s="114"/>
+      <c r="BU29" s="114"/>
+      <c r="BV29" s="114"/>
+      <c r="BW29" s="114"/>
+      <c r="BX29" s="114"/>
+      <c r="BY29" s="114"/>
+      <c r="BZ29" s="114"/>
+      <c r="CA29" s="114"/>
+      <c r="CB29" s="115"/>
     </row>
     <row r="30" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C30" s="122"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="123"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="123"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="123"/>
-      <c r="Z30" s="123"/>
-      <c r="AA30" s="123"/>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="123"/>
-      <c r="AD30" s="123"/>
-      <c r="AE30" s="123"/>
-      <c r="AF30" s="123"/>
-      <c r="AG30" s="123"/>
-      <c r="AH30" s="123"/>
-      <c r="AI30" s="123"/>
-      <c r="AJ30" s="123"/>
-      <c r="AK30" s="123"/>
-      <c r="AL30" s="123"/>
-      <c r="AM30" s="123"/>
-      <c r="AN30" s="124"/>
-      <c r="AQ30" s="122"/>
-      <c r="AR30" s="123"/>
-      <c r="AS30" s="123"/>
-      <c r="AT30" s="123"/>
-      <c r="AU30" s="123"/>
-      <c r="AV30" s="123"/>
-      <c r="AW30" s="123"/>
-      <c r="AX30" s="123"/>
-      <c r="AY30" s="123"/>
-      <c r="AZ30" s="123"/>
-      <c r="BA30" s="123"/>
-      <c r="BB30" s="123"/>
-      <c r="BC30" s="123"/>
-      <c r="BD30" s="123"/>
-      <c r="BE30" s="123"/>
-      <c r="BF30" s="123"/>
-      <c r="BG30" s="123"/>
-      <c r="BH30" s="123"/>
-      <c r="BI30" s="123"/>
-      <c r="BJ30" s="123"/>
-      <c r="BK30" s="123"/>
-      <c r="BL30" s="123"/>
-      <c r="BM30" s="123"/>
-      <c r="BN30" s="123"/>
-      <c r="BO30" s="123"/>
-      <c r="BP30" s="123"/>
-      <c r="BQ30" s="123"/>
-      <c r="BR30" s="123"/>
-      <c r="BS30" s="123"/>
-      <c r="BT30" s="123"/>
-      <c r="BU30" s="123"/>
-      <c r="BV30" s="123"/>
-      <c r="BW30" s="123"/>
-      <c r="BX30" s="123"/>
-      <c r="BY30" s="123"/>
-      <c r="BZ30" s="123"/>
-      <c r="CA30" s="123"/>
-      <c r="CB30" s="124"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114"/>
+      <c r="R30" s="114"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="114"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="114"/>
+      <c r="AJ30" s="114"/>
+      <c r="AK30" s="114"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="115"/>
+      <c r="AQ30" s="113"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+      <c r="AX30" s="114"/>
+      <c r="AY30" s="114"/>
+      <c r="AZ30" s="114"/>
+      <c r="BA30" s="114"/>
+      <c r="BB30" s="114"/>
+      <c r="BC30" s="114"/>
+      <c r="BD30" s="114"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="114"/>
+      <c r="BG30" s="114"/>
+      <c r="BH30" s="114"/>
+      <c r="BI30" s="114"/>
+      <c r="BJ30" s="114"/>
+      <c r="BK30" s="114"/>
+      <c r="BL30" s="114"/>
+      <c r="BM30" s="114"/>
+      <c r="BN30" s="114"/>
+      <c r="BO30" s="114"/>
+      <c r="BP30" s="114"/>
+      <c r="BQ30" s="114"/>
+      <c r="BR30" s="114"/>
+      <c r="BS30" s="114"/>
+      <c r="BT30" s="114"/>
+      <c r="BU30" s="114"/>
+      <c r="BV30" s="114"/>
+      <c r="BW30" s="114"/>
+      <c r="BX30" s="114"/>
+      <c r="BY30" s="114"/>
+      <c r="BZ30" s="114"/>
+      <c r="CA30" s="114"/>
+      <c r="CB30" s="115"/>
     </row>
     <row r="31" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="123"/>
-      <c r="Z31" s="123"/>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="123"/>
-      <c r="AC31" s="123"/>
-      <c r="AD31" s="123"/>
-      <c r="AE31" s="123"/>
-      <c r="AF31" s="123"/>
-      <c r="AG31" s="123"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="123"/>
-      <c r="AJ31" s="123"/>
-      <c r="AK31" s="123"/>
-      <c r="AL31" s="123"/>
-      <c r="AM31" s="123"/>
-      <c r="AN31" s="124"/>
-      <c r="AQ31" s="122"/>
-      <c r="AR31" s="123"/>
-      <c r="AS31" s="123"/>
-      <c r="AT31" s="123"/>
-      <c r="AU31" s="123"/>
-      <c r="AV31" s="123"/>
-      <c r="AW31" s="123"/>
-      <c r="AX31" s="123"/>
-      <c r="AY31" s="123"/>
-      <c r="AZ31" s="123"/>
-      <c r="BA31" s="123"/>
-      <c r="BB31" s="123"/>
-      <c r="BC31" s="123"/>
-      <c r="BD31" s="123"/>
-      <c r="BE31" s="123"/>
-      <c r="BF31" s="123"/>
-      <c r="BG31" s="123"/>
-      <c r="BH31" s="123"/>
-      <c r="BI31" s="123"/>
-      <c r="BJ31" s="123"/>
-      <c r="BK31" s="123"/>
-      <c r="BL31" s="123"/>
-      <c r="BM31" s="123"/>
-      <c r="BN31" s="123"/>
-      <c r="BO31" s="123"/>
-      <c r="BP31" s="123"/>
-      <c r="BQ31" s="123"/>
-      <c r="BR31" s="123"/>
-      <c r="BS31" s="123"/>
-      <c r="BT31" s="123"/>
-      <c r="BU31" s="123"/>
-      <c r="BV31" s="123"/>
-      <c r="BW31" s="123"/>
-      <c r="BX31" s="123"/>
-      <c r="BY31" s="123"/>
-      <c r="BZ31" s="123"/>
-      <c r="CA31" s="123"/>
-      <c r="CB31" s="124"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
+      <c r="AK31" s="114"/>
+      <c r="AL31" s="114"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="115"/>
+      <c r="AQ31" s="113"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
+      <c r="AX31" s="114"/>
+      <c r="AY31" s="114"/>
+      <c r="AZ31" s="114"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="114"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="114"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="114"/>
+      <c r="BQ31" s="114"/>
+      <c r="BR31" s="114"/>
+      <c r="BS31" s="114"/>
+      <c r="BT31" s="114"/>
+      <c r="BU31" s="114"/>
+      <c r="BV31" s="114"/>
+      <c r="BW31" s="114"/>
+      <c r="BX31" s="114"/>
+      <c r="BY31" s="114"/>
+      <c r="BZ31" s="114"/>
+      <c r="CA31" s="114"/>
+      <c r="CB31" s="115"/>
     </row>
     <row r="32" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="123"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="123"/>
-      <c r="X32" s="123"/>
-      <c r="Y32" s="123"/>
-      <c r="Z32" s="123"/>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
-      <c r="AC32" s="123"/>
-      <c r="AD32" s="123"/>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="123"/>
-      <c r="AG32" s="123"/>
-      <c r="AH32" s="123"/>
-      <c r="AI32" s="123"/>
-      <c r="AJ32" s="123"/>
-      <c r="AK32" s="123"/>
-      <c r="AL32" s="123"/>
-      <c r="AM32" s="123"/>
-      <c r="AN32" s="124"/>
-      <c r="AQ32" s="122"/>
-      <c r="AR32" s="123"/>
-      <c r="AS32" s="123"/>
-      <c r="AT32" s="123"/>
-      <c r="AU32" s="123"/>
-      <c r="AV32" s="123"/>
-      <c r="AW32" s="123"/>
-      <c r="AX32" s="123"/>
-      <c r="AY32" s="123"/>
-      <c r="AZ32" s="123"/>
-      <c r="BA32" s="123"/>
-      <c r="BB32" s="123"/>
-      <c r="BC32" s="123"/>
-      <c r="BD32" s="123"/>
-      <c r="BE32" s="123"/>
-      <c r="BF32" s="123"/>
-      <c r="BG32" s="123"/>
-      <c r="BH32" s="123"/>
-      <c r="BI32" s="123"/>
-      <c r="BJ32" s="123"/>
-      <c r="BK32" s="123"/>
-      <c r="BL32" s="123"/>
-      <c r="BM32" s="123"/>
-      <c r="BN32" s="123"/>
-      <c r="BO32" s="123"/>
-      <c r="BP32" s="123"/>
-      <c r="BQ32" s="123"/>
-      <c r="BR32" s="123"/>
-      <c r="BS32" s="123"/>
-      <c r="BT32" s="123"/>
-      <c r="BU32" s="123"/>
-      <c r="BV32" s="123"/>
-      <c r="BW32" s="123"/>
-      <c r="BX32" s="123"/>
-      <c r="BY32" s="123"/>
-      <c r="BZ32" s="123"/>
-      <c r="CA32" s="123"/>
-      <c r="CB32" s="124"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="114"/>
+      <c r="R32" s="114"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="114"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="114"/>
+      <c r="AG32" s="114"/>
+      <c r="AH32" s="114"/>
+      <c r="AI32" s="114"/>
+      <c r="AJ32" s="114"/>
+      <c r="AK32" s="114"/>
+      <c r="AL32" s="114"/>
+      <c r="AM32" s="114"/>
+      <c r="AN32" s="115"/>
+      <c r="AQ32" s="113"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
+      <c r="AX32" s="114"/>
+      <c r="AY32" s="114"/>
+      <c r="AZ32" s="114"/>
+      <c r="BA32" s="114"/>
+      <c r="BB32" s="114"/>
+      <c r="BC32" s="114"/>
+      <c r="BD32" s="114"/>
+      <c r="BE32" s="114"/>
+      <c r="BF32" s="114"/>
+      <c r="BG32" s="114"/>
+      <c r="BH32" s="114"/>
+      <c r="BI32" s="114"/>
+      <c r="BJ32" s="114"/>
+      <c r="BK32" s="114"/>
+      <c r="BL32" s="114"/>
+      <c r="BM32" s="114"/>
+      <c r="BN32" s="114"/>
+      <c r="BO32" s="114"/>
+      <c r="BP32" s="114"/>
+      <c r="BQ32" s="114"/>
+      <c r="BR32" s="114"/>
+      <c r="BS32" s="114"/>
+      <c r="BT32" s="114"/>
+      <c r="BU32" s="114"/>
+      <c r="BV32" s="114"/>
+      <c r="BW32" s="114"/>
+      <c r="BX32" s="114"/>
+      <c r="BY32" s="114"/>
+      <c r="BZ32" s="114"/>
+      <c r="CA32" s="114"/>
+      <c r="CB32" s="115"/>
     </row>
     <row r="33" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C33" s="122"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="123"/>
-      <c r="Y33" s="123"/>
-      <c r="Z33" s="123"/>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
-      <c r="AC33" s="123"/>
-      <c r="AD33" s="123"/>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="123"/>
-      <c r="AG33" s="123"/>
-      <c r="AH33" s="123"/>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="123"/>
-      <c r="AL33" s="123"/>
-      <c r="AM33" s="123"/>
-      <c r="AN33" s="124"/>
-      <c r="AQ33" s="122"/>
-      <c r="AR33" s="123"/>
-      <c r="AS33" s="123"/>
-      <c r="AT33" s="123"/>
-      <c r="AU33" s="123"/>
-      <c r="AV33" s="123"/>
-      <c r="AW33" s="123"/>
-      <c r="AX33" s="123"/>
-      <c r="AY33" s="123"/>
-      <c r="AZ33" s="123"/>
-      <c r="BA33" s="123"/>
-      <c r="BB33" s="123"/>
-      <c r="BC33" s="123"/>
-      <c r="BD33" s="123"/>
-      <c r="BE33" s="123"/>
-      <c r="BF33" s="123"/>
-      <c r="BG33" s="123"/>
-      <c r="BH33" s="123"/>
-      <c r="BI33" s="123"/>
-      <c r="BJ33" s="123"/>
-      <c r="BK33" s="123"/>
-      <c r="BL33" s="123"/>
-      <c r="BM33" s="123"/>
-      <c r="BN33" s="123"/>
-      <c r="BO33" s="123"/>
-      <c r="BP33" s="123"/>
-      <c r="BQ33" s="123"/>
-      <c r="BR33" s="123"/>
-      <c r="BS33" s="123"/>
-      <c r="BT33" s="123"/>
-      <c r="BU33" s="123"/>
-      <c r="BV33" s="123"/>
-      <c r="BW33" s="123"/>
-      <c r="BX33" s="123"/>
-      <c r="BY33" s="123"/>
-      <c r="BZ33" s="123"/>
-      <c r="CA33" s="123"/>
-      <c r="CB33" s="124"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="114"/>
+      <c r="AG33" s="114"/>
+      <c r="AH33" s="114"/>
+      <c r="AI33" s="114"/>
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="115"/>
+      <c r="AQ33" s="113"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="114"/>
+      <c r="BA33" s="114"/>
+      <c r="BB33" s="114"/>
+      <c r="BC33" s="114"/>
+      <c r="BD33" s="114"/>
+      <c r="BE33" s="114"/>
+      <c r="BF33" s="114"/>
+      <c r="BG33" s="114"/>
+      <c r="BH33" s="114"/>
+      <c r="BI33" s="114"/>
+      <c r="BJ33" s="114"/>
+      <c r="BK33" s="114"/>
+      <c r="BL33" s="114"/>
+      <c r="BM33" s="114"/>
+      <c r="BN33" s="114"/>
+      <c r="BO33" s="114"/>
+      <c r="BP33" s="114"/>
+      <c r="BQ33" s="114"/>
+      <c r="BR33" s="114"/>
+      <c r="BS33" s="114"/>
+      <c r="BT33" s="114"/>
+      <c r="BU33" s="114"/>
+      <c r="BV33" s="114"/>
+      <c r="BW33" s="114"/>
+      <c r="BX33" s="114"/>
+      <c r="BY33" s="114"/>
+      <c r="BZ33" s="114"/>
+      <c r="CA33" s="114"/>
+      <c r="CB33" s="115"/>
     </row>
     <row r="34" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C34" s="122"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="123"/>
-      <c r="W34" s="123"/>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="123"/>
-      <c r="Z34" s="123"/>
-      <c r="AA34" s="123"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="123"/>
-      <c r="AD34" s="123"/>
-      <c r="AE34" s="123"/>
-      <c r="AF34" s="123"/>
-      <c r="AG34" s="123"/>
-      <c r="AH34" s="123"/>
-      <c r="AI34" s="123"/>
-      <c r="AJ34" s="123"/>
-      <c r="AK34" s="123"/>
-      <c r="AL34" s="123"/>
-      <c r="AM34" s="123"/>
-      <c r="AN34" s="124"/>
-      <c r="AQ34" s="122"/>
-      <c r="AR34" s="123"/>
-      <c r="AS34" s="123"/>
-      <c r="AT34" s="123"/>
-      <c r="AU34" s="123"/>
-      <c r="AV34" s="123"/>
-      <c r="AW34" s="123"/>
-      <c r="AX34" s="123"/>
-      <c r="AY34" s="123"/>
-      <c r="AZ34" s="123"/>
-      <c r="BA34" s="123"/>
-      <c r="BB34" s="123"/>
-      <c r="BC34" s="123"/>
-      <c r="BD34" s="123"/>
-      <c r="BE34" s="123"/>
-      <c r="BF34" s="123"/>
-      <c r="BG34" s="123"/>
-      <c r="BH34" s="123"/>
-      <c r="BI34" s="123"/>
-      <c r="BJ34" s="123"/>
-      <c r="BK34" s="123"/>
-      <c r="BL34" s="123"/>
-      <c r="BM34" s="123"/>
-      <c r="BN34" s="123"/>
-      <c r="BO34" s="123"/>
-      <c r="BP34" s="123"/>
-      <c r="BQ34" s="123"/>
-      <c r="BR34" s="123"/>
-      <c r="BS34" s="123"/>
-      <c r="BT34" s="123"/>
-      <c r="BU34" s="123"/>
-      <c r="BV34" s="123"/>
-      <c r="BW34" s="123"/>
-      <c r="BX34" s="123"/>
-      <c r="BY34" s="123"/>
-      <c r="BZ34" s="123"/>
-      <c r="CA34" s="123"/>
-      <c r="CB34" s="124"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="114"/>
+      <c r="AI34" s="114"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="115"/>
+      <c r="AQ34" s="113"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="114"/>
+      <c r="BD34" s="114"/>
+      <c r="BE34" s="114"/>
+      <c r="BF34" s="114"/>
+      <c r="BG34" s="114"/>
+      <c r="BH34" s="114"/>
+      <c r="BI34" s="114"/>
+      <c r="BJ34" s="114"/>
+      <c r="BK34" s="114"/>
+      <c r="BL34" s="114"/>
+      <c r="BM34" s="114"/>
+      <c r="BN34" s="114"/>
+      <c r="BO34" s="114"/>
+      <c r="BP34" s="114"/>
+      <c r="BQ34" s="114"/>
+      <c r="BR34" s="114"/>
+      <c r="BS34" s="114"/>
+      <c r="BT34" s="114"/>
+      <c r="BU34" s="114"/>
+      <c r="BV34" s="114"/>
+      <c r="BW34" s="114"/>
+      <c r="BX34" s="114"/>
+      <c r="BY34" s="114"/>
+      <c r="BZ34" s="114"/>
+      <c r="CA34" s="114"/>
+      <c r="CB34" s="115"/>
     </row>
     <row r="35" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C35" s="122"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="123"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="123"/>
-      <c r="W35" s="123"/>
-      <c r="X35" s="123"/>
-      <c r="Y35" s="123"/>
-      <c r="Z35" s="123"/>
-      <c r="AA35" s="123"/>
-      <c r="AB35" s="123"/>
-      <c r="AC35" s="123"/>
-      <c r="AD35" s="123"/>
-      <c r="AE35" s="123"/>
-      <c r="AF35" s="123"/>
-      <c r="AG35" s="123"/>
-      <c r="AH35" s="123"/>
-      <c r="AI35" s="123"/>
-      <c r="AJ35" s="123"/>
-      <c r="AK35" s="123"/>
-      <c r="AL35" s="123"/>
-      <c r="AM35" s="123"/>
-      <c r="AN35" s="124"/>
-      <c r="AQ35" s="122"/>
-      <c r="AR35" s="123"/>
-      <c r="AS35" s="123"/>
-      <c r="AT35" s="123"/>
-      <c r="AU35" s="123"/>
-      <c r="AV35" s="123"/>
-      <c r="AW35" s="123"/>
-      <c r="AX35" s="123"/>
-      <c r="AY35" s="123"/>
-      <c r="AZ35" s="123"/>
-      <c r="BA35" s="123"/>
-      <c r="BB35" s="123"/>
-      <c r="BC35" s="123"/>
-      <c r="BD35" s="123"/>
-      <c r="BE35" s="123"/>
-      <c r="BF35" s="123"/>
-      <c r="BG35" s="123"/>
-      <c r="BH35" s="123"/>
-      <c r="BI35" s="123"/>
-      <c r="BJ35" s="123"/>
-      <c r="BK35" s="123"/>
-      <c r="BL35" s="123"/>
-      <c r="BM35" s="123"/>
-      <c r="BN35" s="123"/>
-      <c r="BO35" s="123"/>
-      <c r="BP35" s="123"/>
-      <c r="BQ35" s="123"/>
-      <c r="BR35" s="123"/>
-      <c r="BS35" s="123"/>
-      <c r="BT35" s="123"/>
-      <c r="BU35" s="123"/>
-      <c r="BV35" s="123"/>
-      <c r="BW35" s="123"/>
-      <c r="BX35" s="123"/>
-      <c r="BY35" s="123"/>
-      <c r="BZ35" s="123"/>
-      <c r="CA35" s="123"/>
-      <c r="CB35" s="124"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="114"/>
+      <c r="T35" s="114"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="114"/>
+      <c r="AC35" s="114"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="114"/>
+      <c r="AG35" s="114"/>
+      <c r="AH35" s="114"/>
+      <c r="AI35" s="114"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="115"/>
+      <c r="AQ35" s="113"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="114"/>
+      <c r="AY35" s="114"/>
+      <c r="AZ35" s="114"/>
+      <c r="BA35" s="114"/>
+      <c r="BB35" s="114"/>
+      <c r="BC35" s="114"/>
+      <c r="BD35" s="114"/>
+      <c r="BE35" s="114"/>
+      <c r="BF35" s="114"/>
+      <c r="BG35" s="114"/>
+      <c r="BH35" s="114"/>
+      <c r="BI35" s="114"/>
+      <c r="BJ35" s="114"/>
+      <c r="BK35" s="114"/>
+      <c r="BL35" s="114"/>
+      <c r="BM35" s="114"/>
+      <c r="BN35" s="114"/>
+      <c r="BO35" s="114"/>
+      <c r="BP35" s="114"/>
+      <c r="BQ35" s="114"/>
+      <c r="BR35" s="114"/>
+      <c r="BS35" s="114"/>
+      <c r="BT35" s="114"/>
+      <c r="BU35" s="114"/>
+      <c r="BV35" s="114"/>
+      <c r="BW35" s="114"/>
+      <c r="BX35" s="114"/>
+      <c r="BY35" s="114"/>
+      <c r="BZ35" s="114"/>
+      <c r="CA35" s="114"/>
+      <c r="CB35" s="115"/>
     </row>
     <row r="36" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C36" s="122"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="123"/>
-      <c r="U36" s="123"/>
-      <c r="V36" s="123"/>
-      <c r="W36" s="123"/>
-      <c r="X36" s="123"/>
-      <c r="Y36" s="123"/>
-      <c r="Z36" s="123"/>
-      <c r="AA36" s="123"/>
-      <c r="AB36" s="123"/>
-      <c r="AC36" s="123"/>
-      <c r="AD36" s="123"/>
-      <c r="AE36" s="123"/>
-      <c r="AF36" s="123"/>
-      <c r="AG36" s="123"/>
-      <c r="AH36" s="123"/>
-      <c r="AI36" s="123"/>
-      <c r="AJ36" s="123"/>
-      <c r="AK36" s="123"/>
-      <c r="AL36" s="123"/>
-      <c r="AM36" s="123"/>
-      <c r="AN36" s="124"/>
-      <c r="AQ36" s="122"/>
-      <c r="AR36" s="123"/>
-      <c r="AS36" s="123"/>
-      <c r="AT36" s="123"/>
-      <c r="AU36" s="123"/>
-      <c r="AV36" s="123"/>
-      <c r="AW36" s="123"/>
-      <c r="AX36" s="123"/>
-      <c r="AY36" s="123"/>
-      <c r="AZ36" s="123"/>
-      <c r="BA36" s="123"/>
-      <c r="BB36" s="123"/>
-      <c r="BC36" s="123"/>
-      <c r="BD36" s="123"/>
-      <c r="BE36" s="123"/>
-      <c r="BF36" s="123"/>
-      <c r="BG36" s="123"/>
-      <c r="BH36" s="123"/>
-      <c r="BI36" s="123"/>
-      <c r="BJ36" s="123"/>
-      <c r="BK36" s="123"/>
-      <c r="BL36" s="123"/>
-      <c r="BM36" s="123"/>
-      <c r="BN36" s="123"/>
-      <c r="BO36" s="123"/>
-      <c r="BP36" s="123"/>
-      <c r="BQ36" s="123"/>
-      <c r="BR36" s="123"/>
-      <c r="BS36" s="123"/>
-      <c r="BT36" s="123"/>
-      <c r="BU36" s="123"/>
-      <c r="BV36" s="123"/>
-      <c r="BW36" s="123"/>
-      <c r="BX36" s="123"/>
-      <c r="BY36" s="123"/>
-      <c r="BZ36" s="123"/>
-      <c r="CA36" s="123"/>
-      <c r="CB36" s="124"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="114"/>
+      <c r="AB36" s="114"/>
+      <c r="AC36" s="114"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="114"/>
+      <c r="AF36" s="114"/>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="114"/>
+      <c r="AI36" s="114"/>
+      <c r="AJ36" s="114"/>
+      <c r="AK36" s="114"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="114"/>
+      <c r="AN36" s="115"/>
+      <c r="AQ36" s="113"/>
+      <c r="AR36" s="114"/>
+      <c r="AS36" s="114"/>
+      <c r="AT36" s="114"/>
+      <c r="AU36" s="114"/>
+      <c r="AV36" s="114"/>
+      <c r="AW36" s="114"/>
+      <c r="AX36" s="114"/>
+      <c r="AY36" s="114"/>
+      <c r="AZ36" s="114"/>
+      <c r="BA36" s="114"/>
+      <c r="BB36" s="114"/>
+      <c r="BC36" s="114"/>
+      <c r="BD36" s="114"/>
+      <c r="BE36" s="114"/>
+      <c r="BF36" s="114"/>
+      <c r="BG36" s="114"/>
+      <c r="BH36" s="114"/>
+      <c r="BI36" s="114"/>
+      <c r="BJ36" s="114"/>
+      <c r="BK36" s="114"/>
+      <c r="BL36" s="114"/>
+      <c r="BM36" s="114"/>
+      <c r="BN36" s="114"/>
+      <c r="BO36" s="114"/>
+      <c r="BP36" s="114"/>
+      <c r="BQ36" s="114"/>
+      <c r="BR36" s="114"/>
+      <c r="BS36" s="114"/>
+      <c r="BT36" s="114"/>
+      <c r="BU36" s="114"/>
+      <c r="BV36" s="114"/>
+      <c r="BW36" s="114"/>
+      <c r="BX36" s="114"/>
+      <c r="BY36" s="114"/>
+      <c r="BZ36" s="114"/>
+      <c r="CA36" s="114"/>
+      <c r="CB36" s="115"/>
     </row>
     <row r="37" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C37" s="122"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
-      <c r="M37" s="123"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="123"/>
-      <c r="U37" s="123"/>
-      <c r="V37" s="123"/>
-      <c r="W37" s="123"/>
-      <c r="X37" s="123"/>
-      <c r="Y37" s="123"/>
-      <c r="Z37" s="123"/>
-      <c r="AA37" s="123"/>
-      <c r="AB37" s="123"/>
-      <c r="AC37" s="123"/>
-      <c r="AD37" s="123"/>
-      <c r="AE37" s="123"/>
-      <c r="AF37" s="123"/>
-      <c r="AG37" s="123"/>
-      <c r="AH37" s="123"/>
-      <c r="AI37" s="123"/>
-      <c r="AJ37" s="123"/>
-      <c r="AK37" s="123"/>
-      <c r="AL37" s="123"/>
-      <c r="AM37" s="123"/>
-      <c r="AN37" s="124"/>
-      <c r="AQ37" s="122"/>
-      <c r="AR37" s="123"/>
-      <c r="AS37" s="123"/>
-      <c r="AT37" s="123"/>
-      <c r="AU37" s="123"/>
-      <c r="AV37" s="123"/>
-      <c r="AW37" s="123"/>
-      <c r="AX37" s="123"/>
-      <c r="AY37" s="123"/>
-      <c r="AZ37" s="123"/>
-      <c r="BA37" s="123"/>
-      <c r="BB37" s="123"/>
-      <c r="BC37" s="123"/>
-      <c r="BD37" s="123"/>
-      <c r="BE37" s="123"/>
-      <c r="BF37" s="123"/>
-      <c r="BG37" s="123"/>
-      <c r="BH37" s="123"/>
-      <c r="BI37" s="123"/>
-      <c r="BJ37" s="123"/>
-      <c r="BK37" s="123"/>
-      <c r="BL37" s="123"/>
-      <c r="BM37" s="123"/>
-      <c r="BN37" s="123"/>
-      <c r="BO37" s="123"/>
-      <c r="BP37" s="123"/>
-      <c r="BQ37" s="123"/>
-      <c r="BR37" s="123"/>
-      <c r="BS37" s="123"/>
-      <c r="BT37" s="123"/>
-      <c r="BU37" s="123"/>
-      <c r="BV37" s="123"/>
-      <c r="BW37" s="123"/>
-      <c r="BX37" s="123"/>
-      <c r="BY37" s="123"/>
-      <c r="BZ37" s="123"/>
-      <c r="CA37" s="123"/>
-      <c r="CB37" s="124"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="114"/>
+      <c r="AA37" s="114"/>
+      <c r="AB37" s="114"/>
+      <c r="AC37" s="114"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="114"/>
+      <c r="AG37" s="114"/>
+      <c r="AH37" s="114"/>
+      <c r="AI37" s="114"/>
+      <c r="AJ37" s="114"/>
+      <c r="AK37" s="114"/>
+      <c r="AL37" s="114"/>
+      <c r="AM37" s="114"/>
+      <c r="AN37" s="115"/>
+      <c r="AQ37" s="113"/>
+      <c r="AR37" s="114"/>
+      <c r="AS37" s="114"/>
+      <c r="AT37" s="114"/>
+      <c r="AU37" s="114"/>
+      <c r="AV37" s="114"/>
+      <c r="AW37" s="114"/>
+      <c r="AX37" s="114"/>
+      <c r="AY37" s="114"/>
+      <c r="AZ37" s="114"/>
+      <c r="BA37" s="114"/>
+      <c r="BB37" s="114"/>
+      <c r="BC37" s="114"/>
+      <c r="BD37" s="114"/>
+      <c r="BE37" s="114"/>
+      <c r="BF37" s="114"/>
+      <c r="BG37" s="114"/>
+      <c r="BH37" s="114"/>
+      <c r="BI37" s="114"/>
+      <c r="BJ37" s="114"/>
+      <c r="BK37" s="114"/>
+      <c r="BL37" s="114"/>
+      <c r="BM37" s="114"/>
+      <c r="BN37" s="114"/>
+      <c r="BO37" s="114"/>
+      <c r="BP37" s="114"/>
+      <c r="BQ37" s="114"/>
+      <c r="BR37" s="114"/>
+      <c r="BS37" s="114"/>
+      <c r="BT37" s="114"/>
+      <c r="BU37" s="114"/>
+      <c r="BV37" s="114"/>
+      <c r="BW37" s="114"/>
+      <c r="BX37" s="114"/>
+      <c r="BY37" s="114"/>
+      <c r="BZ37" s="114"/>
+      <c r="CA37" s="114"/>
+      <c r="CB37" s="115"/>
     </row>
     <row r="38" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C38" s="122"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="123"/>
-      <c r="W38" s="123"/>
-      <c r="X38" s="123"/>
-      <c r="Y38" s="123"/>
-      <c r="Z38" s="123"/>
-      <c r="AA38" s="123"/>
-      <c r="AB38" s="123"/>
-      <c r="AC38" s="123"/>
-      <c r="AD38" s="123"/>
-      <c r="AE38" s="123"/>
-      <c r="AF38" s="123"/>
-      <c r="AG38" s="123"/>
-      <c r="AH38" s="123"/>
-      <c r="AI38" s="123"/>
-      <c r="AJ38" s="123"/>
-      <c r="AK38" s="123"/>
-      <c r="AL38" s="123"/>
-      <c r="AM38" s="123"/>
-      <c r="AN38" s="124"/>
-      <c r="AQ38" s="122"/>
-      <c r="AR38" s="123"/>
-      <c r="AS38" s="123"/>
-      <c r="AT38" s="123"/>
-      <c r="AU38" s="123"/>
-      <c r="AV38" s="123"/>
-      <c r="AW38" s="123"/>
-      <c r="AX38" s="123"/>
-      <c r="AY38" s="123"/>
-      <c r="AZ38" s="123"/>
-      <c r="BA38" s="123"/>
-      <c r="BB38" s="123"/>
-      <c r="BC38" s="123"/>
-      <c r="BD38" s="123"/>
-      <c r="BE38" s="123"/>
-      <c r="BF38" s="123"/>
-      <c r="BG38" s="123"/>
-      <c r="BH38" s="123"/>
-      <c r="BI38" s="123"/>
-      <c r="BJ38" s="123"/>
-      <c r="BK38" s="123"/>
-      <c r="BL38" s="123"/>
-      <c r="BM38" s="123"/>
-      <c r="BN38" s="123"/>
-      <c r="BO38" s="123"/>
-      <c r="BP38" s="123"/>
-      <c r="BQ38" s="123"/>
-      <c r="BR38" s="123"/>
-      <c r="BS38" s="123"/>
-      <c r="BT38" s="123"/>
-      <c r="BU38" s="123"/>
-      <c r="BV38" s="123"/>
-      <c r="BW38" s="123"/>
-      <c r="BX38" s="123"/>
-      <c r="BY38" s="123"/>
-      <c r="BZ38" s="123"/>
-      <c r="CA38" s="123"/>
-      <c r="CB38" s="124"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="114"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="114"/>
+      <c r="T38" s="114"/>
+      <c r="U38" s="114"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="114"/>
+      <c r="Y38" s="114"/>
+      <c r="Z38" s="114"/>
+      <c r="AA38" s="114"/>
+      <c r="AB38" s="114"/>
+      <c r="AC38" s="114"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="114"/>
+      <c r="AG38" s="114"/>
+      <c r="AH38" s="114"/>
+      <c r="AI38" s="114"/>
+      <c r="AJ38" s="114"/>
+      <c r="AK38" s="114"/>
+      <c r="AL38" s="114"/>
+      <c r="AM38" s="114"/>
+      <c r="AN38" s="115"/>
+      <c r="AQ38" s="113"/>
+      <c r="AR38" s="114"/>
+      <c r="AS38" s="114"/>
+      <c r="AT38" s="114"/>
+      <c r="AU38" s="114"/>
+      <c r="AV38" s="114"/>
+      <c r="AW38" s="114"/>
+      <c r="AX38" s="114"/>
+      <c r="AY38" s="114"/>
+      <c r="AZ38" s="114"/>
+      <c r="BA38" s="114"/>
+      <c r="BB38" s="114"/>
+      <c r="BC38" s="114"/>
+      <c r="BD38" s="114"/>
+      <c r="BE38" s="114"/>
+      <c r="BF38" s="114"/>
+      <c r="BG38" s="114"/>
+      <c r="BH38" s="114"/>
+      <c r="BI38" s="114"/>
+      <c r="BJ38" s="114"/>
+      <c r="BK38" s="114"/>
+      <c r="BL38" s="114"/>
+      <c r="BM38" s="114"/>
+      <c r="BN38" s="114"/>
+      <c r="BO38" s="114"/>
+      <c r="BP38" s="114"/>
+      <c r="BQ38" s="114"/>
+      <c r="BR38" s="114"/>
+      <c r="BS38" s="114"/>
+      <c r="BT38" s="114"/>
+      <c r="BU38" s="114"/>
+      <c r="BV38" s="114"/>
+      <c r="BW38" s="114"/>
+      <c r="BX38" s="114"/>
+      <c r="BY38" s="114"/>
+      <c r="BZ38" s="114"/>
+      <c r="CA38" s="114"/>
+      <c r="CB38" s="115"/>
     </row>
     <row r="39" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C39" s="122"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="123"/>
-      <c r="T39" s="123"/>
-      <c r="U39" s="123"/>
-      <c r="V39" s="123"/>
-      <c r="W39" s="123"/>
-      <c r="X39" s="123"/>
-      <c r="Y39" s="123"/>
-      <c r="Z39" s="123"/>
-      <c r="AA39" s="123"/>
-      <c r="AB39" s="123"/>
-      <c r="AC39" s="123"/>
-      <c r="AD39" s="123"/>
-      <c r="AE39" s="123"/>
-      <c r="AF39" s="123"/>
-      <c r="AG39" s="123"/>
-      <c r="AH39" s="123"/>
-      <c r="AI39" s="123"/>
-      <c r="AJ39" s="123"/>
-      <c r="AK39" s="123"/>
-      <c r="AL39" s="123"/>
-      <c r="AM39" s="123"/>
-      <c r="AN39" s="124"/>
-      <c r="AQ39" s="122"/>
-      <c r="AR39" s="123"/>
-      <c r="AS39" s="123"/>
-      <c r="AT39" s="123"/>
-      <c r="AU39" s="123"/>
-      <c r="AV39" s="123"/>
-      <c r="AW39" s="123"/>
-      <c r="AX39" s="123"/>
-      <c r="AY39" s="123"/>
-      <c r="AZ39" s="123"/>
-      <c r="BA39" s="123"/>
-      <c r="BB39" s="123"/>
-      <c r="BC39" s="123"/>
-      <c r="BD39" s="123"/>
-      <c r="BE39" s="123"/>
-      <c r="BF39" s="123"/>
-      <c r="BG39" s="123"/>
-      <c r="BH39" s="123"/>
-      <c r="BI39" s="123"/>
-      <c r="BJ39" s="123"/>
-      <c r="BK39" s="123"/>
-      <c r="BL39" s="123"/>
-      <c r="BM39" s="123"/>
-      <c r="BN39" s="123"/>
-      <c r="BO39" s="123"/>
-      <c r="BP39" s="123"/>
-      <c r="BQ39" s="123"/>
-      <c r="BR39" s="123"/>
-      <c r="BS39" s="123"/>
-      <c r="BT39" s="123"/>
-      <c r="BU39" s="123"/>
-      <c r="BV39" s="123"/>
-      <c r="BW39" s="123"/>
-      <c r="BX39" s="123"/>
-      <c r="BY39" s="123"/>
-      <c r="BZ39" s="123"/>
-      <c r="CA39" s="123"/>
-      <c r="CB39" s="124"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="114"/>
+      <c r="Z39" s="114"/>
+      <c r="AA39" s="114"/>
+      <c r="AB39" s="114"/>
+      <c r="AC39" s="114"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="114"/>
+      <c r="AF39" s="114"/>
+      <c r="AG39" s="114"/>
+      <c r="AH39" s="114"/>
+      <c r="AI39" s="114"/>
+      <c r="AJ39" s="114"/>
+      <c r="AK39" s="114"/>
+      <c r="AL39" s="114"/>
+      <c r="AM39" s="114"/>
+      <c r="AN39" s="115"/>
+      <c r="AQ39" s="113"/>
+      <c r="AR39" s="114"/>
+      <c r="AS39" s="114"/>
+      <c r="AT39" s="114"/>
+      <c r="AU39" s="114"/>
+      <c r="AV39" s="114"/>
+      <c r="AW39" s="114"/>
+      <c r="AX39" s="114"/>
+      <c r="AY39" s="114"/>
+      <c r="AZ39" s="114"/>
+      <c r="BA39" s="114"/>
+      <c r="BB39" s="114"/>
+      <c r="BC39" s="114"/>
+      <c r="BD39" s="114"/>
+      <c r="BE39" s="114"/>
+      <c r="BF39" s="114"/>
+      <c r="BG39" s="114"/>
+      <c r="BH39" s="114"/>
+      <c r="BI39" s="114"/>
+      <c r="BJ39" s="114"/>
+      <c r="BK39" s="114"/>
+      <c r="BL39" s="114"/>
+      <c r="BM39" s="114"/>
+      <c r="BN39" s="114"/>
+      <c r="BO39" s="114"/>
+      <c r="BP39" s="114"/>
+      <c r="BQ39" s="114"/>
+      <c r="BR39" s="114"/>
+      <c r="BS39" s="114"/>
+      <c r="BT39" s="114"/>
+      <c r="BU39" s="114"/>
+      <c r="BV39" s="114"/>
+      <c r="BW39" s="114"/>
+      <c r="BX39" s="114"/>
+      <c r="BY39" s="114"/>
+      <c r="BZ39" s="114"/>
+      <c r="CA39" s="114"/>
+      <c r="CB39" s="115"/>
     </row>
     <row r="40" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C40" s="122"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="123"/>
-      <c r="T40" s="123"/>
-      <c r="U40" s="123"/>
-      <c r="V40" s="123"/>
-      <c r="W40" s="123"/>
-      <c r="X40" s="123"/>
-      <c r="Y40" s="123"/>
-      <c r="Z40" s="123"/>
-      <c r="AA40" s="123"/>
-      <c r="AB40" s="123"/>
-      <c r="AC40" s="123"/>
-      <c r="AD40" s="123"/>
-      <c r="AE40" s="123"/>
-      <c r="AF40" s="123"/>
-      <c r="AG40" s="123"/>
-      <c r="AH40" s="123"/>
-      <c r="AI40" s="123"/>
-      <c r="AJ40" s="123"/>
-      <c r="AK40" s="123"/>
-      <c r="AL40" s="123"/>
-      <c r="AM40" s="123"/>
-      <c r="AN40" s="124"/>
-      <c r="AQ40" s="122"/>
-      <c r="AR40" s="123"/>
-      <c r="AS40" s="123"/>
-      <c r="AT40" s="123"/>
-      <c r="AU40" s="123"/>
-      <c r="AV40" s="123"/>
-      <c r="AW40" s="123"/>
-      <c r="AX40" s="123"/>
-      <c r="AY40" s="123"/>
-      <c r="AZ40" s="123"/>
-      <c r="BA40" s="123"/>
-      <c r="BB40" s="123"/>
-      <c r="BC40" s="123"/>
-      <c r="BD40" s="123"/>
-      <c r="BE40" s="123"/>
-      <c r="BF40" s="123"/>
-      <c r="BG40" s="123"/>
-      <c r="BH40" s="123"/>
-      <c r="BI40" s="123"/>
-      <c r="BJ40" s="123"/>
-      <c r="BK40" s="123"/>
-      <c r="BL40" s="123"/>
-      <c r="BM40" s="123"/>
-      <c r="BN40" s="123"/>
-      <c r="BO40" s="123"/>
-      <c r="BP40" s="123"/>
-      <c r="BQ40" s="123"/>
-      <c r="BR40" s="123"/>
-      <c r="BS40" s="123"/>
-      <c r="BT40" s="123"/>
-      <c r="BU40" s="123"/>
-      <c r="BV40" s="123"/>
-      <c r="BW40" s="123"/>
-      <c r="BX40" s="123"/>
-      <c r="BY40" s="123"/>
-      <c r="BZ40" s="123"/>
-      <c r="CA40" s="123"/>
-      <c r="CB40" s="124"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="114"/>
+      <c r="AB40" s="114"/>
+      <c r="AC40" s="114"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
+      <c r="AL40" s="114"/>
+      <c r="AM40" s="114"/>
+      <c r="AN40" s="115"/>
+      <c r="AQ40" s="113"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
+      <c r="AZ40" s="114"/>
+      <c r="BA40" s="114"/>
+      <c r="BB40" s="114"/>
+      <c r="BC40" s="114"/>
+      <c r="BD40" s="114"/>
+      <c r="BE40" s="114"/>
+      <c r="BF40" s="114"/>
+      <c r="BG40" s="114"/>
+      <c r="BH40" s="114"/>
+      <c r="BI40" s="114"/>
+      <c r="BJ40" s="114"/>
+      <c r="BK40" s="114"/>
+      <c r="BL40" s="114"/>
+      <c r="BM40" s="114"/>
+      <c r="BN40" s="114"/>
+      <c r="BO40" s="114"/>
+      <c r="BP40" s="114"/>
+      <c r="BQ40" s="114"/>
+      <c r="BR40" s="114"/>
+      <c r="BS40" s="114"/>
+      <c r="BT40" s="114"/>
+      <c r="BU40" s="114"/>
+      <c r="BV40" s="114"/>
+      <c r="BW40" s="114"/>
+      <c r="BX40" s="114"/>
+      <c r="BY40" s="114"/>
+      <c r="BZ40" s="114"/>
+      <c r="CA40" s="114"/>
+      <c r="CB40" s="115"/>
     </row>
     <row r="41" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C41" s="122"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="123"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="123"/>
-      <c r="Y41" s="123"/>
-      <c r="Z41" s="123"/>
-      <c r="AA41" s="123"/>
-      <c r="AB41" s="123"/>
-      <c r="AC41" s="123"/>
-      <c r="AD41" s="123"/>
-      <c r="AE41" s="123"/>
-      <c r="AF41" s="123"/>
-      <c r="AG41" s="123"/>
-      <c r="AH41" s="123"/>
-      <c r="AI41" s="123"/>
-      <c r="AJ41" s="123"/>
-      <c r="AK41" s="123"/>
-      <c r="AL41" s="123"/>
-      <c r="AM41" s="123"/>
-      <c r="AN41" s="124"/>
-      <c r="AQ41" s="122"/>
-      <c r="AR41" s="123"/>
-      <c r="AS41" s="123"/>
-      <c r="AT41" s="123"/>
-      <c r="AU41" s="123"/>
-      <c r="AV41" s="123"/>
-      <c r="AW41" s="123"/>
-      <c r="AX41" s="123"/>
-      <c r="AY41" s="123"/>
-      <c r="AZ41" s="123"/>
-      <c r="BA41" s="123"/>
-      <c r="BB41" s="123"/>
-      <c r="BC41" s="123"/>
-      <c r="BD41" s="123"/>
-      <c r="BE41" s="123"/>
-      <c r="BF41" s="123"/>
-      <c r="BG41" s="123"/>
-      <c r="BH41" s="123"/>
-      <c r="BI41" s="123"/>
-      <c r="BJ41" s="123"/>
-      <c r="BK41" s="123"/>
-      <c r="BL41" s="123"/>
-      <c r="BM41" s="123"/>
-      <c r="BN41" s="123"/>
-      <c r="BO41" s="123"/>
-      <c r="BP41" s="123"/>
-      <c r="BQ41" s="123"/>
-      <c r="BR41" s="123"/>
-      <c r="BS41" s="123"/>
-      <c r="BT41" s="123"/>
-      <c r="BU41" s="123"/>
-      <c r="BV41" s="123"/>
-      <c r="BW41" s="123"/>
-      <c r="BX41" s="123"/>
-      <c r="BY41" s="123"/>
-      <c r="BZ41" s="123"/>
-      <c r="CA41" s="123"/>
-      <c r="CB41" s="124"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="114"/>
+      <c r="R41" s="114"/>
+      <c r="S41" s="114"/>
+      <c r="T41" s="114"/>
+      <c r="U41" s="114"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="114"/>
+      <c r="Y41" s="114"/>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="114"/>
+      <c r="AB41" s="114"/>
+      <c r="AC41" s="114"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="114"/>
+      <c r="AF41" s="114"/>
+      <c r="AG41" s="114"/>
+      <c r="AH41" s="114"/>
+      <c r="AI41" s="114"/>
+      <c r="AJ41" s="114"/>
+      <c r="AK41" s="114"/>
+      <c r="AL41" s="114"/>
+      <c r="AM41" s="114"/>
+      <c r="AN41" s="115"/>
+      <c r="AQ41" s="113"/>
+      <c r="AR41" s="114"/>
+      <c r="AS41" s="114"/>
+      <c r="AT41" s="114"/>
+      <c r="AU41" s="114"/>
+      <c r="AV41" s="114"/>
+      <c r="AW41" s="114"/>
+      <c r="AX41" s="114"/>
+      <c r="AY41" s="114"/>
+      <c r="AZ41" s="114"/>
+      <c r="BA41" s="114"/>
+      <c r="BB41" s="114"/>
+      <c r="BC41" s="114"/>
+      <c r="BD41" s="114"/>
+      <c r="BE41" s="114"/>
+      <c r="BF41" s="114"/>
+      <c r="BG41" s="114"/>
+      <c r="BH41" s="114"/>
+      <c r="BI41" s="114"/>
+      <c r="BJ41" s="114"/>
+      <c r="BK41" s="114"/>
+      <c r="BL41" s="114"/>
+      <c r="BM41" s="114"/>
+      <c r="BN41" s="114"/>
+      <c r="BO41" s="114"/>
+      <c r="BP41" s="114"/>
+      <c r="BQ41" s="114"/>
+      <c r="BR41" s="114"/>
+      <c r="BS41" s="114"/>
+      <c r="BT41" s="114"/>
+      <c r="BU41" s="114"/>
+      <c r="BV41" s="114"/>
+      <c r="BW41" s="114"/>
+      <c r="BX41" s="114"/>
+      <c r="BY41" s="114"/>
+      <c r="BZ41" s="114"/>
+      <c r="CA41" s="114"/>
+      <c r="CB41" s="115"/>
     </row>
     <row r="42" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C42" s="122"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="123"/>
-      <c r="N42" s="123"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="123"/>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="123"/>
-      <c r="S42" s="123"/>
-      <c r="T42" s="123"/>
-      <c r="U42" s="123"/>
-      <c r="V42" s="123"/>
-      <c r="W42" s="123"/>
-      <c r="X42" s="123"/>
-      <c r="Y42" s="123"/>
-      <c r="Z42" s="123"/>
-      <c r="AA42" s="123"/>
-      <c r="AB42" s="123"/>
-      <c r="AC42" s="123"/>
-      <c r="AD42" s="123"/>
-      <c r="AE42" s="123"/>
-      <c r="AF42" s="123"/>
-      <c r="AG42" s="123"/>
-      <c r="AH42" s="123"/>
-      <c r="AI42" s="123"/>
-      <c r="AJ42" s="123"/>
-      <c r="AK42" s="123"/>
-      <c r="AL42" s="123"/>
-      <c r="AM42" s="123"/>
-      <c r="AN42" s="124"/>
-      <c r="AQ42" s="122"/>
-      <c r="AR42" s="123"/>
-      <c r="AS42" s="123"/>
-      <c r="AT42" s="123"/>
-      <c r="AU42" s="123"/>
-      <c r="AV42" s="123"/>
-      <c r="AW42" s="123"/>
-      <c r="AX42" s="123"/>
-      <c r="AY42" s="123"/>
-      <c r="AZ42" s="123"/>
-      <c r="BA42" s="123"/>
-      <c r="BB42" s="123"/>
-      <c r="BC42" s="123"/>
-      <c r="BD42" s="123"/>
-      <c r="BE42" s="123"/>
-      <c r="BF42" s="123"/>
-      <c r="BG42" s="123"/>
-      <c r="BH42" s="123"/>
-      <c r="BI42" s="123"/>
-      <c r="BJ42" s="123"/>
-      <c r="BK42" s="123"/>
-      <c r="BL42" s="123"/>
-      <c r="BM42" s="123"/>
-      <c r="BN42" s="123"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
-      <c r="BU42" s="123"/>
-      <c r="BV42" s="123"/>
-      <c r="BW42" s="123"/>
-      <c r="BX42" s="123"/>
-      <c r="BY42" s="123"/>
-      <c r="BZ42" s="123"/>
-      <c r="CA42" s="123"/>
-      <c r="CB42" s="124"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="114"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="114"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="114"/>
+      <c r="AC42" s="114"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="114"/>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="114"/>
+      <c r="AJ42" s="114"/>
+      <c r="AK42" s="114"/>
+      <c r="AL42" s="114"/>
+      <c r="AM42" s="114"/>
+      <c r="AN42" s="115"/>
+      <c r="AQ42" s="113"/>
+      <c r="AR42" s="114"/>
+      <c r="AS42" s="114"/>
+      <c r="AT42" s="114"/>
+      <c r="AU42" s="114"/>
+      <c r="AV42" s="114"/>
+      <c r="AW42" s="114"/>
+      <c r="AX42" s="114"/>
+      <c r="AY42" s="114"/>
+      <c r="AZ42" s="114"/>
+      <c r="BA42" s="114"/>
+      <c r="BB42" s="114"/>
+      <c r="BC42" s="114"/>
+      <c r="BD42" s="114"/>
+      <c r="BE42" s="114"/>
+      <c r="BF42" s="114"/>
+      <c r="BG42" s="114"/>
+      <c r="BH42" s="114"/>
+      <c r="BI42" s="114"/>
+      <c r="BJ42" s="114"/>
+      <c r="BK42" s="114"/>
+      <c r="BL42" s="114"/>
+      <c r="BM42" s="114"/>
+      <c r="BN42" s="114"/>
+      <c r="BO42" s="114"/>
+      <c r="BP42" s="114"/>
+      <c r="BQ42" s="114"/>
+      <c r="BR42" s="114"/>
+      <c r="BS42" s="114"/>
+      <c r="BT42" s="114"/>
+      <c r="BU42" s="114"/>
+      <c r="BV42" s="114"/>
+      <c r="BW42" s="114"/>
+      <c r="BX42" s="114"/>
+      <c r="BY42" s="114"/>
+      <c r="BZ42" s="114"/>
+      <c r="CA42" s="114"/>
+      <c r="CB42" s="115"/>
     </row>
     <row r="43" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C43" s="122"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="123"/>
-      <c r="X43" s="123"/>
-      <c r="Y43" s="123"/>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
-      <c r="AC43" s="123"/>
-      <c r="AD43" s="123"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="123"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="123"/>
-      <c r="AL43" s="123"/>
-      <c r="AM43" s="123"/>
-      <c r="AN43" s="124"/>
-      <c r="AQ43" s="122"/>
-      <c r="AR43" s="123"/>
-      <c r="AS43" s="123"/>
-      <c r="AT43" s="123"/>
-      <c r="AU43" s="123"/>
-      <c r="AV43" s="123"/>
-      <c r="AW43" s="123"/>
-      <c r="AX43" s="123"/>
-      <c r="AY43" s="123"/>
-      <c r="AZ43" s="123"/>
-      <c r="BA43" s="123"/>
-      <c r="BB43" s="123"/>
-      <c r="BC43" s="123"/>
-      <c r="BD43" s="123"/>
-      <c r="BE43" s="123"/>
-      <c r="BF43" s="123"/>
-      <c r="BG43" s="123"/>
-      <c r="BH43" s="123"/>
-      <c r="BI43" s="123"/>
-      <c r="BJ43" s="123"/>
-      <c r="BK43" s="123"/>
-      <c r="BL43" s="123"/>
-      <c r="BM43" s="123"/>
-      <c r="BN43" s="123"/>
-      <c r="BO43" s="123"/>
-      <c r="BP43" s="123"/>
-      <c r="BQ43" s="123"/>
-      <c r="BR43" s="123"/>
-      <c r="BS43" s="123"/>
-      <c r="BT43" s="123"/>
-      <c r="BU43" s="123"/>
-      <c r="BV43" s="123"/>
-      <c r="BW43" s="123"/>
-      <c r="BX43" s="123"/>
-      <c r="BY43" s="123"/>
-      <c r="BZ43" s="123"/>
-      <c r="CA43" s="123"/>
-      <c r="CB43" s="124"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="114"/>
+      <c r="Q43" s="114"/>
+      <c r="R43" s="114"/>
+      <c r="S43" s="114"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="114"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="114"/>
+      <c r="Y43" s="114"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="114"/>
+      <c r="AB43" s="114"/>
+      <c r="AC43" s="114"/>
+      <c r="AD43" s="114"/>
+      <c r="AE43" s="114"/>
+      <c r="AF43" s="114"/>
+      <c r="AG43" s="114"/>
+      <c r="AH43" s="114"/>
+      <c r="AI43" s="114"/>
+      <c r="AJ43" s="114"/>
+      <c r="AK43" s="114"/>
+      <c r="AL43" s="114"/>
+      <c r="AM43" s="114"/>
+      <c r="AN43" s="115"/>
+      <c r="AQ43" s="113"/>
+      <c r="AR43" s="114"/>
+      <c r="AS43" s="114"/>
+      <c r="AT43" s="114"/>
+      <c r="AU43" s="114"/>
+      <c r="AV43" s="114"/>
+      <c r="AW43" s="114"/>
+      <c r="AX43" s="114"/>
+      <c r="AY43" s="114"/>
+      <c r="AZ43" s="114"/>
+      <c r="BA43" s="114"/>
+      <c r="BB43" s="114"/>
+      <c r="BC43" s="114"/>
+      <c r="BD43" s="114"/>
+      <c r="BE43" s="114"/>
+      <c r="BF43" s="114"/>
+      <c r="BG43" s="114"/>
+      <c r="BH43" s="114"/>
+      <c r="BI43" s="114"/>
+      <c r="BJ43" s="114"/>
+      <c r="BK43" s="114"/>
+      <c r="BL43" s="114"/>
+      <c r="BM43" s="114"/>
+      <c r="BN43" s="114"/>
+      <c r="BO43" s="114"/>
+      <c r="BP43" s="114"/>
+      <c r="BQ43" s="114"/>
+      <c r="BR43" s="114"/>
+      <c r="BS43" s="114"/>
+      <c r="BT43" s="114"/>
+      <c r="BU43" s="114"/>
+      <c r="BV43" s="114"/>
+      <c r="BW43" s="114"/>
+      <c r="BX43" s="114"/>
+      <c r="BY43" s="114"/>
+      <c r="BZ43" s="114"/>
+      <c r="CA43" s="114"/>
+      <c r="CB43" s="115"/>
     </row>
     <row r="44" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C44" s="122"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="123"/>
-      <c r="P44" s="123"/>
-      <c r="Q44" s="123"/>
-      <c r="R44" s="123"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="123"/>
-      <c r="U44" s="123"/>
-      <c r="V44" s="123"/>
-      <c r="W44" s="123"/>
-      <c r="X44" s="123"/>
-      <c r="Y44" s="123"/>
-      <c r="Z44" s="123"/>
-      <c r="AA44" s="123"/>
-      <c r="AB44" s="123"/>
-      <c r="AC44" s="123"/>
-      <c r="AD44" s="123"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="123"/>
-      <c r="AG44" s="123"/>
-      <c r="AH44" s="123"/>
-      <c r="AI44" s="123"/>
-      <c r="AJ44" s="123"/>
-      <c r="AK44" s="123"/>
-      <c r="AL44" s="123"/>
-      <c r="AM44" s="123"/>
-      <c r="AN44" s="124"/>
-      <c r="AQ44" s="122"/>
-      <c r="AR44" s="123"/>
-      <c r="AS44" s="123"/>
-      <c r="AT44" s="123"/>
-      <c r="AU44" s="123"/>
-      <c r="AV44" s="123"/>
-      <c r="AW44" s="123"/>
-      <c r="AX44" s="123"/>
-      <c r="AY44" s="123"/>
-      <c r="AZ44" s="123"/>
-      <c r="BA44" s="123"/>
-      <c r="BB44" s="123"/>
-      <c r="BC44" s="123"/>
-      <c r="BD44" s="123"/>
-      <c r="BE44" s="123"/>
-      <c r="BF44" s="123"/>
-      <c r="BG44" s="123"/>
-      <c r="BH44" s="123"/>
-      <c r="BI44" s="123"/>
-      <c r="BJ44" s="123"/>
-      <c r="BK44" s="123"/>
-      <c r="BL44" s="123"/>
-      <c r="BM44" s="123"/>
-      <c r="BN44" s="123"/>
-      <c r="BO44" s="123"/>
-      <c r="BP44" s="123"/>
-      <c r="BQ44" s="123"/>
-      <c r="BR44" s="123"/>
-      <c r="BS44" s="123"/>
-      <c r="BT44" s="123"/>
-      <c r="BU44" s="123"/>
-      <c r="BV44" s="123"/>
-      <c r="BW44" s="123"/>
-      <c r="BX44" s="123"/>
-      <c r="BY44" s="123"/>
-      <c r="BZ44" s="123"/>
-      <c r="CA44" s="123"/>
-      <c r="CB44" s="124"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="114"/>
+      <c r="Y44" s="114"/>
+      <c r="Z44" s="114"/>
+      <c r="AA44" s="114"/>
+      <c r="AB44" s="114"/>
+      <c r="AC44" s="114"/>
+      <c r="AD44" s="114"/>
+      <c r="AE44" s="114"/>
+      <c r="AF44" s="114"/>
+      <c r="AG44" s="114"/>
+      <c r="AH44" s="114"/>
+      <c r="AI44" s="114"/>
+      <c r="AJ44" s="114"/>
+      <c r="AK44" s="114"/>
+      <c r="AL44" s="114"/>
+      <c r="AM44" s="114"/>
+      <c r="AN44" s="115"/>
+      <c r="AQ44" s="113"/>
+      <c r="AR44" s="114"/>
+      <c r="AS44" s="114"/>
+      <c r="AT44" s="114"/>
+      <c r="AU44" s="114"/>
+      <c r="AV44" s="114"/>
+      <c r="AW44" s="114"/>
+      <c r="AX44" s="114"/>
+      <c r="AY44" s="114"/>
+      <c r="AZ44" s="114"/>
+      <c r="BA44" s="114"/>
+      <c r="BB44" s="114"/>
+      <c r="BC44" s="114"/>
+      <c r="BD44" s="114"/>
+      <c r="BE44" s="114"/>
+      <c r="BF44" s="114"/>
+      <c r="BG44" s="114"/>
+      <c r="BH44" s="114"/>
+      <c r="BI44" s="114"/>
+      <c r="BJ44" s="114"/>
+      <c r="BK44" s="114"/>
+      <c r="BL44" s="114"/>
+      <c r="BM44" s="114"/>
+      <c r="BN44" s="114"/>
+      <c r="BO44" s="114"/>
+      <c r="BP44" s="114"/>
+      <c r="BQ44" s="114"/>
+      <c r="BR44" s="114"/>
+      <c r="BS44" s="114"/>
+      <c r="BT44" s="114"/>
+      <c r="BU44" s="114"/>
+      <c r="BV44" s="114"/>
+      <c r="BW44" s="114"/>
+      <c r="BX44" s="114"/>
+      <c r="BY44" s="114"/>
+      <c r="BZ44" s="114"/>
+      <c r="CA44" s="114"/>
+      <c r="CB44" s="115"/>
     </row>
     <row r="45" spans="3:80" ht="9.75" customHeight="1">
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
-      <c r="N45" s="123"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="123"/>
-      <c r="U45" s="123"/>
-      <c r="V45" s="123"/>
-      <c r="W45" s="123"/>
-      <c r="X45" s="123"/>
-      <c r="Y45" s="123"/>
-      <c r="Z45" s="123"/>
-      <c r="AA45" s="123"/>
-      <c r="AB45" s="123"/>
-      <c r="AC45" s="123"/>
-      <c r="AD45" s="123"/>
-      <c r="AE45" s="123"/>
-      <c r="AF45" s="123"/>
-      <c r="AG45" s="123"/>
-      <c r="AH45" s="123"/>
-      <c r="AI45" s="123"/>
-      <c r="AJ45" s="123"/>
-      <c r="AK45" s="123"/>
-      <c r="AL45" s="123"/>
-      <c r="AM45" s="123"/>
-      <c r="AN45" s="124"/>
-      <c r="AQ45" s="122"/>
-      <c r="AR45" s="123"/>
-      <c r="AS45" s="123"/>
-      <c r="AT45" s="123"/>
-      <c r="AU45" s="123"/>
-      <c r="AV45" s="123"/>
-      <c r="AW45" s="123"/>
-      <c r="AX45" s="123"/>
-      <c r="AY45" s="123"/>
-      <c r="AZ45" s="123"/>
-      <c r="BA45" s="123"/>
-      <c r="BB45" s="123"/>
-      <c r="BC45" s="123"/>
-      <c r="BD45" s="123"/>
-      <c r="BE45" s="123"/>
-      <c r="BF45" s="123"/>
-      <c r="BG45" s="123"/>
-      <c r="BH45" s="123"/>
-      <c r="BI45" s="123"/>
-      <c r="BJ45" s="123"/>
-      <c r="BK45" s="123"/>
-      <c r="BL45" s="123"/>
-      <c r="BM45" s="123"/>
-      <c r="BN45" s="123"/>
-      <c r="BO45" s="123"/>
-      <c r="BP45" s="123"/>
-      <c r="BQ45" s="123"/>
-      <c r="BR45" s="123"/>
-      <c r="BS45" s="123"/>
-      <c r="BT45" s="123"/>
-      <c r="BU45" s="123"/>
-      <c r="BV45" s="123"/>
-      <c r="BW45" s="123"/>
-      <c r="BX45" s="123"/>
-      <c r="BY45" s="123"/>
-      <c r="BZ45" s="123"/>
-      <c r="CA45" s="123"/>
-      <c r="CB45" s="124"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="114"/>
+      <c r="S45" s="114"/>
+      <c r="T45" s="114"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="114"/>
+      <c r="Z45" s="114"/>
+      <c r="AA45" s="114"/>
+      <c r="AB45" s="114"/>
+      <c r="AC45" s="114"/>
+      <c r="AD45" s="114"/>
+      <c r="AE45" s="114"/>
+      <c r="AF45" s="114"/>
+      <c r="AG45" s="114"/>
+      <c r="AH45" s="114"/>
+      <c r="AI45" s="114"/>
+      <c r="AJ45" s="114"/>
+      <c r="AK45" s="114"/>
+      <c r="AL45" s="114"/>
+      <c r="AM45" s="114"/>
+      <c r="AN45" s="115"/>
+      <c r="AQ45" s="113"/>
+      <c r="AR45" s="114"/>
+      <c r="AS45" s="114"/>
+      <c r="AT45" s="114"/>
+      <c r="AU45" s="114"/>
+      <c r="AV45" s="114"/>
+      <c r="AW45" s="114"/>
+      <c r="AX45" s="114"/>
+      <c r="AY45" s="114"/>
+      <c r="AZ45" s="114"/>
+      <c r="BA45" s="114"/>
+      <c r="BB45" s="114"/>
+      <c r="BC45" s="114"/>
+      <c r="BD45" s="114"/>
+      <c r="BE45" s="114"/>
+      <c r="BF45" s="114"/>
+      <c r="BG45" s="114"/>
+      <c r="BH45" s="114"/>
+      <c r="BI45" s="114"/>
+      <c r="BJ45" s="114"/>
+      <c r="BK45" s="114"/>
+      <c r="BL45" s="114"/>
+      <c r="BM45" s="114"/>
+      <c r="BN45" s="114"/>
+      <c r="BO45" s="114"/>
+      <c r="BP45" s="114"/>
+      <c r="BQ45" s="114"/>
+      <c r="BR45" s="114"/>
+      <c r="BS45" s="114"/>
+      <c r="BT45" s="114"/>
+      <c r="BU45" s="114"/>
+      <c r="BV45" s="114"/>
+      <c r="BW45" s="114"/>
+      <c r="BX45" s="114"/>
+      <c r="BY45" s="114"/>
+      <c r="BZ45" s="114"/>
+      <c r="CA45" s="114"/>
+      <c r="CB45" s="115"/>
     </row>
     <row r="46" spans="3:80" ht="9.75" customHeight="1" thickBot="1">
-      <c r="C46" s="125"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="126"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="126"/>
-      <c r="S46" s="126"/>
-      <c r="T46" s="126"/>
-      <c r="U46" s="126"/>
-      <c r="V46" s="126"/>
-      <c r="W46" s="126"/>
-      <c r="X46" s="126"/>
-      <c r="Y46" s="126"/>
-      <c r="Z46" s="126"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="126"/>
-      <c r="AC46" s="126"/>
-      <c r="AD46" s="126"/>
-      <c r="AE46" s="126"/>
-      <c r="AF46" s="126"/>
-      <c r="AG46" s="126"/>
-      <c r="AH46" s="126"/>
-      <c r="AI46" s="126"/>
-      <c r="AJ46" s="126"/>
-      <c r="AK46" s="126"/>
-      <c r="AL46" s="126"/>
-      <c r="AM46" s="126"/>
-      <c r="AN46" s="127"/>
-      <c r="AQ46" s="125"/>
-      <c r="AR46" s="126"/>
-      <c r="AS46" s="126"/>
-      <c r="AT46" s="126"/>
-      <c r="AU46" s="126"/>
-      <c r="AV46" s="126"/>
-      <c r="AW46" s="126"/>
-      <c r="AX46" s="126"/>
-      <c r="AY46" s="126"/>
-      <c r="AZ46" s="126"/>
-      <c r="BA46" s="126"/>
-      <c r="BB46" s="126"/>
-      <c r="BC46" s="126"/>
-      <c r="BD46" s="126"/>
-      <c r="BE46" s="126"/>
-      <c r="BF46" s="126"/>
-      <c r="BG46" s="126"/>
-      <c r="BH46" s="126"/>
-      <c r="BI46" s="126"/>
-      <c r="BJ46" s="126"/>
-      <c r="BK46" s="126"/>
-      <c r="BL46" s="126"/>
-      <c r="BM46" s="126"/>
-      <c r="BN46" s="126"/>
-      <c r="BO46" s="126"/>
-      <c r="BP46" s="126"/>
-      <c r="BQ46" s="126"/>
-      <c r="BR46" s="126"/>
-      <c r="BS46" s="126"/>
-      <c r="BT46" s="126"/>
-      <c r="BU46" s="126"/>
-      <c r="BV46" s="126"/>
-      <c r="BW46" s="126"/>
-      <c r="BX46" s="126"/>
-      <c r="BY46" s="126"/>
-      <c r="BZ46" s="126"/>
-      <c r="CA46" s="126"/>
-      <c r="CB46" s="127"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="117"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="117"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="117"/>
+      <c r="AB46" s="117"/>
+      <c r="AC46" s="117"/>
+      <c r="AD46" s="117"/>
+      <c r="AE46" s="117"/>
+      <c r="AF46" s="117"/>
+      <c r="AG46" s="117"/>
+      <c r="AH46" s="117"/>
+      <c r="AI46" s="117"/>
+      <c r="AJ46" s="117"/>
+      <c r="AK46" s="117"/>
+      <c r="AL46" s="117"/>
+      <c r="AM46" s="117"/>
+      <c r="AN46" s="118"/>
+      <c r="AQ46" s="116"/>
+      <c r="AR46" s="117"/>
+      <c r="AS46" s="117"/>
+      <c r="AT46" s="117"/>
+      <c r="AU46" s="117"/>
+      <c r="AV46" s="117"/>
+      <c r="AW46" s="117"/>
+      <c r="AX46" s="117"/>
+      <c r="AY46" s="117"/>
+      <c r="AZ46" s="117"/>
+      <c r="BA46" s="117"/>
+      <c r="BB46" s="117"/>
+      <c r="BC46" s="117"/>
+      <c r="BD46" s="117"/>
+      <c r="BE46" s="117"/>
+      <c r="BF46" s="117"/>
+      <c r="BG46" s="117"/>
+      <c r="BH46" s="117"/>
+      <c r="BI46" s="117"/>
+      <c r="BJ46" s="117"/>
+      <c r="BK46" s="117"/>
+      <c r="BL46" s="117"/>
+      <c r="BM46" s="117"/>
+      <c r="BN46" s="117"/>
+      <c r="BO46" s="117"/>
+      <c r="BP46" s="117"/>
+      <c r="BQ46" s="117"/>
+      <c r="BR46" s="117"/>
+      <c r="BS46" s="117"/>
+      <c r="BT46" s="117"/>
+      <c r="BU46" s="117"/>
+      <c r="BV46" s="117"/>
+      <c r="BW46" s="117"/>
+      <c r="BX46" s="117"/>
+      <c r="BY46" s="117"/>
+      <c r="BZ46" s="117"/>
+      <c r="CA46" s="117"/>
+      <c r="CB46" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W2:AN3"/>
+    <mergeCell ref="W4:AN7"/>
+    <mergeCell ref="AQ2:BH3"/>
+    <mergeCell ref="AQ4:BH7"/>
+    <mergeCell ref="BK2:CB3"/>
+    <mergeCell ref="BK4:CB7"/>
     <mergeCell ref="C9:CB10"/>
     <mergeCell ref="C11:CB24"/>
     <mergeCell ref="C26:AN27"/>
     <mergeCell ref="C28:AN46"/>
     <mergeCell ref="AQ26:CB27"/>
     <mergeCell ref="AQ28:CB46"/>
-    <mergeCell ref="W2:AN3"/>
-    <mergeCell ref="W4:AN7"/>
-    <mergeCell ref="AQ2:BH3"/>
-    <mergeCell ref="AQ4:BH7"/>
-    <mergeCell ref="BK2:CB3"/>
-    <mergeCell ref="BK4:CB7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -13701,10 +13707,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="93"/>
+      <c r="C1" s="101"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
     </row>
@@ -13813,8 +13819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF34D44-0E29-4A7F-B47B-66AF094D5F9D}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13953,7 +13959,7 @@
         <f t="array" ref="I5">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0</v>
       </c>
@@ -14015,7 +14021,7 @@
         <f t="array" ref="I6">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0</v>
       </c>
@@ -14077,7 +14083,7 @@
         <f t="array" ref="I7">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -14139,7 +14145,7 @@
         <f t="array" ref="I8">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14201,7 +14207,7 @@
         <f t="array" ref="I9">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14263,7 +14269,7 @@
         <f t="array" ref="I10">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14325,7 +14331,7 @@
         <f t="array" ref="I11">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14387,7 +14393,7 @@
         <f t="array" ref="I12">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -14449,7 +14455,7 @@
         <f t="array" ref="I13">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14511,7 +14517,7 @@
         <f t="array" ref="I14">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14573,7 +14579,7 @@
         <f t="array" ref="I15">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14635,7 +14641,7 @@
         <f t="array" ref="I16">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -14697,7 +14703,7 @@
         <f t="array" ref="I17">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -14759,7 +14765,7 @@
         <f t="array" ref="I18">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0</v>
       </c>
@@ -14821,7 +14827,7 @@
         <f t="array" ref="I19">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -14883,7 +14889,7 @@
         <f t="array" ref="I20">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -14945,7 +14951,7 @@
         <f t="array" ref="I21">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -15007,7 +15013,7 @@
         <f t="array" ref="I22">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -15069,7 +15075,7 @@
         <f t="array" ref="I23">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -15131,7 +15137,7 @@
         <f t="array" ref="I24">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -15193,7 +15199,7 @@
         <f t="array" ref="I25">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -15255,7 +15261,7 @@
         <f t="array" ref="I26">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -15317,7 +15323,7 @@
         <f t="array" ref="I27">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -15379,7 +15385,7 @@
         <f t="array" ref="I28">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.05</v>
       </c>
@@ -15441,7 +15447,7 @@
         <f t="array" ref="I29">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -15503,7 +15509,7 @@
         <f t="array" ref="I30">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -15565,7 +15571,7 @@
         <f t="array" ref="I31">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -15627,7 +15633,7 @@
         <f t="array" ref="I32">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -15689,7 +15695,7 @@
         <f t="array" ref="I33">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -15751,7 +15757,7 @@
         <f t="array" ref="I34">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -15759,7 +15765,7 @@
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[Indice]],1)</f>
         <v>0.2</v>
       </c>
-      <c r="L34" s="70" cm="1">
+      <c r="L34" s="138" cm="1">
         <f t="array" ref="L34">INDEX(Desc_TabToda,MATCH(TB_Vendas[[#This Row],[Qtd]],Desc_Qtd,1),MATCH(_xlfn.XLOOKUP(TB_Vendas[[#This Row],[Código]],TB_Produtos[[#All],[Código]],TB_Produtos[[#All],[Categoria]]),Desc_Cols,0))</f>
         <v>0.2</v>
       </c>
@@ -15813,7 +15819,7 @@
         <f t="array" ref="I35">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -15875,7 +15881,7 @@
         <f t="array" ref="I36">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.05</v>
       </c>
@@ -15937,7 +15943,7 @@
         <f t="array" ref="I37">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0</v>
       </c>
@@ -15999,7 +16005,7 @@
         <f t="array" ref="I38">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16061,7 +16067,7 @@
         <f t="array" ref="I39">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16123,7 +16129,7 @@
         <f t="array" ref="I40">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -16185,7 +16191,7 @@
         <f t="array" ref="I41">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -16247,7 +16253,7 @@
         <f t="array" ref="I42">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0</v>
       </c>
@@ -16309,7 +16315,7 @@
         <f t="array" ref="I43">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -16371,7 +16377,7 @@
         <f t="array" ref="I44">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16433,7 +16439,7 @@
         <f t="array" ref="I45">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -16495,7 +16501,7 @@
         <f t="array" ref="I46">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -16557,7 +16563,7 @@
         <f t="array" ref="I47">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.05</v>
       </c>
@@ -16619,7 +16625,7 @@
         <f t="array" ref="I48">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -16681,7 +16687,7 @@
         <f t="array" ref="I49">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16743,7 +16749,7 @@
         <f t="array" ref="I50">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16805,7 +16811,7 @@
         <f t="array" ref="I51">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>2</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16867,7 +16873,7 @@
         <f t="array" ref="I52">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16929,7 +16935,7 @@
         <f t="array" ref="I53">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -16991,7 +16997,7 @@
         <f t="array" ref="I54">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -17053,7 +17059,7 @@
         <f t="array" ref="I55">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -17115,7 +17121,7 @@
         <f t="array" ref="I56">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -17177,7 +17183,7 @@
         <f t="array" ref="I57">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -17239,7 +17245,7 @@
         <f t="array" ref="I58">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -17301,7 +17307,7 @@
         <f t="array" ref="I59">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -17363,7 +17369,7 @@
         <f t="array" ref="I60">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -17425,7 +17431,7 @@
         <f t="array" ref="I61">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -17487,7 +17493,7 @@
         <f t="array" ref="I62">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -17549,7 +17555,7 @@
         <f t="array" ref="I63">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -17611,7 +17617,7 @@
         <f t="array" ref="I64">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.3</v>
       </c>
@@ -17673,7 +17679,7 @@
         <f t="array" ref="I65">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -17735,7 +17741,7 @@
         <f t="array" ref="I66">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -17797,7 +17803,7 @@
         <f t="array" ref="I67">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -17859,7 +17865,7 @@
         <f t="array" ref="I68">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -17921,7 +17927,7 @@
         <f t="array" ref="I69">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -17983,7 +17989,7 @@
         <f t="array" ref="I70">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -18045,7 +18051,7 @@
         <f t="array" ref="I71">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -18107,7 +18113,7 @@
         <f t="array" ref="I72">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -18169,7 +18175,7 @@
         <f t="array" ref="I73">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -18231,7 +18237,7 @@
         <f t="array" ref="I74">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.2</v>
       </c>
@@ -18293,7 +18299,7 @@
         <f t="array" ref="I75">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J75" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -18355,7 +18361,7 @@
         <f t="array" ref="I76">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.3</v>
       </c>
@@ -18417,7 +18423,7 @@
         <f t="array" ref="I77">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0</v>
       </c>
@@ -18479,7 +18485,7 @@
         <f t="array" ref="I78">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -18541,7 +18547,7 @@
         <f t="array" ref="I79">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J79" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -18603,7 +18609,7 @@
         <f t="array" ref="I80">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J80" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -18665,7 +18671,7 @@
         <f t="array" ref="I81">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J81" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.3</v>
       </c>
@@ -18727,7 +18733,7 @@
         <f t="array" ref="I82">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J82" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -18789,7 +18795,7 @@
         <f t="array" ref="I83">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J83" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.1</v>
       </c>
@@ -18851,7 +18857,7 @@
         <f t="array" ref="I84">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>4</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J84" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.15</v>
       </c>
@@ -18913,7 +18919,7 @@
         <f t="array" ref="I85">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J85" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -18975,7 +18981,7 @@
         <f t="array" ref="I86">_xlfn.IFS(TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$C$8,2,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$D$8,3,TB_Vendas[[#This Row],[Categoria]]='Cadastros Auxiliares'!$E$8,4)</f>
         <v>3</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J86" s="137">
         <f>VLOOKUP(TB_Vendas[[#This Row],[Qtd]],Desc_TabToda,TB_Vendas[[#This Row],[indSES]],1)</f>
         <v>0.25</v>
       </c>
@@ -19006,7 +19012,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="F4:N4">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19069,15 +19075,15 @@
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1">
       <c r="A4" s="42"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="5.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
@@ -19480,7 +19486,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="128" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="92" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="7" width="14.44140625" customWidth="1"/>
   </cols>
@@ -19492,17 +19498,17 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -19511,16 +19517,16 @@
       <c r="B3">
         <v>48</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="92">
         <v>65.900000000000006</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="132" t="e">
+      <c r="H3" s="95" t="e">
         <f>VLOOKUP(20,B2:C10,2,TRUE)</f>
         <v>#N/A</v>
       </c>
@@ -19532,14 +19538,14 @@
       <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="92">
         <v>63.9</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132" t="s">
+      <c r="F4" s="103"/>
+      <c r="G4" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="132">
+      <c r="H4" s="95">
         <f>VLOOKUP(20,B13:C20,2,TRUE)</f>
         <v>63.9</v>
       </c>
@@ -19551,16 +19557,16 @@
       <c r="B5">
         <v>37</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="92">
         <v>70.900000000000006</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="134">
+      <c r="H5" s="97">
         <f>_xlfn.XLOOKUP(20,B3:B10,C3:C10,"",-1)</f>
         <v>259.89999999999998</v>
       </c>
@@ -19572,7 +19578,7 @@
       <c r="B6">
         <v>36</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="92">
         <v>145</v>
       </c>
     </row>
@@ -19583,17 +19589,17 @@
       <c r="B7">
         <v>19</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="92">
         <v>259.89999999999998</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
@@ -19602,14 +19608,14 @@
       <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="92">
         <v>39.9</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
@@ -19618,17 +19624,17 @@
       <c r="B9">
         <v>24</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="92">
         <v>85.9</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="130" t="str">
+      <c r="G9" s="94" t="str">
         <f>_xlfn.XLOOKUP(35,B3:B10,A3:A10,,-1)</f>
         <v>Calça jeans</v>
       </c>
-      <c r="H9" s="130"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
@@ -19637,19 +19643,19 @@
       <c r="B10">
         <v>34</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="92">
         <v>89.9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -19658,15 +19664,15 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="130" t="str">
+      <c r="F12" s="94" t="str">
         <f>IF(_xlfn.XLOOKUP(65.9,C3:C10,A3:A10)="Bermuda","Sim","Não")</f>
         <v>Sim</v>
       </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -19675,7 +19681,7 @@
       <c r="B13">
         <v>48</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="92">
         <v>65.900000000000006</v>
       </c>
     </row>
@@ -19686,17 +19692,17 @@
       <c r="B14">
         <v>17</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="92">
         <v>63.9</v>
       </c>
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -19705,15 +19711,15 @@
       <c r="B15">
         <v>37</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="92">
         <v>70.900000000000006</v>
       </c>
-      <c r="F15" s="136" t="str">
+      <c r="F15" s="99" t="str">
         <f>_xlfn.XLOOKUP(MAX(C3:C10),C3:C10,A3:A10,)</f>
         <v>Bolsa de couro</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -19722,7 +19728,7 @@
       <c r="B16">
         <v>36</v>
       </c>
-      <c r="C16" s="128">
+      <c r="C16" s="92">
         <v>145</v>
       </c>
     </row>
@@ -19733,7 +19739,7 @@
       <c r="B17">
         <v>19</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="92">
         <v>259.89999999999998</v>
       </c>
     </row>
@@ -19744,7 +19750,7 @@
       <c r="B18">
         <v>23</v>
       </c>
-      <c r="C18" s="128">
+      <c r="C18" s="92">
         <v>39.9</v>
       </c>
     </row>
@@ -19755,7 +19761,7 @@
       <c r="B19">
         <v>24</v>
       </c>
-      <c r="C19" s="128">
+      <c r="C19" s="92">
         <v>85.9</v>
       </c>
     </row>
@@ -19766,7 +19772,7 @@
       <c r="B20">
         <v>34</v>
       </c>
-      <c r="C20" s="128">
+      <c r="C20" s="92">
         <v>89.9</v>
       </c>
     </row>
@@ -19785,7 +19791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39905401-EB67-41E9-8A80-FEE1B38FBE37}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -19797,7 +19803,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="128"/>
+      <c r="C1" s="92"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -19806,18 +19812,18 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -19826,7 +19832,7 @@
       <c r="B3">
         <v>48</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="92">
         <v>65.900000000000006</v>
       </c>
       <c r="F3" t="s">
@@ -19844,7 +19850,7 @@
       <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="92">
         <v>63.9</v>
       </c>
       <c r="F4" t="s">
@@ -19862,10 +19868,10 @@
       <c r="B5">
         <v>37</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="92">
         <v>70.900000000000006</v>
       </c>
-      <c r="L5" s="135"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -19874,7 +19880,7 @@
       <c r="B6">
         <v>36</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="92">
         <v>145</v>
       </c>
     </row>
@@ -19885,17 +19891,17 @@
       <c r="B7">
         <v>19</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="92">
         <v>259.89999999999998</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
@@ -19904,7 +19910,7 @@
       <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="92">
         <v>39.9</v>
       </c>
       <c r="F8">
@@ -19919,14 +19925,14 @@
       <c r="B9">
         <v>24</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="92">
         <v>85.9</v>
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" ref="F9">INDEX(_xlfn._xlws.SORT(A3:C10,2),F8,1)</f>
         <v>Calça jeans</v>
       </c>
-      <c r="L9" s="135"/>
+      <c r="L9" s="98"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -19935,56 +19941,56 @@
       <c r="B10">
         <v>34</v>
       </c>
-      <c r="C10" s="128">
+      <c r="C10" s="92">
         <v>89.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="C11" s="128"/>
+      <c r="C11" s="92"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="C12" s="128"/>
-      <c r="L12" s="135"/>
+      <c r="C12" s="92"/>
+      <c r="L12" s="98"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="128"/>
-      <c r="F13" s="135" t="s">
+      <c r="C13" s="92"/>
+      <c r="F13" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="128"/>
+      <c r="C14" s="92"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15" s="128"/>
+      <c r="C15" s="92"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="128"/>
+      <c r="C16" s="92"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="128"/>
+      <c r="C17" s="92"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="128"/>
-      <c r="F18" s="135" t="s">
+      <c r="C18" s="92"/>
+      <c r="F18" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="128"/>
+      <c r="C19" s="92"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="128"/>
+      <c r="C20" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
